--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>XP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +705,26 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>479800</v>
+        <v>948800</v>
       </c>
       <c r="E8" s="3">
-        <v>299800</v>
+        <v>547400</v>
       </c>
       <c r="F8" s="3">
-        <v>161100</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>352800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>231600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,9 +735,12 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,9 +765,12 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,23 +899,26 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12300</v>
+        <v>16900</v>
       </c>
       <c r="E15" s="3">
-        <v>6400</v>
+        <v>9800</v>
       </c>
       <c r="F15" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>5100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4300</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +943,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>524300</v>
+        <v>647500</v>
       </c>
       <c r="E17" s="3">
-        <v>296600</v>
+        <v>415500</v>
       </c>
       <c r="F17" s="3">
-        <v>205000</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>235000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>162400</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,23 +970,26 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-44600</v>
+        <v>301300</v>
       </c>
       <c r="E18" s="3">
-        <v>3200</v>
+        <v>131900</v>
       </c>
       <c r="F18" s="3">
-        <v>-43900</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>117800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>69200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,22 +1017,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>194200</v>
+        <v>-15600</v>
       </c>
       <c r="E20" s="3">
-        <v>131200</v>
+        <v>-13400</v>
       </c>
       <c r="F20" s="3">
-        <v>131200</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>-11300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>162100</v>
+        <v>302900</v>
       </c>
       <c r="E21" s="3">
-        <v>140900</v>
+        <v>128600</v>
       </c>
       <c r="F21" s="3">
-        <v>92800</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>111700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>73600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,23 +1104,26 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>149600</v>
+        <v>285700</v>
       </c>
       <c r="E23" s="3">
-        <v>134400</v>
+        <v>118600</v>
       </c>
       <c r="F23" s="3">
-        <v>87300</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>106500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>69200</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,23 +1134,26 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41000</v>
+        <v>84100</v>
       </c>
       <c r="E24" s="3">
-        <v>35500</v>
+        <v>32500</v>
       </c>
       <c r="F24" s="3">
-        <v>30400</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>28100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>24100</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,23 +1194,26 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>108700</v>
+        <v>201600</v>
       </c>
       <c r="E26" s="3">
-        <v>98900</v>
+        <v>86100</v>
       </c>
       <c r="F26" s="3">
-        <v>56900</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>78400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45100</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,23 +1224,26 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>107800</v>
+        <v>199900</v>
       </c>
       <c r="E27" s="3">
-        <v>96600</v>
+        <v>85400</v>
       </c>
       <c r="F27" s="3">
-        <v>44100</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>76600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>34900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,23 +1374,26 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-194200</v>
+        <v>15600</v>
       </c>
       <c r="E32" s="3">
-        <v>-131200</v>
+        <v>13400</v>
       </c>
       <c r="F32" s="3">
-        <v>-131200</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>11300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1335,23 +1404,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>107800</v>
+        <v>199900</v>
       </c>
       <c r="E33" s="3">
-        <v>96600</v>
+        <v>85400</v>
       </c>
       <c r="F33" s="3">
-        <v>44100</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>76600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>34900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,23 +1464,26 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>107800</v>
+        <v>199900</v>
       </c>
       <c r="E35" s="3">
-        <v>96600</v>
+        <v>85400</v>
       </c>
       <c r="F35" s="3">
-        <v>44100</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>76600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>34900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16000</v>
+        <v>20600</v>
       </c>
       <c r="E41" s="3">
-        <v>35800</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>12800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>28700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>94000</v>
+        <v>132200</v>
       </c>
       <c r="E43" s="3">
-        <v>40100</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>75400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>32200</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22600</v>
+        <v>16800</v>
       </c>
       <c r="E45" s="3">
-        <v>15300</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>18100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>12200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,9 +1707,12 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1636,20 +1737,23 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3426100</v>
+        <v>6997800</v>
       </c>
       <c r="E47" s="3">
-        <v>1264300</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>2749400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1014600</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23100</v>
+        <v>69300</v>
       </c>
       <c r="E48" s="3">
-        <v>11000</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>18600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>8800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,20 +1797,23 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>117900</v>
+        <v>103700</v>
       </c>
       <c r="E49" s="3">
-        <v>112800</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>94600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>90600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,20 +1887,23 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35600</v>
+        <v>53300</v>
       </c>
       <c r="E52" s="3">
-        <v>52900</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>28600</v>
+      </c>
+      <c r="F52" s="3">
+        <v>42400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4139000</v>
+        <v>8174900</v>
       </c>
       <c r="E54" s="3">
-        <v>1666400</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>3321500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1337300</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,19 +2008,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31400</v>
+        <v>50000</v>
       </c>
       <c r="E57" s="3">
-        <v>16700</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>25200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>13400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1905,20 +2035,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1577500</v>
+        <v>3022100</v>
       </c>
       <c r="E58" s="3">
-        <v>150500</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>1265900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>120800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>82900</v>
+        <v>157100</v>
       </c>
       <c r="E59" s="3">
-        <v>83200</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>66500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>66800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,9 +2095,12 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1986,20 +2125,23 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>177900</v>
+        <v>184500</v>
       </c>
       <c r="E61" s="3">
-        <v>172000</v>
+        <v>142700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>138100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2013,20 +2155,23 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6900</v>
+        <v>708300</v>
       </c>
       <c r="E62" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3652100</v>
+        <v>6834400</v>
       </c>
       <c r="E66" s="3">
-        <v>1399300</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>2930800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1123000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>221300</v>
+        <v>1301200</v>
       </c>
       <c r="E72" s="3">
-        <v>160100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>177600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>128500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>486800</v>
+        <v>1340500</v>
       </c>
       <c r="E76" s="3">
-        <v>267100</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>390700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>214300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,23 +2654,26 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>107800</v>
+        <v>199900</v>
       </c>
       <c r="E81" s="3">
-        <v>96600</v>
+        <v>85400</v>
       </c>
       <c r="F81" s="3">
-        <v>44100</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>76600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>34900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,22 +2701,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12300</v>
+        <v>16800</v>
       </c>
       <c r="E83" s="3">
-        <v>6400</v>
+        <v>9800</v>
       </c>
       <c r="F83" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>5100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>4300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2878,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-106700</v>
+        <v>-705700</v>
       </c>
       <c r="E89" s="3">
-        <v>61300</v>
+        <v>-84500</v>
       </c>
       <c r="F89" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>48500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,22 +2925,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12500</v>
+        <v>-13400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4800</v>
+        <v>-9900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-3800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3012,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34300</v>
+        <v>-29900</v>
       </c>
       <c r="E94" s="3">
-        <v>-106400</v>
+        <v>-27200</v>
       </c>
       <c r="F94" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-84300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-5900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,22 +3059,23 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-75900</v>
+        <v>-92500</v>
       </c>
       <c r="E96" s="3">
-        <v>-44400</v>
+        <v>-60100</v>
       </c>
       <c r="F96" s="3">
-        <v>-40700</v>
+        <v>-35200</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-32300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3176,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>88800</v>
+        <v>783400</v>
       </c>
       <c r="E100" s="3">
-        <v>136500</v>
+        <v>70300</v>
       </c>
       <c r="F100" s="3">
-        <v>19200</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>108200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>15200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,23 +3206,26 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="E101" s="3">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="F101" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-1300</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -2988,23 +3236,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-48700</v>
+        <v>48300</v>
       </c>
       <c r="E102" s="3">
-        <v>92300</v>
+        <v>-38600</v>
       </c>
       <c r="F102" s="3">
-        <v>11200</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>73200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>8900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>XP</t>
   </si>
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>948800</v>
+        <v>914800</v>
       </c>
       <c r="E8" s="3">
-        <v>547400</v>
+        <v>527800</v>
       </c>
       <c r="F8" s="3">
-        <v>352800</v>
+        <v>340100</v>
       </c>
       <c r="G8" s="3">
-        <v>231600</v>
+        <v>223300</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16900</v>
+        <v>16300</v>
       </c>
       <c r="E15" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="F15" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="G15" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>647500</v>
+        <v>624300</v>
       </c>
       <c r="E17" s="3">
-        <v>415500</v>
+        <v>400600</v>
       </c>
       <c r="F17" s="3">
-        <v>235000</v>
+        <v>226600</v>
       </c>
       <c r="G17" s="3">
-        <v>162400</v>
+        <v>156600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>301300</v>
+        <v>290500</v>
       </c>
       <c r="E18" s="3">
-        <v>131900</v>
+        <v>127200</v>
       </c>
       <c r="F18" s="3">
-        <v>117800</v>
+        <v>113600</v>
       </c>
       <c r="G18" s="3">
-        <v>69200</v>
+        <v>66700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15600</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-13400</v>
+        <v>-12900</v>
       </c>
       <c r="F20" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>302900</v>
+        <v>307000</v>
       </c>
       <c r="E21" s="3">
-        <v>128600</v>
+        <v>123900</v>
       </c>
       <c r="F21" s="3">
-        <v>111700</v>
+        <v>107600</v>
       </c>
       <c r="G21" s="3">
-        <v>73600</v>
+        <v>70900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1084,25 +1084,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>15100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>285700</v>
+        <v>275500</v>
       </c>
       <c r="E23" s="3">
-        <v>118600</v>
+        <v>114300</v>
       </c>
       <c r="F23" s="3">
-        <v>106500</v>
+        <v>102700</v>
       </c>
       <c r="G23" s="3">
-        <v>69200</v>
+        <v>66700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>84100</v>
+        <v>81100</v>
       </c>
       <c r="E24" s="3">
-        <v>32500</v>
+        <v>31300</v>
       </c>
       <c r="F24" s="3">
-        <v>28100</v>
+        <v>27100</v>
       </c>
       <c r="G24" s="3">
-        <v>24100</v>
+        <v>23200</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>201600</v>
+        <v>194400</v>
       </c>
       <c r="E26" s="3">
-        <v>86100</v>
+        <v>83000</v>
       </c>
       <c r="F26" s="3">
-        <v>78400</v>
+        <v>75600</v>
       </c>
       <c r="G26" s="3">
-        <v>45100</v>
+        <v>43500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>199900</v>
+        <v>192800</v>
       </c>
       <c r="E27" s="3">
-        <v>85400</v>
+        <v>82300</v>
       </c>
       <c r="F27" s="3">
-        <v>76600</v>
+        <v>73800</v>
       </c>
       <c r="G27" s="3">
-        <v>34900</v>
+        <v>33700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>13400</v>
+        <v>12900</v>
       </c>
       <c r="F32" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>199900</v>
+        <v>192800</v>
       </c>
       <c r="E33" s="3">
-        <v>85400</v>
+        <v>82300</v>
       </c>
       <c r="F33" s="3">
-        <v>76600</v>
+        <v>73800</v>
       </c>
       <c r="G33" s="3">
-        <v>34900</v>
+        <v>33700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>199900</v>
+        <v>192800</v>
       </c>
       <c r="E35" s="3">
-        <v>85400</v>
+        <v>82300</v>
       </c>
       <c r="F35" s="3">
-        <v>76600</v>
+        <v>73800</v>
       </c>
       <c r="G35" s="3">
-        <v>34900</v>
+        <v>33700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20600</v>
+        <v>19600</v>
       </c>
       <c r="E41" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="F41" s="3">
-        <v>28700</v>
+        <v>27300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>132200</v>
+        <v>125800</v>
       </c>
       <c r="E43" s="3">
-        <v>75400</v>
+        <v>71800</v>
       </c>
       <c r="F43" s="3">
-        <v>32200</v>
+        <v>30700</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="E45" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="F45" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6997800</v>
+        <v>6661800</v>
       </c>
       <c r="E47" s="3">
-        <v>2749400</v>
+        <v>2617400</v>
       </c>
       <c r="F47" s="3">
-        <v>1014600</v>
+        <v>965900</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>69300</v>
+        <v>66000</v>
       </c>
       <c r="E48" s="3">
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="F48" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>103700</v>
+        <v>98700</v>
       </c>
       <c r="E49" s="3">
-        <v>94600</v>
+        <v>90100</v>
       </c>
       <c r="F49" s="3">
-        <v>90600</v>
+        <v>86200</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>53300</v>
+        <v>50800</v>
       </c>
       <c r="E52" s="3">
-        <v>28600</v>
+        <v>27200</v>
       </c>
       <c r="F52" s="3">
-        <v>42400</v>
+        <v>40400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8174900</v>
+        <v>7782300</v>
       </c>
       <c r="E54" s="3">
-        <v>3321500</v>
+        <v>3162000</v>
       </c>
       <c r="F54" s="3">
-        <v>1337300</v>
+        <v>1273100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>50000</v>
+        <v>47600</v>
       </c>
       <c r="E57" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="F57" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3022100</v>
+        <v>2877000</v>
       </c>
       <c r="E58" s="3">
-        <v>1265900</v>
+        <v>1205100</v>
       </c>
       <c r="F58" s="3">
-        <v>120800</v>
+        <v>115000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>157100</v>
+        <v>149500</v>
       </c>
       <c r="E59" s="3">
-        <v>66500</v>
+        <v>63300</v>
       </c>
       <c r="F59" s="3">
-        <v>66800</v>
+        <v>63600</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>184500</v>
+        <v>175700</v>
       </c>
       <c r="E61" s="3">
-        <v>142700</v>
+        <v>135900</v>
       </c>
       <c r="F61" s="3">
-        <v>138100</v>
+        <v>131400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>708300</v>
+        <v>674200</v>
       </c>
       <c r="E62" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F62" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6834400</v>
+        <v>6506100</v>
       </c>
       <c r="E66" s="3">
-        <v>2930800</v>
+        <v>2790100</v>
       </c>
       <c r="F66" s="3">
-        <v>1123000</v>
+        <v>1069000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1301200</v>
+        <v>1238700</v>
       </c>
       <c r="E72" s="3">
-        <v>177600</v>
+        <v>169100</v>
       </c>
       <c r="F72" s="3">
-        <v>128500</v>
+        <v>122300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1340500</v>
+        <v>1276200</v>
       </c>
       <c r="E76" s="3">
-        <v>390700</v>
+        <v>371900</v>
       </c>
       <c r="F76" s="3">
-        <v>214300</v>
+        <v>204100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>199900</v>
+        <v>192800</v>
       </c>
       <c r="E81" s="3">
-        <v>85400</v>
+        <v>82300</v>
       </c>
       <c r="F81" s="3">
-        <v>76600</v>
+        <v>73800</v>
       </c>
       <c r="G81" s="3">
-        <v>34900</v>
+        <v>33700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="E83" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="F83" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="G83" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-705700</v>
+        <v>-680400</v>
       </c>
       <c r="E89" s="3">
-        <v>-84500</v>
+        <v>-81500</v>
       </c>
       <c r="F89" s="3">
-        <v>48500</v>
+        <v>46800</v>
       </c>
       <c r="G89" s="3">
         <v>900</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13400</v>
+        <v>-12900</v>
       </c>
       <c r="E91" s="3">
-        <v>-9900</v>
+        <v>-9500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29900</v>
+        <v>-28800</v>
       </c>
       <c r="E94" s="3">
-        <v>-27200</v>
+        <v>-26200</v>
       </c>
       <c r="F94" s="3">
-        <v>-84300</v>
+        <v>-81300</v>
       </c>
       <c r="G94" s="3">
-        <v>-5900</v>
+        <v>-5600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3066,16 +3066,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-92500</v>
+        <v>-89200</v>
       </c>
       <c r="E96" s="3">
-        <v>-60100</v>
+        <v>-58000</v>
       </c>
       <c r="F96" s="3">
-        <v>-35200</v>
+        <v>-33900</v>
       </c>
       <c r="G96" s="3">
-        <v>-32300</v>
+        <v>-31100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>783400</v>
+        <v>755300</v>
       </c>
       <c r="E100" s="3">
-        <v>70300</v>
+        <v>67800</v>
       </c>
       <c r="F100" s="3">
-        <v>108200</v>
+        <v>104300</v>
       </c>
       <c r="G100" s="3">
-        <v>15200</v>
+        <v>14600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,13 +3216,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E101" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G101" s="3">
         <v>-1300</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>48300</v>
+        <v>46600</v>
       </c>
       <c r="E102" s="3">
-        <v>-38600</v>
+        <v>-37200</v>
       </c>
       <c r="F102" s="3">
-        <v>73200</v>
+        <v>70500</v>
       </c>
       <c r="G102" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>914800</v>
+        <v>959600</v>
       </c>
       <c r="E8" s="3">
-        <v>527800</v>
+        <v>553600</v>
       </c>
       <c r="F8" s="3">
-        <v>340100</v>
+        <v>356800</v>
       </c>
       <c r="G8" s="3">
-        <v>223300</v>
+        <v>234300</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16300</v>
+        <v>17100</v>
       </c>
       <c r="E15" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="F15" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="G15" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>624300</v>
+        <v>654800</v>
       </c>
       <c r="E17" s="3">
-        <v>400600</v>
+        <v>420200</v>
       </c>
       <c r="F17" s="3">
-        <v>226600</v>
+        <v>237700</v>
       </c>
       <c r="G17" s="3">
-        <v>156600</v>
+        <v>164300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>290500</v>
+        <v>304700</v>
       </c>
       <c r="E18" s="3">
-        <v>127200</v>
+        <v>133400</v>
       </c>
       <c r="F18" s="3">
-        <v>113600</v>
+        <v>119100</v>
       </c>
       <c r="G18" s="3">
-        <v>66700</v>
+        <v>70000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1027,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-12900</v>
+        <v>-13500</v>
       </c>
       <c r="F20" s="3">
-        <v>-10900</v>
+        <v>-11400</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>307000</v>
+        <v>321700</v>
       </c>
       <c r="E21" s="3">
-        <v>123900</v>
+        <v>129800</v>
       </c>
       <c r="F21" s="3">
-        <v>107600</v>
+        <v>112800</v>
       </c>
       <c r="G21" s="3">
-        <v>70900</v>
+        <v>74300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>275500</v>
+        <v>288900</v>
       </c>
       <c r="E23" s="3">
-        <v>114300</v>
+        <v>119900</v>
       </c>
       <c r="F23" s="3">
-        <v>102700</v>
+        <v>107700</v>
       </c>
       <c r="G23" s="3">
-        <v>66700</v>
+        <v>70000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1144,16 +1144,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>81100</v>
+        <v>85100</v>
       </c>
       <c r="E24" s="3">
-        <v>31300</v>
+        <v>32800</v>
       </c>
       <c r="F24" s="3">
-        <v>27100</v>
+        <v>28400</v>
       </c>
       <c r="G24" s="3">
-        <v>23200</v>
+        <v>24400</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>194400</v>
+        <v>203900</v>
       </c>
       <c r="E26" s="3">
-        <v>83000</v>
+        <v>87100</v>
       </c>
       <c r="F26" s="3">
-        <v>75600</v>
+        <v>79300</v>
       </c>
       <c r="G26" s="3">
-        <v>43500</v>
+        <v>45600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>192800</v>
+        <v>202200</v>
       </c>
       <c r="E27" s="3">
-        <v>82300</v>
+        <v>86300</v>
       </c>
       <c r="F27" s="3">
-        <v>73800</v>
+        <v>77400</v>
       </c>
       <c r="G27" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="F32" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>192800</v>
+        <v>202200</v>
       </c>
       <c r="E33" s="3">
-        <v>82300</v>
+        <v>86300</v>
       </c>
       <c r="F33" s="3">
-        <v>73800</v>
+        <v>77400</v>
       </c>
       <c r="G33" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>192800</v>
+        <v>202200</v>
       </c>
       <c r="E35" s="3">
-        <v>82300</v>
+        <v>86300</v>
       </c>
       <c r="F35" s="3">
-        <v>73800</v>
+        <v>77400</v>
       </c>
       <c r="G35" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19600</v>
+        <v>20600</v>
       </c>
       <c r="E41" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="F41" s="3">
-        <v>27300</v>
+        <v>28700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>125800</v>
+        <v>132000</v>
       </c>
       <c r="E43" s="3">
-        <v>71800</v>
+        <v>75300</v>
       </c>
       <c r="F43" s="3">
-        <v>30700</v>
+        <v>32200</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16000</v>
+        <v>16800</v>
       </c>
       <c r="E45" s="3">
-        <v>17300</v>
+        <v>18100</v>
       </c>
       <c r="F45" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1747,13 +1747,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6661800</v>
+        <v>6987800</v>
       </c>
       <c r="E47" s="3">
-        <v>2617400</v>
+        <v>2745500</v>
       </c>
       <c r="F47" s="3">
-        <v>965900</v>
+        <v>1013200</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>66000</v>
+        <v>69200</v>
       </c>
       <c r="E48" s="3">
-        <v>17700</v>
+        <v>18500</v>
       </c>
       <c r="F48" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>98700</v>
+        <v>103600</v>
       </c>
       <c r="E49" s="3">
-        <v>90100</v>
+        <v>94500</v>
       </c>
       <c r="F49" s="3">
-        <v>86200</v>
+        <v>90400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>50800</v>
+        <v>53200</v>
       </c>
       <c r="E52" s="3">
-        <v>27200</v>
+        <v>28500</v>
       </c>
       <c r="F52" s="3">
-        <v>40400</v>
+        <v>42400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7782300</v>
+        <v>8163100</v>
       </c>
       <c r="E54" s="3">
-        <v>3162000</v>
+        <v>3316700</v>
       </c>
       <c r="F54" s="3">
-        <v>1273100</v>
+        <v>1335400</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>47600</v>
+        <v>49900</v>
       </c>
       <c r="E57" s="3">
-        <v>24000</v>
+        <v>25200</v>
       </c>
       <c r="F57" s="3">
-        <v>12800</v>
+        <v>13400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2877000</v>
+        <v>3017700</v>
       </c>
       <c r="E58" s="3">
-        <v>1205100</v>
+        <v>1264100</v>
       </c>
       <c r="F58" s="3">
-        <v>115000</v>
+        <v>120600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>149500</v>
+        <v>156800</v>
       </c>
       <c r="E59" s="3">
-        <v>63300</v>
+        <v>66400</v>
       </c>
       <c r="F59" s="3">
-        <v>63600</v>
+        <v>66700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>175700</v>
+        <v>184300</v>
       </c>
       <c r="E61" s="3">
-        <v>135900</v>
+        <v>142500</v>
       </c>
       <c r="F61" s="3">
-        <v>131400</v>
+        <v>137900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>674200</v>
+        <v>707200</v>
       </c>
       <c r="E62" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="F62" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6506100</v>
+        <v>6824500</v>
       </c>
       <c r="E66" s="3">
-        <v>2790100</v>
+        <v>2926600</v>
       </c>
       <c r="F66" s="3">
-        <v>1069000</v>
+        <v>1121300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1238700</v>
+        <v>1299300</v>
       </c>
       <c r="E72" s="3">
-        <v>169100</v>
+        <v>177300</v>
       </c>
       <c r="F72" s="3">
-        <v>122300</v>
+        <v>128300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1276200</v>
+        <v>1338600</v>
       </c>
       <c r="E76" s="3">
-        <v>371900</v>
+        <v>390100</v>
       </c>
       <c r="F76" s="3">
-        <v>204100</v>
+        <v>214000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>192800</v>
+        <v>202200</v>
       </c>
       <c r="E81" s="3">
-        <v>82300</v>
+        <v>86300</v>
       </c>
       <c r="F81" s="3">
-        <v>73800</v>
+        <v>77400</v>
       </c>
       <c r="G81" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16200</v>
+        <v>17000</v>
       </c>
       <c r="E83" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="F83" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="G83" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-680400</v>
+        <v>-713700</v>
       </c>
       <c r="E89" s="3">
-        <v>-81500</v>
+        <v>-85500</v>
       </c>
       <c r="F89" s="3">
-        <v>46800</v>
+        <v>49100</v>
       </c>
       <c r="G89" s="3">
         <v>900</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12900</v>
+        <v>-13600</v>
       </c>
       <c r="E91" s="3">
-        <v>-9500</v>
+        <v>-10000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3700</v>
+        <v>-3900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-28800</v>
+        <v>-30200</v>
       </c>
       <c r="E94" s="3">
-        <v>-26200</v>
+        <v>-27500</v>
       </c>
       <c r="F94" s="3">
-        <v>-81300</v>
+        <v>-85300</v>
       </c>
       <c r="G94" s="3">
-        <v>-5600</v>
+        <v>-5900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3066,16 +3066,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-89200</v>
+        <v>-93600</v>
       </c>
       <c r="E96" s="3">
-        <v>-58000</v>
+        <v>-60800</v>
       </c>
       <c r="F96" s="3">
-        <v>-33900</v>
+        <v>-35600</v>
       </c>
       <c r="G96" s="3">
-        <v>-31100</v>
+        <v>-32600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>755300</v>
+        <v>792300</v>
       </c>
       <c r="E100" s="3">
-        <v>67800</v>
+        <v>71100</v>
       </c>
       <c r="F100" s="3">
-        <v>104300</v>
+        <v>109400</v>
       </c>
       <c r="G100" s="3">
-        <v>14600</v>
+        <v>15400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,13 +3216,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E101" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G101" s="3">
         <v>-1300</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>46600</v>
+        <v>48800</v>
       </c>
       <c r="E102" s="3">
-        <v>-37200</v>
+        <v>-39000</v>
       </c>
       <c r="F102" s="3">
-        <v>70500</v>
+        <v>74000</v>
       </c>
       <c r="G102" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>XP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>959600</v>
+        <v>1443300</v>
       </c>
       <c r="E8" s="3">
-        <v>553600</v>
+        <v>908000</v>
       </c>
       <c r="F8" s="3">
-        <v>356800</v>
+        <v>523900</v>
       </c>
       <c r="G8" s="3">
-        <v>234300</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>337600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>221700</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,9 +741,12 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,9 +774,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,26 +921,29 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>17100</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>9900</v>
+        <v>16100</v>
       </c>
       <c r="F15" s="3">
-        <v>5100</v>
+        <v>9300</v>
       </c>
       <c r="G15" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+        <v>4900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,25 +969,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>654800</v>
+        <v>1005400</v>
       </c>
       <c r="E17" s="3">
-        <v>420200</v>
+        <v>619600</v>
       </c>
       <c r="F17" s="3">
-        <v>237700</v>
+        <v>397600</v>
       </c>
       <c r="G17" s="3">
-        <v>164300</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>224900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>155400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,26 +999,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>304700</v>
+        <v>437900</v>
       </c>
       <c r="E18" s="3">
-        <v>133400</v>
+        <v>288400</v>
       </c>
       <c r="F18" s="3">
-        <v>119100</v>
+        <v>126300</v>
       </c>
       <c r="G18" s="3">
-        <v>70000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>112700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>66200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,25 +1050,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>-13500</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-11400</v>
+        <v>-12800</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>-10800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>321700</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>129800</v>
+        <v>304500</v>
       </c>
       <c r="F21" s="3">
-        <v>112800</v>
+        <v>122800</v>
       </c>
       <c r="G21" s="3">
-        <v>74300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>106800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>70300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,17 +1113,20 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>15800</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+        <v>9400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>14900</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1104,29 +1143,32 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>288900</v>
+        <v>428700</v>
       </c>
       <c r="E23" s="3">
-        <v>119900</v>
+        <v>273400</v>
       </c>
       <c r="F23" s="3">
-        <v>107700</v>
+        <v>113500</v>
       </c>
       <c r="G23" s="3">
-        <v>70000</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>101900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>66200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1137,26 +1179,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>85100</v>
+        <v>60200</v>
       </c>
       <c r="E24" s="3">
-        <v>32800</v>
+        <v>80500</v>
       </c>
       <c r="F24" s="3">
-        <v>28400</v>
+        <v>31100</v>
       </c>
       <c r="G24" s="3">
-        <v>24400</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>26900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>23000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,26 +1245,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>203900</v>
+        <v>368500</v>
       </c>
       <c r="E26" s="3">
-        <v>87100</v>
+        <v>192900</v>
       </c>
       <c r="F26" s="3">
-        <v>79300</v>
+        <v>82400</v>
       </c>
       <c r="G26" s="3">
-        <v>45600</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>75000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>43200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1227,26 +1278,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>202200</v>
+        <v>368500</v>
       </c>
       <c r="E27" s="3">
-        <v>86300</v>
+        <v>191300</v>
       </c>
       <c r="F27" s="3">
-        <v>77400</v>
+        <v>81700</v>
       </c>
       <c r="G27" s="3">
-        <v>35300</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>73300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>33400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,26 +1443,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>11400</v>
+        <v>12800</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1407,26 +1476,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>202200</v>
+        <v>368500</v>
       </c>
       <c r="E33" s="3">
-        <v>86300</v>
+        <v>191300</v>
       </c>
       <c r="F33" s="3">
-        <v>77400</v>
+        <v>81700</v>
       </c>
       <c r="G33" s="3">
-        <v>35300</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>73300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>33400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,26 +1542,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>202200</v>
+        <v>368500</v>
       </c>
       <c r="E35" s="3">
-        <v>86300</v>
+        <v>191300</v>
       </c>
       <c r="F35" s="3">
-        <v>77400</v>
+        <v>81700</v>
       </c>
       <c r="G35" s="3">
-        <v>35300</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>73300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>33400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20600</v>
+        <v>346200</v>
       </c>
       <c r="E41" s="3">
-        <v>12800</v>
+        <v>19500</v>
       </c>
       <c r="F41" s="3">
-        <v>28700</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>12100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>27100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>132000</v>
+        <v>112300</v>
       </c>
       <c r="E43" s="3">
-        <v>75300</v>
+        <v>124900</v>
       </c>
       <c r="F43" s="3">
-        <v>32200</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>71300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>30400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16800</v>
+        <v>246800</v>
       </c>
       <c r="E45" s="3">
-        <v>18100</v>
+        <v>15900</v>
       </c>
       <c r="F45" s="3">
-        <v>12200</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>17100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>11600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,9 +1808,12 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,23 +1841,26 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6987800</v>
+        <v>13972200</v>
       </c>
       <c r="E47" s="3">
-        <v>2745500</v>
+        <v>6612100</v>
       </c>
       <c r="F47" s="3">
-        <v>1013200</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>2597900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>958700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1770,23 +1874,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>69200</v>
+        <v>68500</v>
       </c>
       <c r="E48" s="3">
-        <v>18500</v>
+        <v>65500</v>
       </c>
       <c r="F48" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>17600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>8300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,23 +1907,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>103600</v>
+        <v>126400</v>
       </c>
       <c r="E49" s="3">
-        <v>94500</v>
+        <v>98000</v>
       </c>
       <c r="F49" s="3">
-        <v>90400</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>89400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>85600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,23 +2006,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>53200</v>
+        <v>89400</v>
       </c>
       <c r="E52" s="3">
-        <v>28500</v>
+        <v>50400</v>
       </c>
       <c r="F52" s="3">
-        <v>42400</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>27000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>40100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8163100</v>
+        <v>17003900</v>
       </c>
       <c r="E54" s="3">
-        <v>3316700</v>
+        <v>7724300</v>
       </c>
       <c r="F54" s="3">
-        <v>1335400</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>3138400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1263600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>49900</v>
+        <v>152300</v>
       </c>
       <c r="E57" s="3">
-        <v>25200</v>
+        <v>47200</v>
       </c>
       <c r="F57" s="3">
-        <v>13400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>23800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>12700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3017700</v>
+        <v>6033800</v>
       </c>
       <c r="E58" s="3">
-        <v>1264100</v>
+        <v>3213500</v>
       </c>
       <c r="F58" s="3">
-        <v>120600</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>1419200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>240300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>156800</v>
+        <v>195300</v>
       </c>
       <c r="E59" s="3">
-        <v>66400</v>
+        <v>148400</v>
       </c>
       <c r="F59" s="3">
-        <v>66700</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>62800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>63100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,9 +2234,12 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2128,23 +2267,26 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>184300</v>
+        <v>146600</v>
       </c>
       <c r="E61" s="3">
-        <v>142500</v>
+        <v>174400</v>
       </c>
       <c r="F61" s="3">
-        <v>137900</v>
+        <v>134900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>130400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>707200</v>
+        <v>2375600</v>
       </c>
       <c r="E62" s="3">
-        <v>5500</v>
+        <v>669200</v>
       </c>
       <c r="F62" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>5200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6824500</v>
+        <v>15074700</v>
       </c>
       <c r="E66" s="3">
-        <v>2926600</v>
+        <v>6457600</v>
       </c>
       <c r="F66" s="3">
-        <v>1121300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>2769300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1061100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1299300</v>
+        <v>1888300</v>
       </c>
       <c r="E72" s="3">
-        <v>177300</v>
+        <v>1229500</v>
       </c>
       <c r="F72" s="3">
-        <v>128300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>167800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>121400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1338600</v>
+        <v>1929200</v>
       </c>
       <c r="E76" s="3">
-        <v>390100</v>
+        <v>1266700</v>
       </c>
       <c r="F76" s="3">
-        <v>214000</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>369200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>202500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,26 +2848,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>202200</v>
+        <v>368500</v>
       </c>
       <c r="E81" s="3">
-        <v>86300</v>
+        <v>191300</v>
       </c>
       <c r="F81" s="3">
-        <v>77400</v>
+        <v>81700</v>
       </c>
       <c r="G81" s="3">
-        <v>35300</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>73300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>33400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,25 +2899,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>17000</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>9900</v>
+        <v>16100</v>
       </c>
       <c r="F83" s="3">
-        <v>5100</v>
+        <v>9300</v>
       </c>
       <c r="G83" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>4900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-713700</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-85500</v>
+        <v>-675300</v>
       </c>
       <c r="F89" s="3">
-        <v>49100</v>
+        <v>-80900</v>
       </c>
       <c r="G89" s="3">
-        <v>900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>46500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,25 +3145,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-13600</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-10000</v>
+        <v>-12800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3900</v>
+        <v>-9500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-3700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,26 +3241,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-30200</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-27500</v>
+        <v>-28600</v>
       </c>
       <c r="F94" s="3">
-        <v>-85300</v>
+        <v>-26000</v>
       </c>
       <c r="G94" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-80700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-5600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,25 +3292,26 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-93600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-60800</v>
+        <v>-88500</v>
       </c>
       <c r="F96" s="3">
-        <v>-35600</v>
+        <v>-57500</v>
       </c>
       <c r="G96" s="3">
-        <v>-32600</v>
+        <v>-33600</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-30900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,26 +3421,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>792300</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>71100</v>
+        <v>749700</v>
       </c>
       <c r="F100" s="3">
-        <v>109400</v>
+        <v>67300</v>
       </c>
       <c r="G100" s="3">
-        <v>15400</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>103500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>14500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3209,27 +3454,30 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>500</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="F101" s="3">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="G101" s="3">
+        <v>700</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>48800</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-39000</v>
+        <v>46200</v>
       </c>
       <c r="F102" s="3">
-        <v>74000</v>
+        <v>-36900</v>
       </c>
       <c r="G102" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>70000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>8500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>XP</t>
   </si>
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1443300</v>
+        <v>1529100</v>
       </c>
       <c r="E8" s="3">
-        <v>908000</v>
+        <v>961900</v>
       </c>
       <c r="F8" s="3">
-        <v>523900</v>
+        <v>554900</v>
       </c>
       <c r="G8" s="3">
-        <v>337600</v>
+        <v>357600</v>
       </c>
       <c r="H8" s="3">
-        <v>221700</v>
+        <v>234800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -898,25 +898,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>9800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -930,20 +930,20 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>26900</v>
       </c>
       <c r="E15" s="3">
-        <v>16100</v>
+        <v>17100</v>
       </c>
       <c r="F15" s="3">
-        <v>9300</v>
+        <v>9900</v>
       </c>
       <c r="G15" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="H15" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1005400</v>
+        <v>1065200</v>
       </c>
       <c r="E17" s="3">
-        <v>619600</v>
+        <v>656400</v>
       </c>
       <c r="F17" s="3">
-        <v>397600</v>
+        <v>421200</v>
       </c>
       <c r="G17" s="3">
-        <v>224900</v>
+        <v>238200</v>
       </c>
       <c r="H17" s="3">
-        <v>155400</v>
+        <v>164700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>437900</v>
+        <v>463900</v>
       </c>
       <c r="E18" s="3">
-        <v>288400</v>
+        <v>305500</v>
       </c>
       <c r="F18" s="3">
-        <v>126300</v>
+        <v>133800</v>
       </c>
       <c r="G18" s="3">
-        <v>112700</v>
+        <v>119400</v>
       </c>
       <c r="H18" s="3">
-        <v>66200</v>
+        <v>70100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-12800</v>
+        <v>-13600</v>
       </c>
       <c r="G20" s="3">
-        <v>-10800</v>
+        <v>-11500</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1089,20 +1089,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>491000</v>
       </c>
       <c r="E21" s="3">
-        <v>304500</v>
+        <v>322500</v>
       </c>
       <c r="F21" s="3">
-        <v>122800</v>
+        <v>130100</v>
       </c>
       <c r="G21" s="3">
-        <v>106800</v>
+        <v>113100</v>
       </c>
       <c r="H21" s="3">
-        <v>70300</v>
+        <v>74500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="E22" s="3">
-        <v>14900</v>
+        <v>15800</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>428700</v>
+        <v>454200</v>
       </c>
       <c r="E23" s="3">
-        <v>273400</v>
+        <v>289600</v>
       </c>
       <c r="F23" s="3">
-        <v>113500</v>
+        <v>120200</v>
       </c>
       <c r="G23" s="3">
-        <v>101900</v>
+        <v>108000</v>
       </c>
       <c r="H23" s="3">
-        <v>66200</v>
+        <v>70100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>60200</v>
+        <v>63800</v>
       </c>
       <c r="E24" s="3">
-        <v>80500</v>
+        <v>85300</v>
       </c>
       <c r="F24" s="3">
-        <v>31100</v>
+        <v>32900</v>
       </c>
       <c r="G24" s="3">
-        <v>26900</v>
+        <v>28500</v>
       </c>
       <c r="H24" s="3">
-        <v>23000</v>
+        <v>24400</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>368500</v>
+        <v>390400</v>
       </c>
       <c r="E26" s="3">
-        <v>192900</v>
+        <v>204400</v>
       </c>
       <c r="F26" s="3">
-        <v>82400</v>
+        <v>87300</v>
       </c>
       <c r="G26" s="3">
-        <v>75000</v>
+        <v>79400</v>
       </c>
       <c r="H26" s="3">
-        <v>43200</v>
+        <v>45700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>368500</v>
+        <v>389500</v>
       </c>
       <c r="E27" s="3">
-        <v>191300</v>
+        <v>202700</v>
       </c>
       <c r="F27" s="3">
-        <v>81700</v>
+        <v>86600</v>
       </c>
       <c r="G27" s="3">
-        <v>73300</v>
+        <v>77600</v>
       </c>
       <c r="H27" s="3">
-        <v>33400</v>
+        <v>35400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>12800</v>
+        <v>13600</v>
       </c>
       <c r="G32" s="3">
-        <v>10800</v>
+        <v>11500</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>368500</v>
+        <v>389500</v>
       </c>
       <c r="E33" s="3">
-        <v>191300</v>
+        <v>202700</v>
       </c>
       <c r="F33" s="3">
-        <v>81700</v>
+        <v>86600</v>
       </c>
       <c r="G33" s="3">
-        <v>73300</v>
+        <v>77600</v>
       </c>
       <c r="H33" s="3">
-        <v>33400</v>
+        <v>35400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>368500</v>
+        <v>389500</v>
       </c>
       <c r="E35" s="3">
-        <v>191300</v>
+        <v>202700</v>
       </c>
       <c r="F35" s="3">
-        <v>81700</v>
+        <v>86600</v>
       </c>
       <c r="G35" s="3">
-        <v>73300</v>
+        <v>77600</v>
       </c>
       <c r="H35" s="3">
-        <v>33400</v>
+        <v>35400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>346200</v>
+        <v>366700</v>
       </c>
       <c r="E41" s="3">
-        <v>19500</v>
+        <v>20600</v>
       </c>
       <c r="F41" s="3">
-        <v>12100</v>
+        <v>12800</v>
       </c>
       <c r="G41" s="3">
-        <v>27100</v>
+        <v>28700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>112300</v>
+        <v>118900</v>
       </c>
       <c r="E43" s="3">
-        <v>124900</v>
+        <v>132300</v>
       </c>
       <c r="F43" s="3">
-        <v>71300</v>
+        <v>75500</v>
       </c>
       <c r="G43" s="3">
-        <v>30400</v>
+        <v>32200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>246800</v>
+        <v>261400</v>
       </c>
       <c r="E45" s="3">
-        <v>15900</v>
+        <v>16800</v>
       </c>
       <c r="F45" s="3">
-        <v>17100</v>
+        <v>18100</v>
       </c>
       <c r="G45" s="3">
-        <v>11600</v>
+        <v>12300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13972200</v>
+        <v>14801300</v>
       </c>
       <c r="E47" s="3">
-        <v>6612100</v>
+        <v>7004600</v>
       </c>
       <c r="F47" s="3">
-        <v>2597900</v>
+        <v>2752100</v>
       </c>
       <c r="G47" s="3">
-        <v>958700</v>
+        <v>1015600</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>68500</v>
+        <v>72600</v>
       </c>
       <c r="E48" s="3">
-        <v>65500</v>
+        <v>69400</v>
       </c>
       <c r="F48" s="3">
-        <v>17600</v>
+        <v>18600</v>
       </c>
       <c r="G48" s="3">
-        <v>8300</v>
+        <v>8800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>126400</v>
+        <v>133800</v>
       </c>
       <c r="E49" s="3">
-        <v>98000</v>
+        <v>103800</v>
       </c>
       <c r="F49" s="3">
-        <v>89400</v>
+        <v>94700</v>
       </c>
       <c r="G49" s="3">
-        <v>85600</v>
+        <v>90600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>89400</v>
+        <v>94700</v>
       </c>
       <c r="E52" s="3">
-        <v>50400</v>
+        <v>53400</v>
       </c>
       <c r="F52" s="3">
-        <v>27000</v>
+        <v>28600</v>
       </c>
       <c r="G52" s="3">
-        <v>40100</v>
+        <v>42500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17003900</v>
+        <v>18013200</v>
       </c>
       <c r="E54" s="3">
-        <v>7724300</v>
+        <v>8182800</v>
       </c>
       <c r="F54" s="3">
-        <v>3138400</v>
+        <v>3324700</v>
       </c>
       <c r="G54" s="3">
-        <v>1263600</v>
+        <v>1338600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>152300</v>
+        <v>161200</v>
       </c>
       <c r="E57" s="3">
-        <v>47200</v>
+        <v>50000</v>
       </c>
       <c r="F57" s="3">
-        <v>23800</v>
+        <v>25200</v>
       </c>
       <c r="G57" s="3">
-        <v>12700</v>
+        <v>13400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6033800</v>
+        <v>6436900</v>
       </c>
       <c r="E58" s="3">
-        <v>3213500</v>
+        <v>3404200</v>
       </c>
       <c r="F58" s="3">
-        <v>1419200</v>
+        <v>1503400</v>
       </c>
       <c r="G58" s="3">
-        <v>240300</v>
+        <v>254600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>195300</v>
+        <v>207000</v>
       </c>
       <c r="E59" s="3">
-        <v>148400</v>
+        <v>157200</v>
       </c>
       <c r="F59" s="3">
-        <v>62800</v>
+        <v>66600</v>
       </c>
       <c r="G59" s="3">
-        <v>63100</v>
+        <v>66800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>146600</v>
+        <v>110500</v>
       </c>
       <c r="E61" s="3">
-        <v>174400</v>
+        <v>184700</v>
       </c>
       <c r="F61" s="3">
-        <v>134900</v>
+        <v>142900</v>
       </c>
       <c r="G61" s="3">
-        <v>130400</v>
+        <v>138200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2375600</v>
+        <v>2516600</v>
       </c>
       <c r="E62" s="3">
-        <v>669200</v>
+        <v>708900</v>
       </c>
       <c r="F62" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="G62" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15074700</v>
+        <v>15969500</v>
       </c>
       <c r="E66" s="3">
-        <v>6457600</v>
+        <v>6840900</v>
       </c>
       <c r="F66" s="3">
-        <v>2769300</v>
+        <v>2933700</v>
       </c>
       <c r="G66" s="3">
-        <v>1061100</v>
+        <v>1124000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1888300</v>
+        <v>2000300</v>
       </c>
       <c r="E72" s="3">
-        <v>1229500</v>
+        <v>1302500</v>
       </c>
       <c r="F72" s="3">
-        <v>167800</v>
+        <v>177800</v>
       </c>
       <c r="G72" s="3">
-        <v>121400</v>
+        <v>128600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1929200</v>
+        <v>2043600</v>
       </c>
       <c r="E76" s="3">
-        <v>1266700</v>
+        <v>1341800</v>
       </c>
       <c r="F76" s="3">
-        <v>369200</v>
+        <v>391100</v>
       </c>
       <c r="G76" s="3">
-        <v>202500</v>
+        <v>214600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>368500</v>
+        <v>389500</v>
       </c>
       <c r="E81" s="3">
-        <v>191300</v>
+        <v>202700</v>
       </c>
       <c r="F81" s="3">
-        <v>81700</v>
+        <v>86600</v>
       </c>
       <c r="G81" s="3">
-        <v>73300</v>
+        <v>77600</v>
       </c>
       <c r="H81" s="3">
-        <v>33400</v>
+        <v>35400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2905,20 +2905,20 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>26900</v>
       </c>
       <c r="E83" s="3">
-        <v>16100</v>
+        <v>17000</v>
       </c>
       <c r="F83" s="3">
-        <v>9300</v>
+        <v>9900</v>
       </c>
       <c r="G83" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="H83" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3103,20 +3103,20 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>283400</v>
       </c>
       <c r="E89" s="3">
-        <v>-675300</v>
+        <v>-715400</v>
       </c>
       <c r="F89" s="3">
-        <v>-80900</v>
+        <v>-85700</v>
       </c>
       <c r="G89" s="3">
-        <v>46500</v>
+        <v>49200</v>
       </c>
       <c r="H89" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3151,20 +3151,20 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-27200</v>
       </c>
       <c r="E91" s="3">
-        <v>-12800</v>
+        <v>-13600</v>
       </c>
       <c r="F91" s="3">
-        <v>-9500</v>
+        <v>-10000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3700</v>
+        <v>-3900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3250,20 +3250,20 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-109200</v>
       </c>
       <c r="E94" s="3">
-        <v>-28600</v>
+        <v>-30300</v>
       </c>
       <c r="F94" s="3">
-        <v>-26000</v>
+        <v>-27600</v>
       </c>
       <c r="G94" s="3">
-        <v>-80700</v>
+        <v>-85500</v>
       </c>
       <c r="H94" s="3">
-        <v>-5600</v>
+        <v>-5900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3302,16 +3302,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-88500</v>
+        <v>-93800</v>
       </c>
       <c r="F96" s="3">
-        <v>-57500</v>
+        <v>-61000</v>
       </c>
       <c r="G96" s="3">
-        <v>-33600</v>
+        <v>-35600</v>
       </c>
       <c r="H96" s="3">
-        <v>-30900</v>
+        <v>-32700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3430,20 +3430,20 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>147900</v>
       </c>
       <c r="E100" s="3">
-        <v>749700</v>
+        <v>794200</v>
       </c>
       <c r="F100" s="3">
-        <v>67300</v>
+        <v>71300</v>
       </c>
       <c r="G100" s="3">
-        <v>103500</v>
+        <v>109600</v>
       </c>
       <c r="H100" s="3">
-        <v>14500</v>
+        <v>15400</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3463,17 +3463,17 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>10300</v>
       </c>
       <c r="E101" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F101" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H101" s="3">
         <v>-1300</v>
@@ -3496,20 +3496,20 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>332500</v>
       </c>
       <c r="E102" s="3">
-        <v>46200</v>
+        <v>48900</v>
       </c>
       <c r="F102" s="3">
-        <v>-36900</v>
+        <v>-39100</v>
       </c>
       <c r="G102" s="3">
-        <v>70000</v>
+        <v>74200</v>
       </c>
       <c r="H102" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1529100</v>
+        <v>1505600</v>
       </c>
       <c r="E8" s="3">
-        <v>961900</v>
+        <v>947100</v>
       </c>
       <c r="F8" s="3">
-        <v>554900</v>
+        <v>546400</v>
       </c>
       <c r="G8" s="3">
-        <v>357600</v>
+        <v>352200</v>
       </c>
       <c r="H8" s="3">
-        <v>234800</v>
+        <v>231200</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -931,13 +931,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>26900</v>
+        <v>26500</v>
       </c>
       <c r="E15" s="3">
-        <v>17100</v>
+        <v>16800</v>
       </c>
       <c r="F15" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="G15" s="3">
         <v>5100</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1065200</v>
+        <v>1048800</v>
       </c>
       <c r="E17" s="3">
-        <v>656400</v>
+        <v>646300</v>
       </c>
       <c r="F17" s="3">
-        <v>421200</v>
+        <v>414700</v>
       </c>
       <c r="G17" s="3">
-        <v>238200</v>
+        <v>234600</v>
       </c>
       <c r="H17" s="3">
-        <v>164700</v>
+        <v>162100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>463900</v>
+        <v>456800</v>
       </c>
       <c r="E18" s="3">
-        <v>305500</v>
+        <v>300800</v>
       </c>
       <c r="F18" s="3">
-        <v>133800</v>
+        <v>131700</v>
       </c>
       <c r="G18" s="3">
-        <v>119400</v>
+        <v>117600</v>
       </c>
       <c r="H18" s="3">
-        <v>70100</v>
+        <v>69100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-13600</v>
+        <v>-13400</v>
       </c>
       <c r="G20" s="3">
-        <v>-11500</v>
+        <v>-11300</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>491000</v>
+        <v>483600</v>
       </c>
       <c r="E21" s="3">
-        <v>322500</v>
+        <v>317600</v>
       </c>
       <c r="F21" s="3">
-        <v>130100</v>
+        <v>128200</v>
       </c>
       <c r="G21" s="3">
-        <v>113100</v>
+        <v>111400</v>
       </c>
       <c r="H21" s="3">
-        <v>74500</v>
+        <v>73400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="E22" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>454200</v>
+        <v>447200</v>
       </c>
       <c r="E23" s="3">
-        <v>289600</v>
+        <v>285200</v>
       </c>
       <c r="F23" s="3">
-        <v>120200</v>
+        <v>118300</v>
       </c>
       <c r="G23" s="3">
-        <v>108000</v>
+        <v>106300</v>
       </c>
       <c r="H23" s="3">
-        <v>70100</v>
+        <v>69100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>63800</v>
+        <v>62800</v>
       </c>
       <c r="E24" s="3">
-        <v>85300</v>
+        <v>84000</v>
       </c>
       <c r="F24" s="3">
-        <v>32900</v>
+        <v>32400</v>
       </c>
       <c r="G24" s="3">
-        <v>28500</v>
+        <v>28100</v>
       </c>
       <c r="H24" s="3">
-        <v>24400</v>
+        <v>24000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>390400</v>
+        <v>384500</v>
       </c>
       <c r="E26" s="3">
-        <v>204400</v>
+        <v>201200</v>
       </c>
       <c r="F26" s="3">
-        <v>87300</v>
+        <v>85900</v>
       </c>
       <c r="G26" s="3">
-        <v>79400</v>
+        <v>78200</v>
       </c>
       <c r="H26" s="3">
-        <v>45700</v>
+        <v>45000</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>389500</v>
+        <v>383500</v>
       </c>
       <c r="E27" s="3">
-        <v>202700</v>
+        <v>199600</v>
       </c>
       <c r="F27" s="3">
-        <v>86600</v>
+        <v>85200</v>
       </c>
       <c r="G27" s="3">
-        <v>77600</v>
+        <v>76400</v>
       </c>
       <c r="H27" s="3">
-        <v>35400</v>
+        <v>34800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="G32" s="3">
-        <v>11500</v>
+        <v>11300</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>389500</v>
+        <v>383500</v>
       </c>
       <c r="E33" s="3">
-        <v>202700</v>
+        <v>199600</v>
       </c>
       <c r="F33" s="3">
-        <v>86600</v>
+        <v>85200</v>
       </c>
       <c r="G33" s="3">
-        <v>77600</v>
+        <v>76400</v>
       </c>
       <c r="H33" s="3">
-        <v>35400</v>
+        <v>34800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>389500</v>
+        <v>383500</v>
       </c>
       <c r="E35" s="3">
-        <v>202700</v>
+        <v>199600</v>
       </c>
       <c r="F35" s="3">
-        <v>86600</v>
+        <v>85200</v>
       </c>
       <c r="G35" s="3">
-        <v>77600</v>
+        <v>76400</v>
       </c>
       <c r="H35" s="3">
-        <v>35400</v>
+        <v>34800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>366700</v>
+        <v>361000</v>
       </c>
       <c r="E41" s="3">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="F41" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="G41" s="3">
-        <v>28700</v>
+        <v>28300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>118900</v>
+        <v>117100</v>
       </c>
       <c r="E43" s="3">
-        <v>132300</v>
+        <v>130300</v>
       </c>
       <c r="F43" s="3">
-        <v>75500</v>
+        <v>74400</v>
       </c>
       <c r="G43" s="3">
-        <v>32200</v>
+        <v>31700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>261400</v>
+        <v>257400</v>
       </c>
       <c r="E45" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="F45" s="3">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="G45" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14801300</v>
+        <v>14574100</v>
       </c>
       <c r="E47" s="3">
-        <v>7004600</v>
+        <v>6897000</v>
       </c>
       <c r="F47" s="3">
-        <v>2752100</v>
+        <v>2709800</v>
       </c>
       <c r="G47" s="3">
-        <v>1015600</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>72600</v>
+        <v>71500</v>
       </c>
       <c r="E48" s="3">
-        <v>69400</v>
+        <v>68300</v>
       </c>
       <c r="F48" s="3">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="G48" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>133800</v>
+        <v>131800</v>
       </c>
       <c r="E49" s="3">
-        <v>103800</v>
+        <v>102200</v>
       </c>
       <c r="F49" s="3">
-        <v>94700</v>
+        <v>93300</v>
       </c>
       <c r="G49" s="3">
-        <v>90600</v>
+        <v>89200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>94700</v>
+        <v>93300</v>
       </c>
       <c r="E52" s="3">
-        <v>53400</v>
+        <v>52600</v>
       </c>
       <c r="F52" s="3">
-        <v>28600</v>
+        <v>28200</v>
       </c>
       <c r="G52" s="3">
-        <v>42500</v>
+        <v>41800</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18013200</v>
+        <v>17736600</v>
       </c>
       <c r="E54" s="3">
-        <v>8182800</v>
+        <v>8057100</v>
       </c>
       <c r="F54" s="3">
-        <v>3324700</v>
+        <v>3273700</v>
       </c>
       <c r="G54" s="3">
-        <v>1338600</v>
+        <v>1318000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>161200</v>
+        <v>158800</v>
       </c>
       <c r="E57" s="3">
-        <v>50000</v>
+        <v>49300</v>
       </c>
       <c r="F57" s="3">
-        <v>25200</v>
+        <v>24900</v>
       </c>
       <c r="G57" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6436900</v>
+        <v>6338100</v>
       </c>
       <c r="E58" s="3">
-        <v>3404200</v>
+        <v>3352000</v>
       </c>
       <c r="F58" s="3">
-        <v>1503400</v>
+        <v>1480300</v>
       </c>
       <c r="G58" s="3">
-        <v>254600</v>
+        <v>250600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>207000</v>
+        <v>203800</v>
       </c>
       <c r="E59" s="3">
-        <v>157200</v>
+        <v>154800</v>
       </c>
       <c r="F59" s="3">
-        <v>66600</v>
+        <v>65500</v>
       </c>
       <c r="G59" s="3">
-        <v>66800</v>
+        <v>65800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>110500</v>
+        <v>108800</v>
       </c>
       <c r="E61" s="3">
-        <v>184700</v>
+        <v>181900</v>
       </c>
       <c r="F61" s="3">
-        <v>142900</v>
+        <v>140700</v>
       </c>
       <c r="G61" s="3">
-        <v>138200</v>
+        <v>136100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2516600</v>
+        <v>2477900</v>
       </c>
       <c r="E62" s="3">
-        <v>708900</v>
+        <v>698100</v>
       </c>
       <c r="F62" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="G62" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15969500</v>
+        <v>15724400</v>
       </c>
       <c r="E66" s="3">
-        <v>6840900</v>
+        <v>6735900</v>
       </c>
       <c r="F66" s="3">
-        <v>2933700</v>
+        <v>2888600</v>
       </c>
       <c r="G66" s="3">
-        <v>1124000</v>
+        <v>1106800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2000300</v>
+        <v>1969600</v>
       </c>
       <c r="E72" s="3">
-        <v>1302500</v>
+        <v>1282500</v>
       </c>
       <c r="F72" s="3">
-        <v>177800</v>
+        <v>175000</v>
       </c>
       <c r="G72" s="3">
-        <v>128600</v>
+        <v>126700</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2043600</v>
+        <v>2012200</v>
       </c>
       <c r="E76" s="3">
-        <v>1341800</v>
+        <v>1321200</v>
       </c>
       <c r="F76" s="3">
-        <v>391100</v>
+        <v>385100</v>
       </c>
       <c r="G76" s="3">
-        <v>214600</v>
+        <v>211300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>389500</v>
+        <v>383500</v>
       </c>
       <c r="E81" s="3">
-        <v>202700</v>
+        <v>199600</v>
       </c>
       <c r="F81" s="3">
-        <v>86600</v>
+        <v>85200</v>
       </c>
       <c r="G81" s="3">
-        <v>77600</v>
+        <v>76400</v>
       </c>
       <c r="H81" s="3">
-        <v>35400</v>
+        <v>34800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26900</v>
+        <v>26500</v>
       </c>
       <c r="E83" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="F83" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="G83" s="3">
         <v>5100</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>283400</v>
+        <v>279000</v>
       </c>
       <c r="E89" s="3">
-        <v>-715400</v>
+        <v>-704400</v>
       </c>
       <c r="F89" s="3">
-        <v>-85700</v>
+        <v>-84400</v>
       </c>
       <c r="G89" s="3">
-        <v>49200</v>
+        <v>48500</v>
       </c>
       <c r="H89" s="3">
         <v>900</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27200</v>
+        <v>-26800</v>
       </c>
       <c r="E91" s="3">
-        <v>-13600</v>
+        <v>-13400</v>
       </c>
       <c r="F91" s="3">
-        <v>-10000</v>
+        <v>-9900</v>
       </c>
       <c r="G91" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="H91" s="3">
         <v>-2300</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-109200</v>
+        <v>-107500</v>
       </c>
       <c r="E94" s="3">
-        <v>-30300</v>
+        <v>-29800</v>
       </c>
       <c r="F94" s="3">
-        <v>-27600</v>
+        <v>-27200</v>
       </c>
       <c r="G94" s="3">
-        <v>-85500</v>
+        <v>-84200</v>
       </c>
       <c r="H94" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3302,16 +3302,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-93800</v>
+        <v>-92400</v>
       </c>
       <c r="F96" s="3">
-        <v>-61000</v>
+        <v>-60000</v>
       </c>
       <c r="G96" s="3">
-        <v>-35600</v>
+        <v>-35100</v>
       </c>
       <c r="H96" s="3">
-        <v>-32700</v>
+        <v>-32200</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>147900</v>
+        <v>145700</v>
       </c>
       <c r="E100" s="3">
-        <v>794200</v>
+        <v>782000</v>
       </c>
       <c r="F100" s="3">
-        <v>71300</v>
+        <v>70200</v>
       </c>
       <c r="G100" s="3">
-        <v>109600</v>
+        <v>108000</v>
       </c>
       <c r="H100" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="E101" s="3">
         <v>500</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>332500</v>
+        <v>327400</v>
       </c>
       <c r="E102" s="3">
-        <v>48900</v>
+        <v>48200</v>
       </c>
       <c r="F102" s="3">
-        <v>-39100</v>
+        <v>-38500</v>
       </c>
       <c r="G102" s="3">
-        <v>74200</v>
+        <v>73000</v>
       </c>
       <c r="H102" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1505600</v>
+        <v>1455200</v>
       </c>
       <c r="E8" s="3">
-        <v>947100</v>
+        <v>915400</v>
       </c>
       <c r="F8" s="3">
-        <v>546400</v>
+        <v>528100</v>
       </c>
       <c r="G8" s="3">
-        <v>352200</v>
+        <v>340400</v>
       </c>
       <c r="H8" s="3">
-        <v>231200</v>
+        <v>223500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -931,19 +931,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>26500</v>
+        <v>25600</v>
       </c>
       <c r="E15" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="F15" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="G15" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="H15" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1048800</v>
+        <v>1013700</v>
       </c>
       <c r="E17" s="3">
-        <v>646300</v>
+        <v>624700</v>
       </c>
       <c r="F17" s="3">
-        <v>414700</v>
+        <v>400900</v>
       </c>
       <c r="G17" s="3">
-        <v>234600</v>
+        <v>226700</v>
       </c>
       <c r="H17" s="3">
-        <v>162100</v>
+        <v>156700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>456800</v>
+        <v>441500</v>
       </c>
       <c r="E18" s="3">
-        <v>300800</v>
+        <v>290700</v>
       </c>
       <c r="F18" s="3">
-        <v>131700</v>
+        <v>127300</v>
       </c>
       <c r="G18" s="3">
-        <v>117600</v>
+        <v>113600</v>
       </c>
       <c r="H18" s="3">
-        <v>69100</v>
+        <v>66800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-13400</v>
+        <v>-12900</v>
       </c>
       <c r="G20" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>483600</v>
+        <v>467200</v>
       </c>
       <c r="E21" s="3">
-        <v>317600</v>
+        <v>306900</v>
       </c>
       <c r="F21" s="3">
-        <v>128200</v>
+        <v>123800</v>
       </c>
       <c r="G21" s="3">
-        <v>111400</v>
+        <v>107600</v>
       </c>
       <c r="H21" s="3">
-        <v>73400</v>
+        <v>70900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="E22" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>447200</v>
+        <v>432300</v>
       </c>
       <c r="E23" s="3">
-        <v>285200</v>
+        <v>275700</v>
       </c>
       <c r="F23" s="3">
-        <v>118300</v>
+        <v>114400</v>
       </c>
       <c r="G23" s="3">
-        <v>106300</v>
+        <v>102700</v>
       </c>
       <c r="H23" s="3">
-        <v>69100</v>
+        <v>66800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1189,19 +1189,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62800</v>
+        <v>60700</v>
       </c>
       <c r="E24" s="3">
-        <v>84000</v>
+        <v>81200</v>
       </c>
       <c r="F24" s="3">
-        <v>32400</v>
+        <v>31300</v>
       </c>
       <c r="G24" s="3">
-        <v>28100</v>
+        <v>27100</v>
       </c>
       <c r="H24" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>384500</v>
+        <v>371600</v>
       </c>
       <c r="E26" s="3">
-        <v>201200</v>
+        <v>194500</v>
       </c>
       <c r="F26" s="3">
-        <v>85900</v>
+        <v>83100</v>
       </c>
       <c r="G26" s="3">
-        <v>78200</v>
+        <v>75600</v>
       </c>
       <c r="H26" s="3">
-        <v>45000</v>
+        <v>43500</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>383500</v>
+        <v>370700</v>
       </c>
       <c r="E27" s="3">
-        <v>199600</v>
+        <v>192900</v>
       </c>
       <c r="F27" s="3">
-        <v>85200</v>
+        <v>82400</v>
       </c>
       <c r="G27" s="3">
-        <v>76400</v>
+        <v>73900</v>
       </c>
       <c r="H27" s="3">
-        <v>34800</v>
+        <v>33700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>13400</v>
+        <v>12900</v>
       </c>
       <c r="G32" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>383500</v>
+        <v>370700</v>
       </c>
       <c r="E33" s="3">
-        <v>199600</v>
+        <v>192900</v>
       </c>
       <c r="F33" s="3">
-        <v>85200</v>
+        <v>82400</v>
       </c>
       <c r="G33" s="3">
-        <v>76400</v>
+        <v>73900</v>
       </c>
       <c r="H33" s="3">
-        <v>34800</v>
+        <v>33700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>383500</v>
+        <v>370700</v>
       </c>
       <c r="E35" s="3">
-        <v>199600</v>
+        <v>192900</v>
       </c>
       <c r="F35" s="3">
-        <v>85200</v>
+        <v>82400</v>
       </c>
       <c r="G35" s="3">
-        <v>76400</v>
+        <v>73900</v>
       </c>
       <c r="H35" s="3">
-        <v>34800</v>
+        <v>33700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>361000</v>
+        <v>349000</v>
       </c>
       <c r="E41" s="3">
-        <v>20300</v>
+        <v>19600</v>
       </c>
       <c r="F41" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="G41" s="3">
-        <v>28300</v>
+        <v>27400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>117100</v>
+        <v>113200</v>
       </c>
       <c r="E43" s="3">
-        <v>130300</v>
+        <v>125900</v>
       </c>
       <c r="F43" s="3">
-        <v>74400</v>
+        <v>71900</v>
       </c>
       <c r="G43" s="3">
-        <v>31700</v>
+        <v>30700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>257400</v>
+        <v>248800</v>
       </c>
       <c r="E45" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="F45" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="G45" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14574100</v>
+        <v>14086400</v>
       </c>
       <c r="E47" s="3">
-        <v>6897000</v>
+        <v>6666200</v>
       </c>
       <c r="F47" s="3">
-        <v>2709800</v>
+        <v>2619100</v>
       </c>
       <c r="G47" s="3">
-        <v>1000000</v>
+        <v>966600</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>71500</v>
+        <v>69100</v>
       </c>
       <c r="E48" s="3">
-        <v>68300</v>
+        <v>66000</v>
       </c>
       <c r="F48" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="G48" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>131800</v>
+        <v>127400</v>
       </c>
       <c r="E49" s="3">
-        <v>102200</v>
+        <v>98800</v>
       </c>
       <c r="F49" s="3">
-        <v>93300</v>
+        <v>90100</v>
       </c>
       <c r="G49" s="3">
-        <v>89200</v>
+        <v>86300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93300</v>
+        <v>90200</v>
       </c>
       <c r="E52" s="3">
-        <v>52600</v>
+        <v>50800</v>
       </c>
       <c r="F52" s="3">
-        <v>28200</v>
+        <v>27200</v>
       </c>
       <c r="G52" s="3">
-        <v>41800</v>
+        <v>40400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17736600</v>
+        <v>17143100</v>
       </c>
       <c r="E54" s="3">
-        <v>8057100</v>
+        <v>7787500</v>
       </c>
       <c r="F54" s="3">
-        <v>3273700</v>
+        <v>3164100</v>
       </c>
       <c r="G54" s="3">
-        <v>1318000</v>
+        <v>1273900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>158800</v>
+        <v>153400</v>
       </c>
       <c r="E57" s="3">
-        <v>49300</v>
+        <v>47600</v>
       </c>
       <c r="F57" s="3">
-        <v>24900</v>
+        <v>24000</v>
       </c>
       <c r="G57" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6338100</v>
+        <v>6126000</v>
       </c>
       <c r="E58" s="3">
-        <v>3352000</v>
+        <v>3239800</v>
       </c>
       <c r="F58" s="3">
-        <v>1480300</v>
+        <v>1430800</v>
       </c>
       <c r="G58" s="3">
-        <v>250600</v>
+        <v>242300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>203800</v>
+        <v>197000</v>
       </c>
       <c r="E59" s="3">
-        <v>154800</v>
+        <v>149600</v>
       </c>
       <c r="F59" s="3">
-        <v>65500</v>
+        <v>63300</v>
       </c>
       <c r="G59" s="3">
-        <v>65800</v>
+        <v>63600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>108800</v>
+        <v>105200</v>
       </c>
       <c r="E61" s="3">
-        <v>181900</v>
+        <v>175800</v>
       </c>
       <c r="F61" s="3">
-        <v>140700</v>
+        <v>136000</v>
       </c>
       <c r="G61" s="3">
-        <v>136100</v>
+        <v>131500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2477900</v>
+        <v>2395000</v>
       </c>
       <c r="E62" s="3">
-        <v>698100</v>
+        <v>674700</v>
       </c>
       <c r="F62" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="G62" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15724400</v>
+        <v>15198200</v>
       </c>
       <c r="E66" s="3">
-        <v>6735900</v>
+        <v>6510500</v>
       </c>
       <c r="F66" s="3">
-        <v>2888600</v>
+        <v>2792000</v>
       </c>
       <c r="G66" s="3">
-        <v>1106800</v>
+        <v>1069700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1969600</v>
+        <v>1903700</v>
       </c>
       <c r="E72" s="3">
-        <v>1282500</v>
+        <v>1239500</v>
       </c>
       <c r="F72" s="3">
-        <v>175000</v>
+        <v>169200</v>
       </c>
       <c r="G72" s="3">
-        <v>126700</v>
+        <v>122400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2012200</v>
+        <v>1944900</v>
       </c>
       <c r="E76" s="3">
-        <v>1321200</v>
+        <v>1277000</v>
       </c>
       <c r="F76" s="3">
-        <v>385100</v>
+        <v>372200</v>
       </c>
       <c r="G76" s="3">
-        <v>211300</v>
+        <v>204200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>383500</v>
+        <v>370700</v>
       </c>
       <c r="E81" s="3">
-        <v>199600</v>
+        <v>192900</v>
       </c>
       <c r="F81" s="3">
-        <v>85200</v>
+        <v>82400</v>
       </c>
       <c r="G81" s="3">
-        <v>76400</v>
+        <v>73900</v>
       </c>
       <c r="H81" s="3">
-        <v>34800</v>
+        <v>33700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26500</v>
+        <v>25600</v>
       </c>
       <c r="E83" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="F83" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="G83" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="H83" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>279000</v>
+        <v>269700</v>
       </c>
       <c r="E89" s="3">
-        <v>-704400</v>
+        <v>-680900</v>
       </c>
       <c r="F89" s="3">
-        <v>-84400</v>
+        <v>-81500</v>
       </c>
       <c r="G89" s="3">
-        <v>48500</v>
+        <v>46800</v>
       </c>
       <c r="H89" s="3">
         <v>900</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26800</v>
+        <v>-25900</v>
       </c>
       <c r="E91" s="3">
-        <v>-13400</v>
+        <v>-12900</v>
       </c>
       <c r="F91" s="3">
-        <v>-9900</v>
+        <v>-9600</v>
       </c>
       <c r="G91" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-107500</v>
+        <v>-103900</v>
       </c>
       <c r="E94" s="3">
-        <v>-29800</v>
+        <v>-28800</v>
       </c>
       <c r="F94" s="3">
-        <v>-27200</v>
+        <v>-26300</v>
       </c>
       <c r="G94" s="3">
-        <v>-84200</v>
+        <v>-81300</v>
       </c>
       <c r="H94" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3302,16 +3302,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-92400</v>
+        <v>-89300</v>
       </c>
       <c r="F96" s="3">
-        <v>-60000</v>
+        <v>-58000</v>
       </c>
       <c r="G96" s="3">
-        <v>-35100</v>
+        <v>-33900</v>
       </c>
       <c r="H96" s="3">
-        <v>-32200</v>
+        <v>-31100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>145700</v>
+        <v>140800</v>
       </c>
       <c r="E100" s="3">
-        <v>782000</v>
+        <v>755800</v>
       </c>
       <c r="F100" s="3">
-        <v>70200</v>
+        <v>67900</v>
       </c>
       <c r="G100" s="3">
-        <v>108000</v>
+        <v>104300</v>
       </c>
       <c r="H100" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,16 +3464,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="E101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F101" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H101" s="3">
         <v>-1300</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>327400</v>
+        <v>316400</v>
       </c>
       <c r="E102" s="3">
-        <v>48200</v>
+        <v>46600</v>
       </c>
       <c r="F102" s="3">
-        <v>-38500</v>
+        <v>-37200</v>
       </c>
       <c r="G102" s="3">
-        <v>73000</v>
+        <v>70600</v>
       </c>
       <c r="H102" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
   <si>
     <t>XP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,29 +711,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1455200</v>
+        <v>2379900</v>
       </c>
       <c r="E8" s="3">
-        <v>915400</v>
+        <v>1606400</v>
       </c>
       <c r="F8" s="3">
-        <v>528100</v>
+        <v>1010500</v>
       </c>
       <c r="G8" s="3">
-        <v>340400</v>
+        <v>583000</v>
       </c>
       <c r="H8" s="3">
-        <v>223500</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>375700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>246700</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -744,9 +747,12 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,9 +783,12 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,17 +907,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>9300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -918,35 +937,38 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>25600</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>16300</v>
+        <v>28200</v>
       </c>
       <c r="F15" s="3">
-        <v>9400</v>
+        <v>18000</v>
       </c>
       <c r="G15" s="3">
-        <v>4900</v>
+        <v>10400</v>
       </c>
       <c r="H15" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+        <v>5400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1013700</v>
+        <v>1599900</v>
       </c>
       <c r="E17" s="3">
-        <v>624700</v>
+        <v>1119000</v>
       </c>
       <c r="F17" s="3">
-        <v>400900</v>
+        <v>689600</v>
       </c>
       <c r="G17" s="3">
-        <v>226700</v>
+        <v>442500</v>
       </c>
       <c r="H17" s="3">
-        <v>156700</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>250300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>173000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,29 +1028,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>441500</v>
+        <v>780000</v>
       </c>
       <c r="E18" s="3">
-        <v>290700</v>
+        <v>487400</v>
       </c>
       <c r="F18" s="3">
-        <v>127300</v>
+        <v>320900</v>
       </c>
       <c r="G18" s="3">
-        <v>113600</v>
+        <v>140500</v>
       </c>
       <c r="H18" s="3">
-        <v>66800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>125400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>73700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,28 +1083,29 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>-12900</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-10900</v>
+        <v>-14200</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>-12000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1083,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>467200</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>306900</v>
+        <v>516100</v>
       </c>
       <c r="F21" s="3">
-        <v>123800</v>
+        <v>339000</v>
       </c>
       <c r="G21" s="3">
-        <v>107600</v>
+        <v>136800</v>
       </c>
       <c r="H21" s="3">
-        <v>70900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>118900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>78300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1116,20 +1152,23 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9400</v>
+        <v>26800</v>
       </c>
       <c r="E22" s="3">
-        <v>15100</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>16600</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1146,32 +1185,35 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>432300</v>
+        <v>751800</v>
       </c>
       <c r="E23" s="3">
-        <v>275700</v>
+        <v>477200</v>
       </c>
       <c r="F23" s="3">
-        <v>114400</v>
+        <v>304300</v>
       </c>
       <c r="G23" s="3">
-        <v>102700</v>
+        <v>126300</v>
       </c>
       <c r="H23" s="3">
-        <v>66800</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>113400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>73700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1182,29 +1224,32 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>60700</v>
+        <v>43900</v>
       </c>
       <c r="E24" s="3">
-        <v>81200</v>
+        <v>67000</v>
       </c>
       <c r="F24" s="3">
-        <v>31300</v>
+        <v>89600</v>
       </c>
       <c r="G24" s="3">
-        <v>27100</v>
+        <v>34600</v>
       </c>
       <c r="H24" s="3">
-        <v>23200</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>29900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>25600</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>371600</v>
+        <v>707800</v>
       </c>
       <c r="E26" s="3">
-        <v>194500</v>
+        <v>410200</v>
       </c>
       <c r="F26" s="3">
-        <v>83100</v>
+        <v>214700</v>
       </c>
       <c r="G26" s="3">
-        <v>75600</v>
+        <v>91700</v>
       </c>
       <c r="H26" s="3">
-        <v>43500</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>83500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>48000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,29 +1332,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>370700</v>
+        <v>707800</v>
       </c>
       <c r="E27" s="3">
-        <v>192900</v>
+        <v>409200</v>
       </c>
       <c r="F27" s="3">
-        <v>82400</v>
+        <v>212900</v>
       </c>
       <c r="G27" s="3">
-        <v>73900</v>
+        <v>90900</v>
       </c>
       <c r="H27" s="3">
-        <v>33700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>81600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>37200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,29 +1512,32 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>12900</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>10900</v>
+        <v>14200</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>12000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1479,29 +1548,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>370700</v>
+        <v>707800</v>
       </c>
       <c r="E33" s="3">
-        <v>192900</v>
+        <v>409200</v>
       </c>
       <c r="F33" s="3">
-        <v>82400</v>
+        <v>212900</v>
       </c>
       <c r="G33" s="3">
-        <v>73900</v>
+        <v>90900</v>
       </c>
       <c r="H33" s="3">
-        <v>33700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>81600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>37200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,29 +1620,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>370700</v>
+        <v>707800</v>
       </c>
       <c r="E35" s="3">
-        <v>192900</v>
+        <v>409200</v>
       </c>
       <c r="F35" s="3">
-        <v>82400</v>
+        <v>212900</v>
       </c>
       <c r="G35" s="3">
-        <v>73900</v>
+        <v>90900</v>
       </c>
       <c r="H35" s="3">
-        <v>33700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>81600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>37200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>349000</v>
+        <v>489900</v>
       </c>
       <c r="E41" s="3">
-        <v>19600</v>
+        <v>385200</v>
       </c>
       <c r="F41" s="3">
-        <v>12200</v>
+        <v>21700</v>
       </c>
       <c r="G41" s="3">
-        <v>27400</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>13500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>30200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,9 +1765,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>113200</v>
+        <v>122600</v>
       </c>
       <c r="E43" s="3">
-        <v>125900</v>
+        <v>124900</v>
       </c>
       <c r="F43" s="3">
-        <v>71900</v>
+        <v>139000</v>
       </c>
       <c r="G43" s="3">
-        <v>30700</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>79300</v>
+      </c>
+      <c r="H43" s="3">
+        <v>33900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,26 +1873,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>248800</v>
+        <v>784900</v>
       </c>
       <c r="E45" s="3">
-        <v>16000</v>
+        <v>274600</v>
       </c>
       <c r="F45" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="G45" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>19100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>12900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1811,9 +1909,12 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1844,26 +1945,29 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14086400</v>
+        <v>20795200</v>
       </c>
       <c r="E47" s="3">
-        <v>6666200</v>
+        <v>15549300</v>
       </c>
       <c r="F47" s="3">
-        <v>2619100</v>
+        <v>7358600</v>
       </c>
       <c r="G47" s="3">
-        <v>966600</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>2891100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1066900</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1877,26 +1981,29 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>69100</v>
+        <v>118000</v>
       </c>
       <c r="E48" s="3">
-        <v>66000</v>
+        <v>76300</v>
       </c>
       <c r="F48" s="3">
-        <v>17700</v>
+        <v>72900</v>
       </c>
       <c r="G48" s="3">
-        <v>8400</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>19500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>9300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,26 +2017,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>127400</v>
+        <v>161800</v>
       </c>
       <c r="E49" s="3">
-        <v>98800</v>
+        <v>140600</v>
       </c>
       <c r="F49" s="3">
-        <v>90100</v>
+        <v>109100</v>
       </c>
       <c r="G49" s="3">
-        <v>86300</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>99500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>95200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,26 +2125,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>90200</v>
+        <v>250900</v>
       </c>
       <c r="E52" s="3">
-        <v>50800</v>
+        <v>99500</v>
       </c>
       <c r="F52" s="3">
-        <v>27200</v>
+        <v>56100</v>
       </c>
       <c r="G52" s="3">
-        <v>40400</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>30000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>44600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17143100</v>
+        <v>27458300</v>
       </c>
       <c r="E54" s="3">
-        <v>7787500</v>
+        <v>18923500</v>
       </c>
       <c r="F54" s="3">
-        <v>3164100</v>
+        <v>8596300</v>
       </c>
       <c r="G54" s="3">
-        <v>1273900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>3492700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1406200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,25 +2268,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>153400</v>
+        <v>171000</v>
       </c>
       <c r="E57" s="3">
-        <v>47600</v>
+        <v>169400</v>
       </c>
       <c r="F57" s="3">
-        <v>24000</v>
+        <v>52600</v>
       </c>
       <c r="G57" s="3">
-        <v>12800</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>26500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>14100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2171,26 +2301,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6126000</v>
+        <v>5704100</v>
       </c>
       <c r="E58" s="3">
-        <v>3239800</v>
+        <v>6762200</v>
       </c>
       <c r="F58" s="3">
-        <v>1430800</v>
+        <v>3576300</v>
       </c>
       <c r="G58" s="3">
-        <v>242300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>1579400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>267400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>197000</v>
+        <v>309800</v>
       </c>
       <c r="E59" s="3">
-        <v>149600</v>
+        <v>217400</v>
       </c>
       <c r="F59" s="3">
-        <v>63300</v>
+        <v>165100</v>
       </c>
       <c r="G59" s="3">
-        <v>63600</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>69900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>70200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,9 +2373,12 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2270,26 +2409,29 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>105200</v>
+        <v>380100</v>
       </c>
       <c r="E61" s="3">
-        <v>175800</v>
+        <v>116100</v>
       </c>
       <c r="F61" s="3">
-        <v>136000</v>
+        <v>194000</v>
       </c>
       <c r="G61" s="3">
-        <v>131500</v>
+        <v>150100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>145200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2303,26 +2445,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2395000</v>
+        <v>6301800</v>
       </c>
       <c r="E62" s="3">
-        <v>674700</v>
+        <v>2643800</v>
       </c>
       <c r="F62" s="3">
-        <v>5300</v>
+        <v>744800</v>
       </c>
       <c r="G62" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>5800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15198200</v>
+        <v>24617300</v>
       </c>
       <c r="E66" s="3">
-        <v>6510500</v>
+        <v>16776600</v>
       </c>
       <c r="F66" s="3">
-        <v>2792000</v>
+        <v>7186700</v>
       </c>
       <c r="G66" s="3">
-        <v>1069700</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>3081900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1180800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1903700</v>
+        <v>2940700</v>
       </c>
       <c r="E72" s="3">
-        <v>1239500</v>
+        <v>2101400</v>
       </c>
       <c r="F72" s="3">
-        <v>169200</v>
+        <v>1368300</v>
       </c>
       <c r="G72" s="3">
-        <v>122400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>186800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>135100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1944900</v>
+        <v>2841000</v>
       </c>
       <c r="E76" s="3">
-        <v>1277000</v>
+        <v>2146900</v>
       </c>
       <c r="F76" s="3">
-        <v>372200</v>
+        <v>1409600</v>
       </c>
       <c r="G76" s="3">
-        <v>204200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>410800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>225400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,29 +3042,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>370700</v>
+        <v>707800</v>
       </c>
       <c r="E81" s="3">
-        <v>192900</v>
+        <v>409200</v>
       </c>
       <c r="F81" s="3">
-        <v>82400</v>
+        <v>212900</v>
       </c>
       <c r="G81" s="3">
-        <v>73900</v>
+        <v>90900</v>
       </c>
       <c r="H81" s="3">
-        <v>33700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>81600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>37200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,28 +3097,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>25600</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>16200</v>
+        <v>28200</v>
       </c>
       <c r="F83" s="3">
-        <v>9400</v>
+        <v>17900</v>
       </c>
       <c r="G83" s="3">
-        <v>4900</v>
+        <v>10400</v>
       </c>
       <c r="H83" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>5400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>4500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,30 +3310,33 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>269700</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-680900</v>
+        <v>297700</v>
       </c>
       <c r="F89" s="3">
-        <v>-81500</v>
+        <v>-751600</v>
       </c>
       <c r="G89" s="3">
-        <v>46800</v>
+        <v>-90000</v>
       </c>
       <c r="H89" s="3">
+        <v>51700</v>
+      </c>
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,28 +3365,29 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-25900</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-12900</v>
+        <v>-28600</v>
       </c>
       <c r="F91" s="3">
-        <v>-9600</v>
+        <v>-14300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3700</v>
+        <v>-10500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-4100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,29 +3470,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-103900</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-28800</v>
+        <v>-114700</v>
       </c>
       <c r="F94" s="3">
-        <v>-26300</v>
+        <v>-31800</v>
       </c>
       <c r="G94" s="3">
-        <v>-81300</v>
+        <v>-29000</v>
       </c>
       <c r="H94" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-89800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-6200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3302,19 +3535,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-89300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-58000</v>
+        <v>-98500</v>
       </c>
       <c r="G96" s="3">
-        <v>-33900</v>
+        <v>-64000</v>
       </c>
       <c r="H96" s="3">
-        <v>-31100</v>
+        <v>-37400</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-34400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,29 +3666,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>140800</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>755800</v>
+        <v>155400</v>
       </c>
       <c r="F100" s="3">
-        <v>67900</v>
+        <v>834300</v>
       </c>
       <c r="G100" s="3">
-        <v>104300</v>
+        <v>74900</v>
       </c>
       <c r="H100" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>115200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>16200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3457,29 +3702,32 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>9800</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>400</v>
+        <v>10900</v>
       </c>
       <c r="F101" s="3">
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="G101" s="3">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="H101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1400</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3490,29 +3738,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>316400</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>46600</v>
+        <v>349300</v>
       </c>
       <c r="F102" s="3">
-        <v>-37200</v>
+        <v>51400</v>
       </c>
       <c r="G102" s="3">
-        <v>70600</v>
+        <v>-41100</v>
       </c>
       <c r="H102" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>77900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>9500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>XP</t>
   </si>
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2379900</v>
+        <v>2352400</v>
       </c>
       <c r="E8" s="3">
-        <v>1606400</v>
+        <v>1587800</v>
       </c>
       <c r="F8" s="3">
-        <v>1010500</v>
+        <v>998800</v>
       </c>
       <c r="G8" s="3">
-        <v>583000</v>
+        <v>576200</v>
       </c>
       <c r="H8" s="3">
-        <v>375700</v>
+        <v>371400</v>
       </c>
       <c r="I8" s="3">
-        <v>246700</v>
+        <v>243800</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -916,11 +916,11 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>900</v>
       </c>
       <c r="E14" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -952,20 +952,20 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>45100</v>
       </c>
       <c r="E15" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="F15" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="G15" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="H15" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="I15" s="3">
         <v>4500</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1599900</v>
+        <v>1581300</v>
       </c>
       <c r="E17" s="3">
-        <v>1119000</v>
+        <v>1106000</v>
       </c>
       <c r="F17" s="3">
-        <v>689600</v>
+        <v>681600</v>
       </c>
       <c r="G17" s="3">
-        <v>442500</v>
+        <v>437400</v>
       </c>
       <c r="H17" s="3">
-        <v>250300</v>
+        <v>247400</v>
       </c>
       <c r="I17" s="3">
-        <v>173000</v>
+        <v>171000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>780000</v>
+        <v>771100</v>
       </c>
       <c r="E18" s="3">
-        <v>487400</v>
+        <v>481700</v>
       </c>
       <c r="F18" s="3">
-        <v>320900</v>
+        <v>317200</v>
       </c>
       <c r="G18" s="3">
-        <v>140500</v>
+        <v>138900</v>
       </c>
       <c r="H18" s="3">
-        <v>125400</v>
+        <v>124000</v>
       </c>
       <c r="I18" s="3">
-        <v>73700</v>
+        <v>72800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,7 +1090,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="H20" s="3">
-        <v>-12000</v>
+        <v>-11900</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1125,23 +1125,23 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>814700</v>
       </c>
       <c r="E21" s="3">
-        <v>516100</v>
+        <v>509800</v>
       </c>
       <c r="F21" s="3">
-        <v>339000</v>
+        <v>334900</v>
       </c>
       <c r="G21" s="3">
-        <v>136800</v>
+        <v>135100</v>
       </c>
       <c r="H21" s="3">
-        <v>118900</v>
+        <v>117400</v>
       </c>
       <c r="I21" s="3">
-        <v>78300</v>
+        <v>77300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26800</v>
+        <v>26400</v>
       </c>
       <c r="E22" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="F22" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>751800</v>
+        <v>743100</v>
       </c>
       <c r="E23" s="3">
-        <v>477200</v>
+        <v>471600</v>
       </c>
       <c r="F23" s="3">
-        <v>304300</v>
+        <v>300800</v>
       </c>
       <c r="G23" s="3">
-        <v>126300</v>
+        <v>124800</v>
       </c>
       <c r="H23" s="3">
-        <v>113400</v>
+        <v>112100</v>
       </c>
       <c r="I23" s="3">
-        <v>73700</v>
+        <v>72800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>43900</v>
+        <v>43400</v>
       </c>
       <c r="E24" s="3">
-        <v>67000</v>
+        <v>66200</v>
       </c>
       <c r="F24" s="3">
-        <v>89600</v>
+        <v>88600</v>
       </c>
       <c r="G24" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="H24" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="I24" s="3">
-        <v>25600</v>
+        <v>25400</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>707800</v>
+        <v>699700</v>
       </c>
       <c r="E26" s="3">
-        <v>410200</v>
+        <v>405400</v>
       </c>
       <c r="F26" s="3">
-        <v>214700</v>
+        <v>212200</v>
       </c>
       <c r="G26" s="3">
-        <v>91700</v>
+        <v>90600</v>
       </c>
       <c r="H26" s="3">
-        <v>83500</v>
+        <v>82500</v>
       </c>
       <c r="I26" s="3">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>707800</v>
+        <v>699100</v>
       </c>
       <c r="E27" s="3">
-        <v>409200</v>
+        <v>404400</v>
       </c>
       <c r="F27" s="3">
-        <v>212900</v>
+        <v>210500</v>
       </c>
       <c r="G27" s="3">
-        <v>90900</v>
+        <v>89900</v>
       </c>
       <c r="H27" s="3">
-        <v>81600</v>
+        <v>80600</v>
       </c>
       <c r="I27" s="3">
-        <v>37200</v>
+        <v>36800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="H32" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>707800</v>
+        <v>699100</v>
       </c>
       <c r="E33" s="3">
-        <v>409200</v>
+        <v>404400</v>
       </c>
       <c r="F33" s="3">
-        <v>212900</v>
+        <v>210500</v>
       </c>
       <c r="G33" s="3">
-        <v>90900</v>
+        <v>89900</v>
       </c>
       <c r="H33" s="3">
-        <v>81600</v>
+        <v>80600</v>
       </c>
       <c r="I33" s="3">
-        <v>37200</v>
+        <v>36800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>707800</v>
+        <v>699100</v>
       </c>
       <c r="E35" s="3">
-        <v>409200</v>
+        <v>404400</v>
       </c>
       <c r="F35" s="3">
-        <v>212900</v>
+        <v>210500</v>
       </c>
       <c r="G35" s="3">
-        <v>90900</v>
+        <v>89900</v>
       </c>
       <c r="H35" s="3">
-        <v>81600</v>
+        <v>80600</v>
       </c>
       <c r="I35" s="3">
-        <v>37200</v>
+        <v>36800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>489900</v>
+        <v>484200</v>
       </c>
       <c r="E41" s="3">
-        <v>385200</v>
+        <v>380800</v>
       </c>
       <c r="F41" s="3">
-        <v>21700</v>
+        <v>21400</v>
       </c>
       <c r="G41" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="H41" s="3">
-        <v>30200</v>
+        <v>29800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>122600</v>
+        <v>121200</v>
       </c>
       <c r="E43" s="3">
-        <v>124900</v>
+        <v>123500</v>
       </c>
       <c r="F43" s="3">
-        <v>139000</v>
+        <v>137400</v>
       </c>
       <c r="G43" s="3">
-        <v>79300</v>
+        <v>78400</v>
       </c>
       <c r="H43" s="3">
-        <v>33900</v>
+        <v>33500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>784900</v>
+        <v>775800</v>
       </c>
       <c r="E45" s="3">
-        <v>274600</v>
+        <v>271400</v>
       </c>
       <c r="F45" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="G45" s="3">
-        <v>19100</v>
+        <v>18800</v>
       </c>
       <c r="H45" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20795200</v>
+        <v>20554400</v>
       </c>
       <c r="E47" s="3">
-        <v>15549300</v>
+        <v>15369400</v>
       </c>
       <c r="F47" s="3">
-        <v>7358600</v>
+        <v>7273400</v>
       </c>
       <c r="G47" s="3">
-        <v>2891100</v>
+        <v>2857700</v>
       </c>
       <c r="H47" s="3">
-        <v>1066900</v>
+        <v>1054600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>118000</v>
+        <v>116600</v>
       </c>
       <c r="E48" s="3">
-        <v>76300</v>
+        <v>75400</v>
       </c>
       <c r="F48" s="3">
-        <v>72900</v>
+        <v>72100</v>
       </c>
       <c r="G48" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="H48" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>161800</v>
+        <v>159900</v>
       </c>
       <c r="E49" s="3">
-        <v>140600</v>
+        <v>139000</v>
       </c>
       <c r="F49" s="3">
-        <v>109100</v>
+        <v>107800</v>
       </c>
       <c r="G49" s="3">
-        <v>99500</v>
+        <v>98300</v>
       </c>
       <c r="H49" s="3">
-        <v>95200</v>
+        <v>94100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>250900</v>
+        <v>248000</v>
       </c>
       <c r="E52" s="3">
-        <v>99500</v>
+        <v>98400</v>
       </c>
       <c r="F52" s="3">
-        <v>56100</v>
+        <v>55400</v>
       </c>
       <c r="G52" s="3">
-        <v>30000</v>
+        <v>29700</v>
       </c>
       <c r="H52" s="3">
-        <v>44600</v>
+        <v>44100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27458300</v>
+        <v>27140700</v>
       </c>
       <c r="E54" s="3">
-        <v>18923500</v>
+        <v>18704600</v>
       </c>
       <c r="F54" s="3">
-        <v>8596300</v>
+        <v>8496800</v>
       </c>
       <c r="G54" s="3">
-        <v>3492700</v>
+        <v>3452300</v>
       </c>
       <c r="H54" s="3">
-        <v>1406200</v>
+        <v>1390000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>171000</v>
+        <v>169000</v>
       </c>
       <c r="E57" s="3">
-        <v>169400</v>
+        <v>167400</v>
       </c>
       <c r="F57" s="3">
-        <v>52600</v>
+        <v>52000</v>
       </c>
       <c r="G57" s="3">
-        <v>26500</v>
+        <v>26200</v>
       </c>
       <c r="H57" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5704100</v>
+        <v>5994700</v>
       </c>
       <c r="E58" s="3">
-        <v>6762200</v>
+        <v>6684000</v>
       </c>
       <c r="F58" s="3">
-        <v>3576300</v>
+        <v>3534900</v>
       </c>
       <c r="G58" s="3">
-        <v>1579400</v>
+        <v>1561100</v>
       </c>
       <c r="H58" s="3">
-        <v>267400</v>
+        <v>264300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>309800</v>
+        <v>306200</v>
       </c>
       <c r="E59" s="3">
-        <v>217400</v>
+        <v>214900</v>
       </c>
       <c r="F59" s="3">
-        <v>165100</v>
+        <v>163200</v>
       </c>
       <c r="G59" s="3">
-        <v>69900</v>
+        <v>69100</v>
       </c>
       <c r="H59" s="3">
-        <v>70200</v>
+        <v>69400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>380100</v>
+        <v>893800</v>
       </c>
       <c r="E61" s="3">
-        <v>116100</v>
+        <v>114700</v>
       </c>
       <c r="F61" s="3">
-        <v>194000</v>
+        <v>191800</v>
       </c>
       <c r="G61" s="3">
-        <v>150100</v>
+        <v>148400</v>
       </c>
       <c r="H61" s="3">
-        <v>145200</v>
+        <v>143500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6301800</v>
+        <v>6229000</v>
       </c>
       <c r="E62" s="3">
-        <v>2643800</v>
+        <v>2613200</v>
       </c>
       <c r="F62" s="3">
-        <v>744800</v>
+        <v>736200</v>
       </c>
       <c r="G62" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="H62" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24617300</v>
+        <v>24332600</v>
       </c>
       <c r="E66" s="3">
-        <v>16776600</v>
+        <v>16582500</v>
       </c>
       <c r="F66" s="3">
-        <v>7186700</v>
+        <v>7103500</v>
       </c>
       <c r="G66" s="3">
-        <v>3081900</v>
+        <v>3046300</v>
       </c>
       <c r="H66" s="3">
-        <v>1180800</v>
+        <v>1167200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2940700</v>
+        <v>2906800</v>
       </c>
       <c r="E72" s="3">
-        <v>2101400</v>
+        <v>2077100</v>
       </c>
       <c r="F72" s="3">
-        <v>1368300</v>
+        <v>1352400</v>
       </c>
       <c r="G72" s="3">
-        <v>186800</v>
+        <v>184600</v>
       </c>
       <c r="H72" s="3">
-        <v>135100</v>
+        <v>133600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2841000</v>
+        <v>2808100</v>
       </c>
       <c r="E76" s="3">
-        <v>2146900</v>
+        <v>2122100</v>
       </c>
       <c r="F76" s="3">
-        <v>1409600</v>
+        <v>1393300</v>
       </c>
       <c r="G76" s="3">
-        <v>410800</v>
+        <v>406100</v>
       </c>
       <c r="H76" s="3">
-        <v>225400</v>
+        <v>222800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>707800</v>
+        <v>699100</v>
       </c>
       <c r="E81" s="3">
-        <v>409200</v>
+        <v>404400</v>
       </c>
       <c r="F81" s="3">
-        <v>212900</v>
+        <v>210500</v>
       </c>
       <c r="G81" s="3">
-        <v>90900</v>
+        <v>89900</v>
       </c>
       <c r="H81" s="3">
-        <v>81600</v>
+        <v>80600</v>
       </c>
       <c r="I81" s="3">
-        <v>37200</v>
+        <v>36800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3103,20 +3103,20 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>45100</v>
       </c>
       <c r="E83" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="F83" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="G83" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="H83" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="I83" s="3">
         <v>4500</v>
@@ -3319,20 +3319,20 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-783100</v>
       </c>
       <c r="E89" s="3">
-        <v>297700</v>
+        <v>294300</v>
       </c>
       <c r="F89" s="3">
-        <v>-751600</v>
+        <v>-742900</v>
       </c>
       <c r="G89" s="3">
-        <v>-90000</v>
+        <v>-89000</v>
       </c>
       <c r="H89" s="3">
-        <v>51700</v>
+        <v>51100</v>
       </c>
       <c r="I89" s="3">
         <v>900</v>
@@ -3371,23 +3371,23 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-26400</v>
       </c>
       <c r="E91" s="3">
-        <v>-28600</v>
+        <v>-28300</v>
       </c>
       <c r="F91" s="3">
-        <v>-14300</v>
+        <v>-14100</v>
       </c>
       <c r="G91" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="H91" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3479,20 +3479,20 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-224100</v>
       </c>
       <c r="E94" s="3">
-        <v>-114700</v>
+        <v>-113400</v>
       </c>
       <c r="F94" s="3">
-        <v>-31800</v>
+        <v>-31400</v>
       </c>
       <c r="G94" s="3">
-        <v>-29000</v>
+        <v>-28600</v>
       </c>
       <c r="H94" s="3">
-        <v>-89800</v>
+        <v>-88700</v>
       </c>
       <c r="I94" s="3">
         <v>-6200</v>
@@ -3538,16 +3538,16 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-98500</v>
+        <v>-97400</v>
       </c>
       <c r="G96" s="3">
-        <v>-64000</v>
+        <v>-63300</v>
       </c>
       <c r="H96" s="3">
-        <v>-37400</v>
+        <v>-37000</v>
       </c>
       <c r="I96" s="3">
-        <v>-34400</v>
+        <v>-34000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3675,23 +3675,23 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>1293200</v>
       </c>
       <c r="E100" s="3">
-        <v>155400</v>
+        <v>153600</v>
       </c>
       <c r="F100" s="3">
-        <v>834300</v>
+        <v>824700</v>
       </c>
       <c r="G100" s="3">
-        <v>74900</v>
+        <v>74000</v>
       </c>
       <c r="H100" s="3">
-        <v>115200</v>
+        <v>113900</v>
       </c>
       <c r="I100" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3711,17 +3711,17 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-73400</v>
       </c>
       <c r="E101" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
       </c>
       <c r="G101" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H101" s="3">
         <v>800</v>
@@ -3747,23 +3747,23 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>212600</v>
       </c>
       <c r="E102" s="3">
-        <v>349300</v>
+        <v>345300</v>
       </c>
       <c r="F102" s="3">
-        <v>51400</v>
+        <v>50800</v>
       </c>
       <c r="G102" s="3">
-        <v>-41100</v>
+        <v>-40600</v>
       </c>
       <c r="H102" s="3">
-        <v>77900</v>
+        <v>77000</v>
       </c>
       <c r="I102" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2352400</v>
+        <v>2363500</v>
       </c>
       <c r="E8" s="3">
-        <v>1587800</v>
+        <v>1595300</v>
       </c>
       <c r="F8" s="3">
-        <v>998800</v>
+        <v>1003500</v>
       </c>
       <c r="G8" s="3">
-        <v>576200</v>
+        <v>579000</v>
       </c>
       <c r="H8" s="3">
-        <v>371400</v>
+        <v>373100</v>
       </c>
       <c r="I8" s="3">
-        <v>243800</v>
+        <v>245000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -920,7 +920,7 @@
         <v>900</v>
       </c>
       <c r="E14" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -953,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>45100</v>
+        <v>45300</v>
       </c>
       <c r="E15" s="3">
-        <v>27900</v>
+        <v>28000</v>
       </c>
       <c r="F15" s="3">
         <v>17800</v>
@@ -965,7 +965,7 @@
         <v>10300</v>
       </c>
       <c r="H15" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I15" s="3">
         <v>4500</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1581300</v>
+        <v>1588800</v>
       </c>
       <c r="E17" s="3">
-        <v>1106000</v>
+        <v>1111300</v>
       </c>
       <c r="F17" s="3">
-        <v>681600</v>
+        <v>684800</v>
       </c>
       <c r="G17" s="3">
-        <v>437400</v>
+        <v>439400</v>
       </c>
       <c r="H17" s="3">
-        <v>247400</v>
+        <v>248500</v>
       </c>
       <c r="I17" s="3">
-        <v>171000</v>
+        <v>171800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>771100</v>
+        <v>774700</v>
       </c>
       <c r="E18" s="3">
-        <v>481700</v>
+        <v>484000</v>
       </c>
       <c r="F18" s="3">
-        <v>317200</v>
+        <v>318700</v>
       </c>
       <c r="G18" s="3">
-        <v>138900</v>
+        <v>139500</v>
       </c>
       <c r="H18" s="3">
-        <v>124000</v>
+        <v>124600</v>
       </c>
       <c r="I18" s="3">
-        <v>72800</v>
+        <v>73200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-14100</v>
+        <v>-14200</v>
       </c>
       <c r="H20" s="3">
-        <v>-11900</v>
+        <v>-12000</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>814700</v>
+        <v>818500</v>
       </c>
       <c r="E21" s="3">
-        <v>509800</v>
+        <v>512200</v>
       </c>
       <c r="F21" s="3">
-        <v>334900</v>
+        <v>336400</v>
       </c>
       <c r="G21" s="3">
-        <v>135100</v>
+        <v>135700</v>
       </c>
       <c r="H21" s="3">
-        <v>117400</v>
+        <v>118000</v>
       </c>
       <c r="I21" s="3">
-        <v>77300</v>
+        <v>77700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="E22" s="3">
         <v>10300</v>
       </c>
       <c r="F22" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>743100</v>
+        <v>746600</v>
       </c>
       <c r="E23" s="3">
-        <v>471600</v>
+        <v>473900</v>
       </c>
       <c r="F23" s="3">
-        <v>300800</v>
+        <v>302200</v>
       </c>
       <c r="G23" s="3">
-        <v>124800</v>
+        <v>125400</v>
       </c>
       <c r="H23" s="3">
-        <v>112100</v>
+        <v>112600</v>
       </c>
       <c r="I23" s="3">
-        <v>72800</v>
+        <v>73200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>43400</v>
+        <v>43600</v>
       </c>
       <c r="E24" s="3">
-        <v>66200</v>
+        <v>66500</v>
       </c>
       <c r="F24" s="3">
-        <v>88600</v>
+        <v>89000</v>
       </c>
       <c r="G24" s="3">
-        <v>34200</v>
+        <v>34300</v>
       </c>
       <c r="H24" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="I24" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>699700</v>
+        <v>703000</v>
       </c>
       <c r="E26" s="3">
-        <v>405400</v>
+        <v>407300</v>
       </c>
       <c r="F26" s="3">
-        <v>212200</v>
+        <v>213200</v>
       </c>
       <c r="G26" s="3">
-        <v>90600</v>
+        <v>91100</v>
       </c>
       <c r="H26" s="3">
-        <v>82500</v>
+        <v>82900</v>
       </c>
       <c r="I26" s="3">
-        <v>47500</v>
+        <v>47700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>699100</v>
+        <v>702400</v>
       </c>
       <c r="E27" s="3">
-        <v>404400</v>
+        <v>406400</v>
       </c>
       <c r="F27" s="3">
-        <v>210500</v>
+        <v>211500</v>
       </c>
       <c r="G27" s="3">
-        <v>89900</v>
+        <v>90300</v>
       </c>
       <c r="H27" s="3">
-        <v>80600</v>
+        <v>81000</v>
       </c>
       <c r="I27" s="3">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="H32" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>699100</v>
+        <v>702400</v>
       </c>
       <c r="E33" s="3">
-        <v>404400</v>
+        <v>406400</v>
       </c>
       <c r="F33" s="3">
-        <v>210500</v>
+        <v>211500</v>
       </c>
       <c r="G33" s="3">
-        <v>89900</v>
+        <v>90300</v>
       </c>
       <c r="H33" s="3">
-        <v>80600</v>
+        <v>81000</v>
       </c>
       <c r="I33" s="3">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>699100</v>
+        <v>702400</v>
       </c>
       <c r="E35" s="3">
-        <v>404400</v>
+        <v>406400</v>
       </c>
       <c r="F35" s="3">
-        <v>210500</v>
+        <v>211500</v>
       </c>
       <c r="G35" s="3">
-        <v>89900</v>
+        <v>90300</v>
       </c>
       <c r="H35" s="3">
-        <v>80600</v>
+        <v>81000</v>
       </c>
       <c r="I35" s="3">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>484200</v>
+        <v>486400</v>
       </c>
       <c r="E41" s="3">
-        <v>380800</v>
+        <v>382600</v>
       </c>
       <c r="F41" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="G41" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="H41" s="3">
-        <v>29800</v>
+        <v>30000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>121200</v>
+        <v>121800</v>
       </c>
       <c r="E43" s="3">
-        <v>123500</v>
+        <v>124100</v>
       </c>
       <c r="F43" s="3">
-        <v>137400</v>
+        <v>138000</v>
       </c>
       <c r="G43" s="3">
-        <v>78400</v>
+        <v>78800</v>
       </c>
       <c r="H43" s="3">
-        <v>33500</v>
+        <v>33600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>775800</v>
+        <v>779400</v>
       </c>
       <c r="E45" s="3">
-        <v>271400</v>
+        <v>272700</v>
       </c>
       <c r="F45" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="G45" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="H45" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20554400</v>
+        <v>20651500</v>
       </c>
       <c r="E47" s="3">
-        <v>15369400</v>
+        <v>15442000</v>
       </c>
       <c r="F47" s="3">
-        <v>7273400</v>
+        <v>7307800</v>
       </c>
       <c r="G47" s="3">
-        <v>2857700</v>
+        <v>2871200</v>
       </c>
       <c r="H47" s="3">
-        <v>1054600</v>
+        <v>1059600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1991,16 +1991,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>116600</v>
+        <v>117100</v>
       </c>
       <c r="E48" s="3">
-        <v>75400</v>
+        <v>75800</v>
       </c>
       <c r="F48" s="3">
-        <v>72100</v>
+        <v>72400</v>
       </c>
       <c r="G48" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="H48" s="3">
         <v>9200</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>159900</v>
+        <v>160700</v>
       </c>
       <c r="E49" s="3">
-        <v>139000</v>
+        <v>139600</v>
       </c>
       <c r="F49" s="3">
-        <v>107800</v>
+        <v>108300</v>
       </c>
       <c r="G49" s="3">
-        <v>98300</v>
+        <v>98800</v>
       </c>
       <c r="H49" s="3">
-        <v>94100</v>
+        <v>94600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>248000</v>
+        <v>249100</v>
       </c>
       <c r="E52" s="3">
-        <v>98400</v>
+        <v>98800</v>
       </c>
       <c r="F52" s="3">
-        <v>55400</v>
+        <v>55700</v>
       </c>
       <c r="G52" s="3">
-        <v>29700</v>
+        <v>29800</v>
       </c>
       <c r="H52" s="3">
-        <v>44100</v>
+        <v>44300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27140700</v>
+        <v>27268900</v>
       </c>
       <c r="E54" s="3">
-        <v>18704600</v>
+        <v>18792900</v>
       </c>
       <c r="F54" s="3">
-        <v>8496800</v>
+        <v>8537000</v>
       </c>
       <c r="G54" s="3">
-        <v>3452300</v>
+        <v>3468600</v>
       </c>
       <c r="H54" s="3">
-        <v>1390000</v>
+        <v>1396500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>169000</v>
+        <v>169800</v>
       </c>
       <c r="E57" s="3">
-        <v>167400</v>
+        <v>168200</v>
       </c>
       <c r="F57" s="3">
-        <v>52000</v>
+        <v>52200</v>
       </c>
       <c r="G57" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="H57" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5994700</v>
+        <v>6023000</v>
       </c>
       <c r="E58" s="3">
-        <v>6684000</v>
+        <v>6715600</v>
       </c>
       <c r="F58" s="3">
-        <v>3534900</v>
+        <v>3551600</v>
       </c>
       <c r="G58" s="3">
-        <v>1561100</v>
+        <v>1568500</v>
       </c>
       <c r="H58" s="3">
-        <v>264300</v>
+        <v>265600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>306200</v>
+        <v>307600</v>
       </c>
       <c r="E59" s="3">
-        <v>214900</v>
+        <v>215900</v>
       </c>
       <c r="F59" s="3">
-        <v>163200</v>
+        <v>164000</v>
       </c>
       <c r="G59" s="3">
-        <v>69100</v>
+        <v>69400</v>
       </c>
       <c r="H59" s="3">
-        <v>69400</v>
+        <v>69700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>893800</v>
+        <v>898000</v>
       </c>
       <c r="E61" s="3">
-        <v>114700</v>
+        <v>115300</v>
       </c>
       <c r="F61" s="3">
-        <v>191800</v>
+        <v>192700</v>
       </c>
       <c r="G61" s="3">
-        <v>148400</v>
+        <v>149100</v>
       </c>
       <c r="H61" s="3">
-        <v>143500</v>
+        <v>144200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6229000</v>
+        <v>6258400</v>
       </c>
       <c r="E62" s="3">
-        <v>2613200</v>
+        <v>2625500</v>
       </c>
       <c r="F62" s="3">
-        <v>736200</v>
+        <v>739600</v>
       </c>
       <c r="G62" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H62" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24332600</v>
+        <v>24447500</v>
       </c>
       <c r="E66" s="3">
-        <v>16582500</v>
+        <v>16660800</v>
       </c>
       <c r="F66" s="3">
-        <v>7103500</v>
+        <v>7137100</v>
       </c>
       <c r="G66" s="3">
-        <v>3046300</v>
+        <v>3060600</v>
       </c>
       <c r="H66" s="3">
-        <v>1167200</v>
+        <v>1172700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2906800</v>
+        <v>2920500</v>
       </c>
       <c r="E72" s="3">
-        <v>2077100</v>
+        <v>2086900</v>
       </c>
       <c r="F72" s="3">
-        <v>1352400</v>
+        <v>1358800</v>
       </c>
       <c r="G72" s="3">
-        <v>184600</v>
+        <v>185500</v>
       </c>
       <c r="H72" s="3">
-        <v>133600</v>
+        <v>134200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2808100</v>
+        <v>2821400</v>
       </c>
       <c r="E76" s="3">
-        <v>2122100</v>
+        <v>2132100</v>
       </c>
       <c r="F76" s="3">
-        <v>1393300</v>
+        <v>1399900</v>
       </c>
       <c r="G76" s="3">
-        <v>406100</v>
+        <v>408000</v>
       </c>
       <c r="H76" s="3">
-        <v>222800</v>
+        <v>223800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>699100</v>
+        <v>702400</v>
       </c>
       <c r="E81" s="3">
-        <v>404400</v>
+        <v>406400</v>
       </c>
       <c r="F81" s="3">
-        <v>210500</v>
+        <v>211500</v>
       </c>
       <c r="G81" s="3">
-        <v>89900</v>
+        <v>90300</v>
       </c>
       <c r="H81" s="3">
-        <v>80600</v>
+        <v>81000</v>
       </c>
       <c r="I81" s="3">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>45100</v>
+        <v>45300</v>
       </c>
       <c r="E83" s="3">
-        <v>27900</v>
+        <v>28000</v>
       </c>
       <c r="F83" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="G83" s="3">
         <v>10300</v>
       </c>
       <c r="H83" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I83" s="3">
         <v>4500</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-783100</v>
+        <v>-786800</v>
       </c>
       <c r="E89" s="3">
-        <v>294300</v>
+        <v>295600</v>
       </c>
       <c r="F89" s="3">
-        <v>-742900</v>
+        <v>-746400</v>
       </c>
       <c r="G89" s="3">
-        <v>-89000</v>
+        <v>-89400</v>
       </c>
       <c r="H89" s="3">
-        <v>51100</v>
+        <v>51300</v>
       </c>
       <c r="I89" s="3">
         <v>900</v>
@@ -3372,16 +3372,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26400</v>
+        <v>-26500</v>
       </c>
       <c r="E91" s="3">
-        <v>-28300</v>
+        <v>-28400</v>
       </c>
       <c r="F91" s="3">
-        <v>-14100</v>
+        <v>-14200</v>
       </c>
       <c r="G91" s="3">
-        <v>-10400</v>
+        <v>-10500</v>
       </c>
       <c r="H91" s="3">
         <v>-4000</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-224100</v>
+        <v>-225200</v>
       </c>
       <c r="E94" s="3">
-        <v>-113400</v>
+        <v>-113900</v>
       </c>
       <c r="F94" s="3">
-        <v>-31400</v>
+        <v>-31600</v>
       </c>
       <c r="G94" s="3">
-        <v>-28600</v>
+        <v>-28800</v>
       </c>
       <c r="H94" s="3">
-        <v>-88700</v>
+        <v>-89200</v>
       </c>
       <c r="I94" s="3">
         <v>-6200</v>
@@ -3538,16 +3538,16 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-97400</v>
+        <v>-97900</v>
       </c>
       <c r="G96" s="3">
-        <v>-63300</v>
+        <v>-63600</v>
       </c>
       <c r="H96" s="3">
-        <v>-37000</v>
+        <v>-37200</v>
       </c>
       <c r="I96" s="3">
-        <v>-34000</v>
+        <v>-34100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1293200</v>
+        <v>1299300</v>
       </c>
       <c r="E100" s="3">
-        <v>153600</v>
+        <v>154400</v>
       </c>
       <c r="F100" s="3">
-        <v>824700</v>
+        <v>828600</v>
       </c>
       <c r="G100" s="3">
-        <v>74000</v>
+        <v>74400</v>
       </c>
       <c r="H100" s="3">
-        <v>113900</v>
+        <v>114400</v>
       </c>
       <c r="I100" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-73400</v>
+        <v>-73700</v>
       </c>
       <c r="E101" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
       </c>
       <c r="G101" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H101" s="3">
         <v>800</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>212600</v>
+        <v>213600</v>
       </c>
       <c r="E102" s="3">
-        <v>345300</v>
+        <v>346900</v>
       </c>
       <c r="F102" s="3">
-        <v>50800</v>
+        <v>51100</v>
       </c>
       <c r="G102" s="3">
-        <v>-40600</v>
+        <v>-40800</v>
       </c>
       <c r="H102" s="3">
-        <v>77000</v>
+        <v>77400</v>
       </c>
       <c r="I102" s="3">
         <v>9400</v>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2363500</v>
+        <v>2259500</v>
       </c>
       <c r="E8" s="3">
-        <v>1595300</v>
+        <v>1525100</v>
       </c>
       <c r="F8" s="3">
-        <v>1003500</v>
+        <v>959400</v>
       </c>
       <c r="G8" s="3">
-        <v>579000</v>
+        <v>553500</v>
       </c>
       <c r="H8" s="3">
-        <v>373100</v>
+        <v>356700</v>
       </c>
       <c r="I8" s="3">
-        <v>245000</v>
+        <v>234200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -917,10 +917,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -953,22 +953,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>45300</v>
+        <v>43400</v>
       </c>
       <c r="E15" s="3">
-        <v>28000</v>
+        <v>26800</v>
       </c>
       <c r="F15" s="3">
-        <v>17800</v>
+        <v>17100</v>
       </c>
       <c r="G15" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="H15" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="I15" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1588800</v>
+        <v>1518900</v>
       </c>
       <c r="E17" s="3">
-        <v>1111300</v>
+        <v>1062400</v>
       </c>
       <c r="F17" s="3">
-        <v>684800</v>
+        <v>654700</v>
       </c>
       <c r="G17" s="3">
-        <v>439400</v>
+        <v>420100</v>
       </c>
       <c r="H17" s="3">
-        <v>248500</v>
+        <v>237600</v>
       </c>
       <c r="I17" s="3">
-        <v>171800</v>
+        <v>164200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>774700</v>
+        <v>740600</v>
       </c>
       <c r="E18" s="3">
-        <v>484000</v>
+        <v>462700</v>
       </c>
       <c r="F18" s="3">
-        <v>318700</v>
+        <v>304700</v>
       </c>
       <c r="G18" s="3">
-        <v>139500</v>
+        <v>133400</v>
       </c>
       <c r="H18" s="3">
-        <v>124600</v>
+        <v>119100</v>
       </c>
       <c r="I18" s="3">
-        <v>73200</v>
+        <v>70000</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,7 +1090,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-14200</v>
+        <v>-13500</v>
       </c>
       <c r="H20" s="3">
-        <v>-12000</v>
+        <v>-11400</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>818500</v>
+        <v>783900</v>
       </c>
       <c r="E21" s="3">
-        <v>512200</v>
+        <v>490500</v>
       </c>
       <c r="F21" s="3">
-        <v>336400</v>
+        <v>322200</v>
       </c>
       <c r="G21" s="3">
-        <v>135700</v>
+        <v>130100</v>
       </c>
       <c r="H21" s="3">
-        <v>118000</v>
+        <v>113000</v>
       </c>
       <c r="I21" s="3">
-        <v>77700</v>
+        <v>74400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26600</v>
+        <v>25400</v>
       </c>
       <c r="E22" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="F22" s="3">
-        <v>16500</v>
+        <v>15800</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>746600</v>
+        <v>713800</v>
       </c>
       <c r="E23" s="3">
-        <v>473900</v>
+        <v>453000</v>
       </c>
       <c r="F23" s="3">
-        <v>302200</v>
+        <v>288900</v>
       </c>
       <c r="G23" s="3">
-        <v>125400</v>
+        <v>119900</v>
       </c>
       <c r="H23" s="3">
-        <v>112600</v>
+        <v>107700</v>
       </c>
       <c r="I23" s="3">
-        <v>73200</v>
+        <v>70000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>43600</v>
+        <v>41700</v>
       </c>
       <c r="E24" s="3">
-        <v>66500</v>
+        <v>63600</v>
       </c>
       <c r="F24" s="3">
-        <v>89000</v>
+        <v>85100</v>
       </c>
       <c r="G24" s="3">
-        <v>34300</v>
+        <v>32800</v>
       </c>
       <c r="H24" s="3">
-        <v>29700</v>
+        <v>28400</v>
       </c>
       <c r="I24" s="3">
-        <v>25500</v>
+        <v>24300</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>703000</v>
+        <v>672100</v>
       </c>
       <c r="E26" s="3">
-        <v>407300</v>
+        <v>389400</v>
       </c>
       <c r="F26" s="3">
-        <v>213200</v>
+        <v>203800</v>
       </c>
       <c r="G26" s="3">
-        <v>91100</v>
+        <v>87100</v>
       </c>
       <c r="H26" s="3">
-        <v>82900</v>
+        <v>79200</v>
       </c>
       <c r="I26" s="3">
-        <v>47700</v>
+        <v>45600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>702400</v>
+        <v>671500</v>
       </c>
       <c r="E27" s="3">
-        <v>406400</v>
+        <v>388500</v>
       </c>
       <c r="F27" s="3">
-        <v>211500</v>
+        <v>202100</v>
       </c>
       <c r="G27" s="3">
-        <v>90300</v>
+        <v>86300</v>
       </c>
       <c r="H27" s="3">
-        <v>81000</v>
+        <v>77400</v>
       </c>
       <c r="I27" s="3">
-        <v>36900</v>
+        <v>35300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="H32" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>702400</v>
+        <v>671500</v>
       </c>
       <c r="E33" s="3">
-        <v>406400</v>
+        <v>388500</v>
       </c>
       <c r="F33" s="3">
-        <v>211500</v>
+        <v>202100</v>
       </c>
       <c r="G33" s="3">
-        <v>90300</v>
+        <v>86300</v>
       </c>
       <c r="H33" s="3">
-        <v>81000</v>
+        <v>77400</v>
       </c>
       <c r="I33" s="3">
-        <v>36900</v>
+        <v>35300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>702400</v>
+        <v>671500</v>
       </c>
       <c r="E35" s="3">
-        <v>406400</v>
+        <v>388500</v>
       </c>
       <c r="F35" s="3">
-        <v>211500</v>
+        <v>202100</v>
       </c>
       <c r="G35" s="3">
-        <v>90300</v>
+        <v>86300</v>
       </c>
       <c r="H35" s="3">
-        <v>81000</v>
+        <v>77400</v>
       </c>
       <c r="I35" s="3">
-        <v>36900</v>
+        <v>35300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>486400</v>
+        <v>465000</v>
       </c>
       <c r="E41" s="3">
-        <v>382600</v>
+        <v>365700</v>
       </c>
       <c r="F41" s="3">
-        <v>21500</v>
+        <v>20600</v>
       </c>
       <c r="G41" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="H41" s="3">
-        <v>30000</v>
+        <v>28700</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>121800</v>
+        <v>116400</v>
       </c>
       <c r="E43" s="3">
-        <v>124100</v>
+        <v>118600</v>
       </c>
       <c r="F43" s="3">
-        <v>138000</v>
+        <v>132000</v>
       </c>
       <c r="G43" s="3">
-        <v>78800</v>
+        <v>75300</v>
       </c>
       <c r="H43" s="3">
-        <v>33600</v>
+        <v>32200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>779400</v>
+        <v>745100</v>
       </c>
       <c r="E45" s="3">
-        <v>272700</v>
+        <v>260700</v>
       </c>
       <c r="F45" s="3">
-        <v>17600</v>
+        <v>16800</v>
       </c>
       <c r="G45" s="3">
-        <v>18900</v>
+        <v>18100</v>
       </c>
       <c r="H45" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20651500</v>
+        <v>19742900</v>
       </c>
       <c r="E47" s="3">
-        <v>15442000</v>
+        <v>14762600</v>
       </c>
       <c r="F47" s="3">
-        <v>7307800</v>
+        <v>6986300</v>
       </c>
       <c r="G47" s="3">
-        <v>2871200</v>
+        <v>2744900</v>
       </c>
       <c r="H47" s="3">
-        <v>1059600</v>
+        <v>1013000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>117100</v>
+        <v>112000</v>
       </c>
       <c r="E48" s="3">
-        <v>75800</v>
+        <v>72400</v>
       </c>
       <c r="F48" s="3">
-        <v>72400</v>
+        <v>69200</v>
       </c>
       <c r="G48" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="H48" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>160700</v>
+        <v>153600</v>
       </c>
       <c r="E49" s="3">
-        <v>139600</v>
+        <v>133500</v>
       </c>
       <c r="F49" s="3">
-        <v>108300</v>
+        <v>103500</v>
       </c>
       <c r="G49" s="3">
-        <v>98800</v>
+        <v>94500</v>
       </c>
       <c r="H49" s="3">
-        <v>94600</v>
+        <v>90400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>249100</v>
+        <v>238200</v>
       </c>
       <c r="E52" s="3">
-        <v>98800</v>
+        <v>94500</v>
       </c>
       <c r="F52" s="3">
-        <v>55700</v>
+        <v>53200</v>
       </c>
       <c r="G52" s="3">
-        <v>29800</v>
+        <v>28500</v>
       </c>
       <c r="H52" s="3">
-        <v>44300</v>
+        <v>42400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27268900</v>
+        <v>26069200</v>
       </c>
       <c r="E54" s="3">
-        <v>18792900</v>
+        <v>17966100</v>
       </c>
       <c r="F54" s="3">
-        <v>8537000</v>
+        <v>8161400</v>
       </c>
       <c r="G54" s="3">
-        <v>3468600</v>
+        <v>3316000</v>
       </c>
       <c r="H54" s="3">
-        <v>1396500</v>
+        <v>1335100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>169800</v>
+        <v>162300</v>
       </c>
       <c r="E57" s="3">
-        <v>168200</v>
+        <v>160800</v>
       </c>
       <c r="F57" s="3">
-        <v>52200</v>
+        <v>49900</v>
       </c>
       <c r="G57" s="3">
-        <v>26300</v>
+        <v>25200</v>
       </c>
       <c r="H57" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6023000</v>
+        <v>5758000</v>
       </c>
       <c r="E58" s="3">
-        <v>6715600</v>
+        <v>6420100</v>
       </c>
       <c r="F58" s="3">
-        <v>3551600</v>
+        <v>3395300</v>
       </c>
       <c r="G58" s="3">
-        <v>1568500</v>
+        <v>1499500</v>
       </c>
       <c r="H58" s="3">
-        <v>265600</v>
+        <v>253900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>307600</v>
+        <v>294100</v>
       </c>
       <c r="E59" s="3">
-        <v>215900</v>
+        <v>206400</v>
       </c>
       <c r="F59" s="3">
-        <v>164000</v>
+        <v>156800</v>
       </c>
       <c r="G59" s="3">
-        <v>69400</v>
+        <v>66400</v>
       </c>
       <c r="H59" s="3">
-        <v>69700</v>
+        <v>66700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>898000</v>
+        <v>858500</v>
       </c>
       <c r="E61" s="3">
-        <v>115300</v>
+        <v>110200</v>
       </c>
       <c r="F61" s="3">
-        <v>192700</v>
+        <v>184200</v>
       </c>
       <c r="G61" s="3">
-        <v>149100</v>
+        <v>142500</v>
       </c>
       <c r="H61" s="3">
-        <v>144200</v>
+        <v>137800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6258400</v>
+        <v>5983100</v>
       </c>
       <c r="E62" s="3">
-        <v>2625500</v>
+        <v>2510000</v>
       </c>
       <c r="F62" s="3">
-        <v>739600</v>
+        <v>707100</v>
       </c>
       <c r="G62" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="H62" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24447500</v>
+        <v>23371900</v>
       </c>
       <c r="E66" s="3">
-        <v>16660800</v>
+        <v>15927800</v>
       </c>
       <c r="F66" s="3">
-        <v>7137100</v>
+        <v>6823100</v>
       </c>
       <c r="G66" s="3">
-        <v>3060600</v>
+        <v>2926000</v>
       </c>
       <c r="H66" s="3">
-        <v>1172700</v>
+        <v>1121100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2920500</v>
+        <v>2792000</v>
       </c>
       <c r="E72" s="3">
-        <v>2086900</v>
+        <v>1995100</v>
       </c>
       <c r="F72" s="3">
-        <v>1358800</v>
+        <v>1299000</v>
       </c>
       <c r="G72" s="3">
-        <v>185500</v>
+        <v>177300</v>
       </c>
       <c r="H72" s="3">
-        <v>134200</v>
+        <v>128300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2821400</v>
+        <v>2697200</v>
       </c>
       <c r="E76" s="3">
-        <v>2132100</v>
+        <v>2038300</v>
       </c>
       <c r="F76" s="3">
-        <v>1399900</v>
+        <v>1338300</v>
       </c>
       <c r="G76" s="3">
-        <v>408000</v>
+        <v>390000</v>
       </c>
       <c r="H76" s="3">
-        <v>223800</v>
+        <v>214000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>702400</v>
+        <v>671500</v>
       </c>
       <c r="E81" s="3">
-        <v>406400</v>
+        <v>388500</v>
       </c>
       <c r="F81" s="3">
-        <v>211500</v>
+        <v>202100</v>
       </c>
       <c r="G81" s="3">
-        <v>90300</v>
+        <v>86300</v>
       </c>
       <c r="H81" s="3">
-        <v>81000</v>
+        <v>77400</v>
       </c>
       <c r="I81" s="3">
-        <v>36900</v>
+        <v>35300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>45300</v>
+        <v>43400</v>
       </c>
       <c r="E83" s="3">
-        <v>28000</v>
+        <v>26800</v>
       </c>
       <c r="F83" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="G83" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="H83" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="I83" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-786800</v>
+        <v>-752200</v>
       </c>
       <c r="E89" s="3">
-        <v>295600</v>
+        <v>282600</v>
       </c>
       <c r="F89" s="3">
-        <v>-746400</v>
+        <v>-713600</v>
       </c>
       <c r="G89" s="3">
-        <v>-89400</v>
+        <v>-85500</v>
       </c>
       <c r="H89" s="3">
-        <v>51300</v>
+        <v>49100</v>
       </c>
       <c r="I89" s="3">
         <v>900</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26500</v>
+        <v>-25300</v>
       </c>
       <c r="E91" s="3">
-        <v>-28400</v>
+        <v>-27200</v>
       </c>
       <c r="F91" s="3">
-        <v>-14200</v>
+        <v>-13600</v>
       </c>
       <c r="G91" s="3">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="H91" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-225200</v>
+        <v>-215300</v>
       </c>
       <c r="E94" s="3">
-        <v>-113900</v>
+        <v>-108900</v>
       </c>
       <c r="F94" s="3">
-        <v>-31600</v>
+        <v>-30200</v>
       </c>
       <c r="G94" s="3">
-        <v>-28800</v>
+        <v>-27500</v>
       </c>
       <c r="H94" s="3">
-        <v>-89200</v>
+        <v>-85200</v>
       </c>
       <c r="I94" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3538,16 +3538,16 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-97900</v>
+        <v>-93500</v>
       </c>
       <c r="G96" s="3">
-        <v>-63600</v>
+        <v>-60800</v>
       </c>
       <c r="H96" s="3">
-        <v>-37200</v>
+        <v>-35500</v>
       </c>
       <c r="I96" s="3">
-        <v>-34100</v>
+        <v>-32600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1299300</v>
+        <v>1242100</v>
       </c>
       <c r="E100" s="3">
-        <v>154400</v>
+        <v>147600</v>
       </c>
       <c r="F100" s="3">
-        <v>828600</v>
+        <v>792100</v>
       </c>
       <c r="G100" s="3">
-        <v>74400</v>
+        <v>71100</v>
       </c>
       <c r="H100" s="3">
-        <v>114400</v>
+        <v>109400</v>
       </c>
       <c r="I100" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-73700</v>
+        <v>-70500</v>
       </c>
       <c r="E101" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
       </c>
       <c r="G101" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="H101" s="3">
         <v>800</v>
       </c>
       <c r="I101" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>213600</v>
+        <v>204200</v>
       </c>
       <c r="E102" s="3">
-        <v>346900</v>
+        <v>331600</v>
       </c>
       <c r="F102" s="3">
-        <v>51100</v>
+        <v>48800</v>
       </c>
       <c r="G102" s="3">
-        <v>-40800</v>
+        <v>-39000</v>
       </c>
       <c r="H102" s="3">
-        <v>77400</v>
+        <v>74000</v>
       </c>
       <c r="I102" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>XP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,32 +714,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2259500</v>
+        <v>2584400</v>
       </c>
       <c r="E8" s="3">
-        <v>1525100</v>
+        <v>2338500</v>
       </c>
       <c r="F8" s="3">
-        <v>959400</v>
+        <v>1578400</v>
       </c>
       <c r="G8" s="3">
-        <v>553500</v>
+        <v>992900</v>
       </c>
       <c r="H8" s="3">
-        <v>356700</v>
+        <v>572800</v>
       </c>
       <c r="I8" s="3">
-        <v>234200</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>369200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>242400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -750,9 +753,12 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,9 +792,12 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,20 +926,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
-        <v>9700</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>10100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -940,38 +959,41 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>43400</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>26800</v>
+        <v>44900</v>
       </c>
       <c r="F15" s="3">
-        <v>17100</v>
+        <v>27700</v>
       </c>
       <c r="G15" s="3">
-        <v>9900</v>
+        <v>17700</v>
       </c>
       <c r="H15" s="3">
-        <v>5100</v>
+        <v>10200</v>
       </c>
       <c r="I15" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>5300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,31 +1021,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1518900</v>
+        <v>1837200</v>
       </c>
       <c r="E17" s="3">
-        <v>1062400</v>
+        <v>1572000</v>
       </c>
       <c r="F17" s="3">
-        <v>654700</v>
+        <v>1099500</v>
       </c>
       <c r="G17" s="3">
-        <v>420100</v>
+        <v>677600</v>
       </c>
       <c r="H17" s="3">
-        <v>237600</v>
+        <v>434800</v>
       </c>
       <c r="I17" s="3">
-        <v>164200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>245900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>170000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,32 +1057,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>740600</v>
+        <v>747200</v>
       </c>
       <c r="E18" s="3">
-        <v>462700</v>
+        <v>766500</v>
       </c>
       <c r="F18" s="3">
-        <v>304700</v>
+        <v>478900</v>
       </c>
       <c r="G18" s="3">
-        <v>133400</v>
+        <v>315300</v>
       </c>
       <c r="H18" s="3">
-        <v>119100</v>
+        <v>138100</v>
       </c>
       <c r="I18" s="3">
-        <v>70000</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>123300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>72400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,31 +1116,32 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1400</v>
+        <v>-2300</v>
       </c>
       <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-13500</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-11400</v>
+        <v>-14000</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-11800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1119,32 +1152,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>783900</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>490500</v>
+        <v>810100</v>
       </c>
       <c r="F21" s="3">
-        <v>322200</v>
+        <v>506900</v>
       </c>
       <c r="G21" s="3">
-        <v>130100</v>
+        <v>333000</v>
       </c>
       <c r="H21" s="3">
-        <v>113000</v>
+        <v>134300</v>
       </c>
       <c r="I21" s="3">
-        <v>74400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>116800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>76900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1155,23 +1191,26 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25400</v>
+        <v>77800</v>
       </c>
       <c r="E22" s="3">
-        <v>9900</v>
+        <v>26300</v>
       </c>
       <c r="F22" s="3">
-        <v>15800</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>10200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>16300</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1188,35 +1227,38 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>713800</v>
+        <v>667100</v>
       </c>
       <c r="E23" s="3">
-        <v>453000</v>
+        <v>738700</v>
       </c>
       <c r="F23" s="3">
-        <v>288900</v>
+        <v>468900</v>
       </c>
       <c r="G23" s="3">
-        <v>119900</v>
+        <v>299000</v>
       </c>
       <c r="H23" s="3">
-        <v>107700</v>
+        <v>124100</v>
       </c>
       <c r="I23" s="3">
-        <v>70000</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>111400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>72400</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,32 +1269,35 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41700</v>
+        <v>-26300</v>
       </c>
       <c r="E24" s="3">
-        <v>63600</v>
+        <v>43100</v>
       </c>
       <c r="F24" s="3">
-        <v>85100</v>
+        <v>65800</v>
       </c>
       <c r="G24" s="3">
-        <v>32800</v>
+        <v>88000</v>
       </c>
       <c r="H24" s="3">
-        <v>28400</v>
+        <v>34000</v>
       </c>
       <c r="I24" s="3">
-        <v>24300</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>29400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>25200</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,32 +1347,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>672100</v>
+        <v>693400</v>
       </c>
       <c r="E26" s="3">
-        <v>389400</v>
+        <v>695600</v>
       </c>
       <c r="F26" s="3">
-        <v>203800</v>
+        <v>403000</v>
       </c>
       <c r="G26" s="3">
-        <v>87100</v>
+        <v>211000</v>
       </c>
       <c r="H26" s="3">
-        <v>79200</v>
+        <v>90100</v>
       </c>
       <c r="I26" s="3">
-        <v>45600</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>82000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>47200</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,32 +1386,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>671500</v>
+        <v>693200</v>
       </c>
       <c r="E27" s="3">
-        <v>388500</v>
+        <v>695000</v>
       </c>
       <c r="F27" s="3">
-        <v>202100</v>
+        <v>402100</v>
       </c>
       <c r="G27" s="3">
-        <v>86300</v>
+        <v>209200</v>
       </c>
       <c r="H27" s="3">
-        <v>77400</v>
+        <v>89300</v>
       </c>
       <c r="I27" s="3">
-        <v>35300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>80100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>36500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,32 +1581,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>11400</v>
+        <v>14000</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1551,32 +1620,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>671500</v>
+        <v>693200</v>
       </c>
       <c r="E33" s="3">
-        <v>388500</v>
+        <v>695000</v>
       </c>
       <c r="F33" s="3">
-        <v>202100</v>
+        <v>402100</v>
       </c>
       <c r="G33" s="3">
-        <v>86300</v>
+        <v>209200</v>
       </c>
       <c r="H33" s="3">
-        <v>77400</v>
+        <v>89300</v>
       </c>
       <c r="I33" s="3">
-        <v>35300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>80100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>36500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1698,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>671500</v>
+        <v>693200</v>
       </c>
       <c r="E35" s="3">
-        <v>388500</v>
+        <v>695000</v>
       </c>
       <c r="F35" s="3">
-        <v>202100</v>
+        <v>402100</v>
       </c>
       <c r="G35" s="3">
-        <v>86300</v>
+        <v>209200</v>
       </c>
       <c r="H35" s="3">
-        <v>77400</v>
+        <v>89300</v>
       </c>
       <c r="I35" s="3">
-        <v>35300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>80100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>36500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,28 +1818,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>465000</v>
+        <v>688000</v>
       </c>
       <c r="E41" s="3">
-        <v>365700</v>
+        <v>481300</v>
       </c>
       <c r="F41" s="3">
-        <v>20600</v>
+        <v>378500</v>
       </c>
       <c r="G41" s="3">
-        <v>12800</v>
+        <v>21300</v>
       </c>
       <c r="H41" s="3">
-        <v>28700</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>13200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>29700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1768,9 +1854,12 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,29 +1893,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>116400</v>
+        <v>147400</v>
       </c>
       <c r="E43" s="3">
-        <v>118600</v>
+        <v>120500</v>
       </c>
       <c r="F43" s="3">
-        <v>132000</v>
+        <v>122800</v>
       </c>
       <c r="G43" s="3">
-        <v>75300</v>
+        <v>136600</v>
       </c>
       <c r="H43" s="3">
-        <v>32200</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>77900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>33300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,29 +1971,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>745100</v>
+        <v>821000</v>
       </c>
       <c r="E45" s="3">
-        <v>260700</v>
+        <v>771200</v>
       </c>
       <c r="F45" s="3">
-        <v>16800</v>
+        <v>269800</v>
       </c>
       <c r="G45" s="3">
-        <v>18100</v>
+        <v>17400</v>
       </c>
       <c r="H45" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>18700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>12700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1912,9 +2010,12 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1948,29 +2049,32 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19742900</v>
+        <v>28643300</v>
       </c>
       <c r="E47" s="3">
-        <v>14762600</v>
+        <v>20433000</v>
       </c>
       <c r="F47" s="3">
-        <v>6986300</v>
+        <v>15278700</v>
       </c>
       <c r="G47" s="3">
-        <v>2744900</v>
+        <v>7230500</v>
       </c>
       <c r="H47" s="3">
-        <v>1013000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>2840800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1048400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1984,29 +2088,32 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>112000</v>
+        <v>110200</v>
       </c>
       <c r="E48" s="3">
-        <v>72400</v>
+        <v>115900</v>
       </c>
       <c r="F48" s="3">
-        <v>69200</v>
+        <v>75000</v>
       </c>
       <c r="G48" s="3">
-        <v>18500</v>
+        <v>71600</v>
       </c>
       <c r="H48" s="3">
-        <v>8800</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>19200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>9100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2020,29 +2127,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>153600</v>
+        <v>163400</v>
       </c>
       <c r="E49" s="3">
-        <v>133500</v>
+        <v>159000</v>
       </c>
       <c r="F49" s="3">
-        <v>103500</v>
+        <v>138200</v>
       </c>
       <c r="G49" s="3">
-        <v>94500</v>
+        <v>107200</v>
       </c>
       <c r="H49" s="3">
-        <v>90400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>97800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>93600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,29 +2244,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>238200</v>
+        <v>312100</v>
       </c>
       <c r="E52" s="3">
-        <v>94500</v>
+        <v>246500</v>
       </c>
       <c r="F52" s="3">
-        <v>53200</v>
+        <v>97800</v>
       </c>
       <c r="G52" s="3">
-        <v>28500</v>
+        <v>55100</v>
       </c>
       <c r="H52" s="3">
-        <v>42400</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>29500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>43900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,29 +2322,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26069200</v>
+        <v>37183700</v>
       </c>
       <c r="E54" s="3">
-        <v>17966100</v>
+        <v>26980500</v>
       </c>
       <c r="F54" s="3">
-        <v>8161400</v>
+        <v>18594100</v>
       </c>
       <c r="G54" s="3">
-        <v>3316000</v>
+        <v>8446700</v>
       </c>
       <c r="H54" s="3">
-        <v>1335100</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>3431900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1381800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,28 +2398,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>162300</v>
+        <v>119500</v>
       </c>
       <c r="E57" s="3">
-        <v>160800</v>
+        <v>168000</v>
       </c>
       <c r="F57" s="3">
-        <v>49900</v>
+        <v>166400</v>
       </c>
       <c r="G57" s="3">
-        <v>25200</v>
+        <v>51700</v>
       </c>
       <c r="H57" s="3">
-        <v>13400</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>26100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>13900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2304,29 +2434,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5758000</v>
+        <v>8775100</v>
       </c>
       <c r="E58" s="3">
-        <v>6420100</v>
+        <v>5959300</v>
       </c>
       <c r="F58" s="3">
-        <v>3395300</v>
+        <v>6644500</v>
       </c>
       <c r="G58" s="3">
-        <v>1499500</v>
+        <v>3514000</v>
       </c>
       <c r="H58" s="3">
-        <v>253900</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>1551900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>262800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2340,29 +2473,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>294100</v>
+        <v>258100</v>
       </c>
       <c r="E59" s="3">
-        <v>206400</v>
+        <v>304400</v>
       </c>
       <c r="F59" s="3">
-        <v>156800</v>
+        <v>213600</v>
       </c>
       <c r="G59" s="3">
-        <v>66400</v>
+        <v>162300</v>
       </c>
       <c r="H59" s="3">
-        <v>66700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>68700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>69000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2376,9 +2512,12 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2412,29 +2551,32 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>858500</v>
+        <v>361300</v>
       </c>
       <c r="E61" s="3">
-        <v>110200</v>
+        <v>888500</v>
       </c>
       <c r="F61" s="3">
-        <v>184200</v>
+        <v>114100</v>
       </c>
       <c r="G61" s="3">
-        <v>142500</v>
+        <v>190700</v>
       </c>
       <c r="H61" s="3">
-        <v>137800</v>
+        <v>147500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>142600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2448,29 +2590,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5983100</v>
+        <v>8885500</v>
       </c>
       <c r="E62" s="3">
-        <v>2510000</v>
+        <v>6192200</v>
       </c>
       <c r="F62" s="3">
-        <v>707100</v>
+        <v>2597700</v>
       </c>
       <c r="G62" s="3">
-        <v>5500</v>
+        <v>731800</v>
       </c>
       <c r="H62" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>5700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3600</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,29 +2746,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23371900</v>
+        <v>33885100</v>
       </c>
       <c r="E66" s="3">
-        <v>15927800</v>
+        <v>24189000</v>
       </c>
       <c r="F66" s="3">
-        <v>6823100</v>
+        <v>16484600</v>
       </c>
       <c r="G66" s="3">
-        <v>2926000</v>
+        <v>7061600</v>
       </c>
       <c r="H66" s="3">
-        <v>1121100</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>3028300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1160300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,29 +2958,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2792000</v>
+        <v>3709200</v>
       </c>
       <c r="E72" s="3">
-        <v>1995100</v>
+        <v>2889600</v>
       </c>
       <c r="F72" s="3">
-        <v>1299000</v>
+        <v>2064900</v>
       </c>
       <c r="G72" s="3">
-        <v>177300</v>
+        <v>1344500</v>
       </c>
       <c r="H72" s="3">
-        <v>128300</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>183500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>132800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,29 +3114,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2697200</v>
+        <v>3298700</v>
       </c>
       <c r="E76" s="3">
-        <v>2038300</v>
+        <v>2791500</v>
       </c>
       <c r="F76" s="3">
-        <v>1338300</v>
+        <v>2109500</v>
       </c>
       <c r="G76" s="3">
-        <v>390000</v>
+        <v>1385100</v>
       </c>
       <c r="H76" s="3">
-        <v>214000</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>403700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>221500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,32 +3236,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>671500</v>
+        <v>693200</v>
       </c>
       <c r="E81" s="3">
-        <v>388500</v>
+        <v>695000</v>
       </c>
       <c r="F81" s="3">
-        <v>202100</v>
+        <v>402100</v>
       </c>
       <c r="G81" s="3">
-        <v>86300</v>
+        <v>209200</v>
       </c>
       <c r="H81" s="3">
-        <v>77400</v>
+        <v>89300</v>
       </c>
       <c r="I81" s="3">
-        <v>35300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>80100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>36500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,31 +3295,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>43400</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>26800</v>
+        <v>44900</v>
       </c>
       <c r="F83" s="3">
-        <v>17000</v>
+        <v>27700</v>
       </c>
       <c r="G83" s="3">
-        <v>9900</v>
+        <v>17600</v>
       </c>
       <c r="H83" s="3">
-        <v>5100</v>
+        <v>10200</v>
       </c>
       <c r="I83" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>5300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,33 +3526,36 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-752200</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>282600</v>
+        <v>-778500</v>
       </c>
       <c r="F89" s="3">
-        <v>-713600</v>
+        <v>292500</v>
       </c>
       <c r="G89" s="3">
-        <v>-85500</v>
+        <v>-738500</v>
       </c>
       <c r="H89" s="3">
-        <v>49100</v>
+        <v>-88400</v>
       </c>
       <c r="I89" s="3">
+        <v>50800</v>
+      </c>
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,31 +3585,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-25300</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-27200</v>
+        <v>-26200</v>
       </c>
       <c r="F91" s="3">
-        <v>-13600</v>
+        <v>-28100</v>
       </c>
       <c r="G91" s="3">
-        <v>-10000</v>
+        <v>-14000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3900</v>
+        <v>-10400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-4000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,32 +3699,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-215300</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-108900</v>
+        <v>-222800</v>
       </c>
       <c r="F94" s="3">
-        <v>-30200</v>
+        <v>-112700</v>
       </c>
       <c r="G94" s="3">
-        <v>-27500</v>
+        <v>-31300</v>
       </c>
       <c r="H94" s="3">
-        <v>-85200</v>
+        <v>-28500</v>
       </c>
       <c r="I94" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-88200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3538,19 +3771,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-93500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-60800</v>
+        <v>-96800</v>
       </c>
       <c r="H96" s="3">
-        <v>-35500</v>
+        <v>-62900</v>
       </c>
       <c r="I96" s="3">
-        <v>-32600</v>
+        <v>-36800</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-33800</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,32 +3911,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>1242100</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>147600</v>
+        <v>1285600</v>
       </c>
       <c r="F100" s="3">
-        <v>792100</v>
+        <v>152700</v>
       </c>
       <c r="G100" s="3">
-        <v>71100</v>
+        <v>819800</v>
       </c>
       <c r="H100" s="3">
-        <v>109400</v>
+        <v>73600</v>
       </c>
       <c r="I100" s="3">
-        <v>15400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>113200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>15900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3705,32 +3950,35 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-70500</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>10300</v>
+        <v>-72900</v>
       </c>
       <c r="F101" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
-        <v>2800</v>
-      </c>
       <c r="H101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>-1400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3741,32 +3989,35 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>204200</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>331600</v>
+        <v>211300</v>
       </c>
       <c r="F102" s="3">
-        <v>48800</v>
+        <v>343200</v>
       </c>
       <c r="G102" s="3">
-        <v>-39000</v>
+        <v>50500</v>
       </c>
       <c r="H102" s="3">
-        <v>74000</v>
+        <v>-40400</v>
       </c>
       <c r="I102" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>76600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>9300</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>XP</t>
   </si>
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2584400</v>
+        <v>2688200</v>
       </c>
       <c r="E8" s="3">
-        <v>2338500</v>
+        <v>2432300</v>
       </c>
       <c r="F8" s="3">
-        <v>1578400</v>
+        <v>1641700</v>
       </c>
       <c r="G8" s="3">
-        <v>992900</v>
+        <v>1032700</v>
       </c>
       <c r="H8" s="3">
-        <v>572800</v>
+        <v>595800</v>
       </c>
       <c r="I8" s="3">
-        <v>369200</v>
+        <v>384000</v>
       </c>
       <c r="J8" s="3">
-        <v>242400</v>
+        <v>252100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -935,14 +935,14 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>1400</v>
       </c>
       <c r="E14" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F14" s="3">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -974,26 +974,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>41500</v>
       </c>
       <c r="E15" s="3">
-        <v>44900</v>
+        <v>46700</v>
       </c>
       <c r="F15" s="3">
-        <v>27700</v>
+        <v>28900</v>
       </c>
       <c r="G15" s="3">
-        <v>17700</v>
+        <v>18400</v>
       </c>
       <c r="H15" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="I15" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="J15" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1837200</v>
+        <v>1910900</v>
       </c>
       <c r="E17" s="3">
-        <v>1572000</v>
+        <v>1635100</v>
       </c>
       <c r="F17" s="3">
-        <v>1099500</v>
+        <v>1143600</v>
       </c>
       <c r="G17" s="3">
-        <v>677600</v>
+        <v>704800</v>
       </c>
       <c r="H17" s="3">
-        <v>434800</v>
+        <v>452200</v>
       </c>
       <c r="I17" s="3">
-        <v>245900</v>
+        <v>255800</v>
       </c>
       <c r="J17" s="3">
-        <v>170000</v>
+        <v>176800</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>747200</v>
+        <v>777200</v>
       </c>
       <c r="E18" s="3">
-        <v>766500</v>
+        <v>797300</v>
       </c>
       <c r="F18" s="3">
-        <v>478900</v>
+        <v>498100</v>
       </c>
       <c r="G18" s="3">
-        <v>315300</v>
+        <v>328000</v>
       </c>
       <c r="H18" s="3">
-        <v>138100</v>
+        <v>143600</v>
       </c>
       <c r="I18" s="3">
-        <v>123300</v>
+        <v>128200</v>
       </c>
       <c r="J18" s="3">
-        <v>72400</v>
+        <v>75300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2300</v>
+        <v>-2500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-14000</v>
+        <v>-14600</v>
       </c>
       <c r="I20" s="3">
-        <v>-11800</v>
+        <v>-12300</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1161,26 +1161,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>816500</v>
       </c>
       <c r="E21" s="3">
-        <v>810100</v>
+        <v>842600</v>
       </c>
       <c r="F21" s="3">
-        <v>506900</v>
+        <v>527300</v>
       </c>
       <c r="G21" s="3">
-        <v>333000</v>
+        <v>346300</v>
       </c>
       <c r="H21" s="3">
-        <v>134300</v>
+        <v>139700</v>
       </c>
       <c r="I21" s="3">
-        <v>116800</v>
+        <v>121500</v>
       </c>
       <c r="J21" s="3">
-        <v>76900</v>
+        <v>80000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1201,16 +1201,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>77800</v>
+        <v>81000</v>
       </c>
       <c r="E22" s="3">
-        <v>26300</v>
+        <v>27300</v>
       </c>
       <c r="F22" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="G22" s="3">
-        <v>16300</v>
+        <v>17000</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>667100</v>
+        <v>693800</v>
       </c>
       <c r="E23" s="3">
-        <v>738700</v>
+        <v>768400</v>
       </c>
       <c r="F23" s="3">
-        <v>468900</v>
+        <v>487700</v>
       </c>
       <c r="G23" s="3">
-        <v>299000</v>
+        <v>311000</v>
       </c>
       <c r="H23" s="3">
-        <v>124100</v>
+        <v>129000</v>
       </c>
       <c r="I23" s="3">
-        <v>111400</v>
+        <v>115900</v>
       </c>
       <c r="J23" s="3">
-        <v>72400</v>
+        <v>75300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-26300</v>
+        <v>-27300</v>
       </c>
       <c r="E24" s="3">
-        <v>43100</v>
+        <v>44900</v>
       </c>
       <c r="F24" s="3">
-        <v>65800</v>
+        <v>68500</v>
       </c>
       <c r="G24" s="3">
-        <v>88000</v>
+        <v>91600</v>
       </c>
       <c r="H24" s="3">
-        <v>34000</v>
+        <v>35300</v>
       </c>
       <c r="I24" s="3">
-        <v>29400</v>
+        <v>30600</v>
       </c>
       <c r="J24" s="3">
-        <v>25200</v>
+        <v>26200</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>693400</v>
+        <v>721100</v>
       </c>
       <c r="E26" s="3">
-        <v>695600</v>
+        <v>723500</v>
       </c>
       <c r="F26" s="3">
-        <v>403000</v>
+        <v>419200</v>
       </c>
       <c r="G26" s="3">
-        <v>211000</v>
+        <v>219400</v>
       </c>
       <c r="H26" s="3">
-        <v>90100</v>
+        <v>93700</v>
       </c>
       <c r="I26" s="3">
-        <v>82000</v>
+        <v>85300</v>
       </c>
       <c r="J26" s="3">
-        <v>47200</v>
+        <v>49100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>693200</v>
+        <v>720800</v>
       </c>
       <c r="E27" s="3">
-        <v>695000</v>
+        <v>722900</v>
       </c>
       <c r="F27" s="3">
-        <v>402100</v>
+        <v>418200</v>
       </c>
       <c r="G27" s="3">
-        <v>209200</v>
+        <v>217600</v>
       </c>
       <c r="H27" s="3">
-        <v>89300</v>
+        <v>92900</v>
       </c>
       <c r="I27" s="3">
-        <v>80100</v>
+        <v>83400</v>
       </c>
       <c r="J27" s="3">
-        <v>36500</v>
+        <v>38000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,10 +1591,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="E32" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="I32" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>693200</v>
+        <v>720800</v>
       </c>
       <c r="E33" s="3">
-        <v>695000</v>
+        <v>722900</v>
       </c>
       <c r="F33" s="3">
-        <v>402100</v>
+        <v>418200</v>
       </c>
       <c r="G33" s="3">
-        <v>209200</v>
+        <v>217600</v>
       </c>
       <c r="H33" s="3">
-        <v>89300</v>
+        <v>92900</v>
       </c>
       <c r="I33" s="3">
-        <v>80100</v>
+        <v>83400</v>
       </c>
       <c r="J33" s="3">
-        <v>36500</v>
+        <v>38000</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>693200</v>
+        <v>720800</v>
       </c>
       <c r="E35" s="3">
-        <v>695000</v>
+        <v>722900</v>
       </c>
       <c r="F35" s="3">
-        <v>402100</v>
+        <v>418200</v>
       </c>
       <c r="G35" s="3">
-        <v>209200</v>
+        <v>217600</v>
       </c>
       <c r="H35" s="3">
-        <v>89300</v>
+        <v>92900</v>
       </c>
       <c r="I35" s="3">
-        <v>80100</v>
+        <v>83400</v>
       </c>
       <c r="J35" s="3">
-        <v>36500</v>
+        <v>38000</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>688000</v>
+        <v>715600</v>
       </c>
       <c r="E41" s="3">
-        <v>481300</v>
+        <v>500600</v>
       </c>
       <c r="F41" s="3">
-        <v>378500</v>
+        <v>393700</v>
       </c>
       <c r="G41" s="3">
-        <v>21300</v>
+        <v>22100</v>
       </c>
       <c r="H41" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="I41" s="3">
-        <v>29700</v>
+        <v>30900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>147400</v>
+        <v>153300</v>
       </c>
       <c r="E43" s="3">
-        <v>120500</v>
+        <v>125400</v>
       </c>
       <c r="F43" s="3">
-        <v>122800</v>
+        <v>127700</v>
       </c>
       <c r="G43" s="3">
-        <v>136600</v>
+        <v>142100</v>
       </c>
       <c r="H43" s="3">
-        <v>77900</v>
+        <v>81100</v>
       </c>
       <c r="I43" s="3">
-        <v>33300</v>
+        <v>34600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>821000</v>
+        <v>854000</v>
       </c>
       <c r="E45" s="3">
-        <v>771200</v>
+        <v>802100</v>
       </c>
       <c r="F45" s="3">
-        <v>269800</v>
+        <v>280700</v>
       </c>
       <c r="G45" s="3">
-        <v>17400</v>
+        <v>18100</v>
       </c>
       <c r="H45" s="3">
-        <v>18700</v>
+        <v>19500</v>
       </c>
       <c r="I45" s="3">
-        <v>12700</v>
+        <v>13200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2059,22 +2059,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28643300</v>
+        <v>29792600</v>
       </c>
       <c r="E47" s="3">
-        <v>20433000</v>
+        <v>21253000</v>
       </c>
       <c r="F47" s="3">
-        <v>15278700</v>
+        <v>15891800</v>
       </c>
       <c r="G47" s="3">
-        <v>7230500</v>
+        <v>7520600</v>
       </c>
       <c r="H47" s="3">
-        <v>2840800</v>
+        <v>2954800</v>
       </c>
       <c r="I47" s="3">
-        <v>1048400</v>
+        <v>1090400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>110200</v>
+        <v>114700</v>
       </c>
       <c r="E48" s="3">
-        <v>115900</v>
+        <v>120500</v>
       </c>
       <c r="F48" s="3">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="G48" s="3">
-        <v>71600</v>
+        <v>74500</v>
       </c>
       <c r="H48" s="3">
-        <v>19200</v>
+        <v>20000</v>
       </c>
       <c r="I48" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2137,22 +2137,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>163400</v>
+        <v>170000</v>
       </c>
       <c r="E49" s="3">
-        <v>159000</v>
+        <v>165300</v>
       </c>
       <c r="F49" s="3">
-        <v>138200</v>
+        <v>143700</v>
       </c>
       <c r="G49" s="3">
-        <v>107200</v>
+        <v>111500</v>
       </c>
       <c r="H49" s="3">
-        <v>97800</v>
+        <v>101700</v>
       </c>
       <c r="I49" s="3">
-        <v>93600</v>
+        <v>97300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>312100</v>
+        <v>324600</v>
       </c>
       <c r="E52" s="3">
-        <v>246500</v>
+        <v>256400</v>
       </c>
       <c r="F52" s="3">
-        <v>97800</v>
+        <v>101700</v>
       </c>
       <c r="G52" s="3">
-        <v>55100</v>
+        <v>57300</v>
       </c>
       <c r="H52" s="3">
-        <v>29500</v>
+        <v>30700</v>
       </c>
       <c r="I52" s="3">
-        <v>43900</v>
+        <v>45600</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37183700</v>
+        <v>38675800</v>
       </c>
       <c r="E54" s="3">
-        <v>26980500</v>
+        <v>28063200</v>
       </c>
       <c r="F54" s="3">
-        <v>18594100</v>
+        <v>19340300</v>
       </c>
       <c r="G54" s="3">
-        <v>8446700</v>
+        <v>8785600</v>
       </c>
       <c r="H54" s="3">
-        <v>3431900</v>
+        <v>3569700</v>
       </c>
       <c r="I54" s="3">
-        <v>1381800</v>
+        <v>1437200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>119500</v>
+        <v>124300</v>
       </c>
       <c r="E57" s="3">
-        <v>168000</v>
+        <v>174700</v>
       </c>
       <c r="F57" s="3">
-        <v>166400</v>
+        <v>173100</v>
       </c>
       <c r="G57" s="3">
-        <v>51700</v>
+        <v>53700</v>
       </c>
       <c r="H57" s="3">
-        <v>26100</v>
+        <v>27100</v>
       </c>
       <c r="I57" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8775100</v>
+        <v>9925700</v>
       </c>
       <c r="E58" s="3">
-        <v>5959300</v>
+        <v>6198400</v>
       </c>
       <c r="F58" s="3">
-        <v>6644500</v>
+        <v>6911100</v>
       </c>
       <c r="G58" s="3">
-        <v>3514000</v>
+        <v>3655000</v>
       </c>
       <c r="H58" s="3">
-        <v>1551900</v>
+        <v>1614200</v>
       </c>
       <c r="I58" s="3">
-        <v>262800</v>
+        <v>273300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>258100</v>
+        <v>268600</v>
       </c>
       <c r="E59" s="3">
-        <v>304400</v>
+        <v>316600</v>
       </c>
       <c r="F59" s="3">
-        <v>213600</v>
+        <v>222200</v>
       </c>
       <c r="G59" s="3">
-        <v>162300</v>
+        <v>168800</v>
       </c>
       <c r="H59" s="3">
-        <v>68700</v>
+        <v>71500</v>
       </c>
       <c r="I59" s="3">
-        <v>69000</v>
+        <v>71800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2561,22 +2561,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>361300</v>
+        <v>760700</v>
       </c>
       <c r="E61" s="3">
-        <v>888500</v>
+        <v>924200</v>
       </c>
       <c r="F61" s="3">
-        <v>114100</v>
+        <v>118600</v>
       </c>
       <c r="G61" s="3">
-        <v>190700</v>
+        <v>198300</v>
       </c>
       <c r="H61" s="3">
-        <v>147500</v>
+        <v>153400</v>
       </c>
       <c r="I61" s="3">
-        <v>142600</v>
+        <v>148400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8885500</v>
+        <v>9241900</v>
       </c>
       <c r="E62" s="3">
-        <v>6192200</v>
+        <v>6440700</v>
       </c>
       <c r="F62" s="3">
-        <v>2597700</v>
+        <v>2702000</v>
       </c>
       <c r="G62" s="3">
-        <v>731800</v>
+        <v>761200</v>
       </c>
       <c r="H62" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="I62" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33885100</v>
+        <v>35244800</v>
       </c>
       <c r="E66" s="3">
-        <v>24189000</v>
+        <v>25159600</v>
       </c>
       <c r="F66" s="3">
-        <v>16484600</v>
+        <v>17146100</v>
       </c>
       <c r="G66" s="3">
-        <v>7061600</v>
+        <v>7344900</v>
       </c>
       <c r="H66" s="3">
-        <v>3028300</v>
+        <v>3149800</v>
       </c>
       <c r="I66" s="3">
-        <v>1160300</v>
+        <v>1206800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3709200</v>
+        <v>3858100</v>
       </c>
       <c r="E72" s="3">
-        <v>2889600</v>
+        <v>3005600</v>
       </c>
       <c r="F72" s="3">
-        <v>2064900</v>
+        <v>2147700</v>
       </c>
       <c r="G72" s="3">
-        <v>1344500</v>
+        <v>1398400</v>
       </c>
       <c r="H72" s="3">
-        <v>183500</v>
+        <v>190900</v>
       </c>
       <c r="I72" s="3">
-        <v>132800</v>
+        <v>138100</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3298700</v>
+        <v>3431000</v>
       </c>
       <c r="E76" s="3">
-        <v>2791500</v>
+        <v>2903600</v>
       </c>
       <c r="F76" s="3">
-        <v>2109500</v>
+        <v>2194200</v>
       </c>
       <c r="G76" s="3">
-        <v>1385100</v>
+        <v>1440700</v>
       </c>
       <c r="H76" s="3">
-        <v>403700</v>
+        <v>419900</v>
       </c>
       <c r="I76" s="3">
-        <v>221500</v>
+        <v>230400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>693200</v>
+        <v>720800</v>
       </c>
       <c r="E81" s="3">
-        <v>695000</v>
+        <v>722900</v>
       </c>
       <c r="F81" s="3">
-        <v>402100</v>
+        <v>418200</v>
       </c>
       <c r="G81" s="3">
-        <v>209200</v>
+        <v>217600</v>
       </c>
       <c r="H81" s="3">
-        <v>89300</v>
+        <v>92900</v>
       </c>
       <c r="I81" s="3">
-        <v>80100</v>
+        <v>83400</v>
       </c>
       <c r="J81" s="3">
-        <v>36500</v>
+        <v>38000</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3301,26 +3301,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>41500</v>
       </c>
       <c r="E83" s="3">
-        <v>44900</v>
+        <v>46700</v>
       </c>
       <c r="F83" s="3">
-        <v>27700</v>
+        <v>28900</v>
       </c>
       <c r="G83" s="3">
-        <v>17600</v>
+        <v>18300</v>
       </c>
       <c r="H83" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="I83" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="J83" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3535,26 +3535,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>363300</v>
       </c>
       <c r="E89" s="3">
-        <v>-778500</v>
+        <v>-809700</v>
       </c>
       <c r="F89" s="3">
-        <v>292500</v>
+        <v>304300</v>
       </c>
       <c r="G89" s="3">
-        <v>-738500</v>
+        <v>-768100</v>
       </c>
       <c r="H89" s="3">
-        <v>-88400</v>
+        <v>-92000</v>
       </c>
       <c r="I89" s="3">
-        <v>50800</v>
+        <v>52800</v>
       </c>
       <c r="J89" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3591,26 +3591,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-9000</v>
       </c>
       <c r="E91" s="3">
-        <v>-26200</v>
+        <v>-27300</v>
       </c>
       <c r="F91" s="3">
-        <v>-28100</v>
+        <v>-29200</v>
       </c>
       <c r="G91" s="3">
-        <v>-14000</v>
+        <v>-14600</v>
       </c>
       <c r="H91" s="3">
-        <v>-10400</v>
+        <v>-10800</v>
       </c>
       <c r="I91" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3708,26 +3708,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-74800</v>
       </c>
       <c r="E94" s="3">
-        <v>-222800</v>
+        <v>-231800</v>
       </c>
       <c r="F94" s="3">
-        <v>-112700</v>
+        <v>-117200</v>
       </c>
       <c r="G94" s="3">
-        <v>-31300</v>
+        <v>-32500</v>
       </c>
       <c r="H94" s="3">
-        <v>-28500</v>
+        <v>-29600</v>
       </c>
       <c r="I94" s="3">
-        <v>-88200</v>
+        <v>-91800</v>
       </c>
       <c r="J94" s="3">
-        <v>-6100</v>
+        <v>-6400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3774,16 +3774,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-96800</v>
+        <v>-100700</v>
       </c>
       <c r="H96" s="3">
-        <v>-62900</v>
+        <v>-65500</v>
       </c>
       <c r="I96" s="3">
-        <v>-36800</v>
+        <v>-38300</v>
       </c>
       <c r="J96" s="3">
-        <v>-33800</v>
+        <v>-35100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3920,26 +3920,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-40300</v>
       </c>
       <c r="E100" s="3">
-        <v>1285600</v>
+        <v>1337100</v>
       </c>
       <c r="F100" s="3">
-        <v>152700</v>
+        <v>158800</v>
       </c>
       <c r="G100" s="3">
-        <v>819800</v>
+        <v>852700</v>
       </c>
       <c r="H100" s="3">
-        <v>73600</v>
+        <v>76500</v>
       </c>
       <c r="I100" s="3">
-        <v>113200</v>
+        <v>117700</v>
       </c>
       <c r="J100" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3959,20 +3959,20 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-3400</v>
       </c>
       <c r="E101" s="3">
-        <v>-72900</v>
+        <v>-75900</v>
       </c>
       <c r="F101" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="G101" s="3">
         <v>500</v>
       </c>
       <c r="H101" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I101" s="3">
         <v>800</v>
@@ -3998,26 +3998,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>244800</v>
       </c>
       <c r="E102" s="3">
-        <v>211300</v>
+        <v>219800</v>
       </c>
       <c r="F102" s="3">
-        <v>343200</v>
+        <v>357000</v>
       </c>
       <c r="G102" s="3">
-        <v>50500</v>
+        <v>52600</v>
       </c>
       <c r="H102" s="3">
-        <v>-40400</v>
+        <v>-42000</v>
       </c>
       <c r="I102" s="3">
-        <v>76600</v>
+        <v>79600</v>
       </c>
       <c r="J102" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2688200</v>
+        <v>2694000</v>
       </c>
       <c r="E8" s="3">
-        <v>2432300</v>
+        <v>2437600</v>
       </c>
       <c r="F8" s="3">
-        <v>1641700</v>
+        <v>1645300</v>
       </c>
       <c r="G8" s="3">
-        <v>1032700</v>
+        <v>1035000</v>
       </c>
       <c r="H8" s="3">
-        <v>595800</v>
+        <v>597100</v>
       </c>
       <c r="I8" s="3">
-        <v>384000</v>
+        <v>384800</v>
       </c>
       <c r="J8" s="3">
-        <v>252100</v>
+        <v>252700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -975,10 +975,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="E15" s="3">
-        <v>46700</v>
+        <v>46800</v>
       </c>
       <c r="F15" s="3">
         <v>28900</v>
@@ -987,13 +987,13 @@
         <v>18400</v>
       </c>
       <c r="H15" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="I15" s="3">
         <v>5500</v>
       </c>
       <c r="J15" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1910900</v>
+        <v>1915100</v>
       </c>
       <c r="E17" s="3">
-        <v>1635100</v>
+        <v>1638600</v>
       </c>
       <c r="F17" s="3">
-        <v>1143600</v>
+        <v>1146100</v>
       </c>
       <c r="G17" s="3">
-        <v>704800</v>
+        <v>706300</v>
       </c>
       <c r="H17" s="3">
-        <v>452200</v>
+        <v>453200</v>
       </c>
       <c r="I17" s="3">
-        <v>255800</v>
+        <v>256300</v>
       </c>
       <c r="J17" s="3">
-        <v>176800</v>
+        <v>177200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>777200</v>
+        <v>778900</v>
       </c>
       <c r="E18" s="3">
-        <v>797300</v>
+        <v>799000</v>
       </c>
       <c r="F18" s="3">
-        <v>498100</v>
+        <v>499200</v>
       </c>
       <c r="G18" s="3">
-        <v>328000</v>
+        <v>328700</v>
       </c>
       <c r="H18" s="3">
-        <v>143600</v>
+        <v>143900</v>
       </c>
       <c r="I18" s="3">
-        <v>128200</v>
+        <v>128500</v>
       </c>
       <c r="J18" s="3">
-        <v>75300</v>
+        <v>75500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>816500</v>
+        <v>818000</v>
       </c>
       <c r="E21" s="3">
-        <v>842600</v>
+        <v>844200</v>
       </c>
       <c r="F21" s="3">
-        <v>527300</v>
+        <v>528300</v>
       </c>
       <c r="G21" s="3">
-        <v>346300</v>
+        <v>347000</v>
       </c>
       <c r="H21" s="3">
-        <v>139700</v>
+        <v>140000</v>
       </c>
       <c r="I21" s="3">
-        <v>121500</v>
+        <v>121700</v>
       </c>
       <c r="J21" s="3">
-        <v>80000</v>
+        <v>80100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>81000</v>
+        <v>81200</v>
       </c>
       <c r="E22" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="F22" s="3">
         <v>10600</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>693800</v>
+        <v>695300</v>
       </c>
       <c r="E23" s="3">
-        <v>768400</v>
+        <v>770100</v>
       </c>
       <c r="F23" s="3">
-        <v>487700</v>
+        <v>488700</v>
       </c>
       <c r="G23" s="3">
-        <v>311000</v>
+        <v>311700</v>
       </c>
       <c r="H23" s="3">
-        <v>129000</v>
+        <v>129300</v>
       </c>
       <c r="I23" s="3">
-        <v>115900</v>
+        <v>116200</v>
       </c>
       <c r="J23" s="3">
-        <v>75300</v>
+        <v>75500</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-27300</v>
+        <v>-27400</v>
       </c>
       <c r="E24" s="3">
-        <v>44900</v>
+        <v>45000</v>
       </c>
       <c r="F24" s="3">
-        <v>68500</v>
+        <v>68600</v>
       </c>
       <c r="G24" s="3">
-        <v>91600</v>
+        <v>91800</v>
       </c>
       <c r="H24" s="3">
-        <v>35300</v>
+        <v>35400</v>
       </c>
       <c r="I24" s="3">
-        <v>30600</v>
+        <v>30700</v>
       </c>
       <c r="J24" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>721100</v>
+        <v>722600</v>
       </c>
       <c r="E26" s="3">
-        <v>723500</v>
+        <v>725100</v>
       </c>
       <c r="F26" s="3">
-        <v>419200</v>
+        <v>420100</v>
       </c>
       <c r="G26" s="3">
-        <v>219400</v>
+        <v>219900</v>
       </c>
       <c r="H26" s="3">
-        <v>93700</v>
+        <v>93900</v>
       </c>
       <c r="I26" s="3">
-        <v>85300</v>
+        <v>85500</v>
       </c>
       <c r="J26" s="3">
-        <v>49100</v>
+        <v>49200</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>720800</v>
+        <v>722400</v>
       </c>
       <c r="E27" s="3">
-        <v>722900</v>
+        <v>724500</v>
       </c>
       <c r="F27" s="3">
-        <v>418200</v>
+        <v>419100</v>
       </c>
       <c r="G27" s="3">
-        <v>217600</v>
+        <v>218100</v>
       </c>
       <c r="H27" s="3">
-        <v>92900</v>
+        <v>93100</v>
       </c>
       <c r="I27" s="3">
-        <v>83400</v>
+        <v>83500</v>
       </c>
       <c r="J27" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>720800</v>
+        <v>722400</v>
       </c>
       <c r="E33" s="3">
-        <v>722900</v>
+        <v>724500</v>
       </c>
       <c r="F33" s="3">
-        <v>418200</v>
+        <v>419100</v>
       </c>
       <c r="G33" s="3">
-        <v>217600</v>
+        <v>218100</v>
       </c>
       <c r="H33" s="3">
-        <v>92900</v>
+        <v>93100</v>
       </c>
       <c r="I33" s="3">
-        <v>83400</v>
+        <v>83500</v>
       </c>
       <c r="J33" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>720800</v>
+        <v>722400</v>
       </c>
       <c r="E35" s="3">
-        <v>722900</v>
+        <v>724500</v>
       </c>
       <c r="F35" s="3">
-        <v>418200</v>
+        <v>419100</v>
       </c>
       <c r="G35" s="3">
-        <v>217600</v>
+        <v>218100</v>
       </c>
       <c r="H35" s="3">
-        <v>92900</v>
+        <v>93100</v>
       </c>
       <c r="I35" s="3">
-        <v>83400</v>
+        <v>83500</v>
       </c>
       <c r="J35" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,16 +1825,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>715600</v>
+        <v>717200</v>
       </c>
       <c r="E41" s="3">
-        <v>500600</v>
+        <v>501700</v>
       </c>
       <c r="F41" s="3">
-        <v>393700</v>
+        <v>394600</v>
       </c>
       <c r="G41" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="H41" s="3">
         <v>13800</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>153300</v>
+        <v>153600</v>
       </c>
       <c r="E43" s="3">
-        <v>125400</v>
+        <v>125600</v>
       </c>
       <c r="F43" s="3">
-        <v>127700</v>
+        <v>128000</v>
       </c>
       <c r="G43" s="3">
-        <v>142100</v>
+        <v>142400</v>
       </c>
       <c r="H43" s="3">
-        <v>81100</v>
+        <v>81300</v>
       </c>
       <c r="I43" s="3">
-        <v>34600</v>
+        <v>34700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1981,13 +1981,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>854000</v>
+        <v>855800</v>
       </c>
       <c r="E45" s="3">
-        <v>802100</v>
+        <v>803900</v>
       </c>
       <c r="F45" s="3">
-        <v>280700</v>
+        <v>281300</v>
       </c>
       <c r="G45" s="3">
         <v>18100</v>
@@ -2059,22 +2059,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29792600</v>
+        <v>29857700</v>
       </c>
       <c r="E47" s="3">
-        <v>21253000</v>
+        <v>21299400</v>
       </c>
       <c r="F47" s="3">
-        <v>15891800</v>
+        <v>15926500</v>
       </c>
       <c r="G47" s="3">
-        <v>7520600</v>
+        <v>7537100</v>
       </c>
       <c r="H47" s="3">
-        <v>2954800</v>
+        <v>2961300</v>
       </c>
       <c r="I47" s="3">
-        <v>1090400</v>
+        <v>1092800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2098,16 +2098,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>114700</v>
+        <v>114900</v>
       </c>
       <c r="E48" s="3">
-        <v>120500</v>
+        <v>120800</v>
       </c>
       <c r="F48" s="3">
-        <v>78000</v>
+        <v>78100</v>
       </c>
       <c r="G48" s="3">
-        <v>74500</v>
+        <v>74700</v>
       </c>
       <c r="H48" s="3">
         <v>20000</v>
@@ -2137,22 +2137,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>170000</v>
+        <v>170400</v>
       </c>
       <c r="E49" s="3">
-        <v>165300</v>
+        <v>165700</v>
       </c>
       <c r="F49" s="3">
-        <v>143700</v>
+        <v>144000</v>
       </c>
       <c r="G49" s="3">
-        <v>111500</v>
+        <v>111700</v>
       </c>
       <c r="H49" s="3">
-        <v>101700</v>
+        <v>101900</v>
       </c>
       <c r="I49" s="3">
-        <v>97300</v>
+        <v>97500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>324600</v>
+        <v>325300</v>
       </c>
       <c r="E52" s="3">
-        <v>256400</v>
+        <v>257000</v>
       </c>
       <c r="F52" s="3">
-        <v>101700</v>
+        <v>101900</v>
       </c>
       <c r="G52" s="3">
-        <v>57300</v>
+        <v>57400</v>
       </c>
       <c r="H52" s="3">
-        <v>30700</v>
+        <v>30800</v>
       </c>
       <c r="I52" s="3">
-        <v>45600</v>
+        <v>45700</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38675800</v>
+        <v>38760300</v>
       </c>
       <c r="E54" s="3">
-        <v>28063200</v>
+        <v>28124500</v>
       </c>
       <c r="F54" s="3">
-        <v>19340300</v>
+        <v>19382500</v>
       </c>
       <c r="G54" s="3">
-        <v>8785600</v>
+        <v>8804800</v>
       </c>
       <c r="H54" s="3">
-        <v>3569700</v>
+        <v>3577500</v>
       </c>
       <c r="I54" s="3">
-        <v>1437200</v>
+        <v>1440400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,19 +2405,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>124300</v>
+        <v>124600</v>
       </c>
       <c r="E57" s="3">
-        <v>174700</v>
+        <v>175100</v>
       </c>
       <c r="F57" s="3">
-        <v>173100</v>
+        <v>173500</v>
       </c>
       <c r="G57" s="3">
-        <v>53700</v>
+        <v>53900</v>
       </c>
       <c r="H57" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="I57" s="3">
         <v>14400</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9925700</v>
+        <v>9947400</v>
       </c>
       <c r="E58" s="3">
-        <v>6198400</v>
+        <v>6212000</v>
       </c>
       <c r="F58" s="3">
-        <v>6911100</v>
+        <v>6926200</v>
       </c>
       <c r="G58" s="3">
-        <v>3655000</v>
+        <v>3663000</v>
       </c>
       <c r="H58" s="3">
-        <v>1614200</v>
+        <v>1617700</v>
       </c>
       <c r="I58" s="3">
-        <v>273300</v>
+        <v>273900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>268600</v>
+        <v>269200</v>
       </c>
       <c r="E59" s="3">
-        <v>316600</v>
+        <v>317300</v>
       </c>
       <c r="F59" s="3">
-        <v>222200</v>
+        <v>222700</v>
       </c>
       <c r="G59" s="3">
-        <v>168800</v>
+        <v>169200</v>
       </c>
       <c r="H59" s="3">
-        <v>71500</v>
+        <v>71600</v>
       </c>
       <c r="I59" s="3">
-        <v>71800</v>
+        <v>71900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2561,22 +2561,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>760700</v>
+        <v>762400</v>
       </c>
       <c r="E61" s="3">
-        <v>924200</v>
+        <v>926200</v>
       </c>
       <c r="F61" s="3">
-        <v>118600</v>
+        <v>118900</v>
       </c>
       <c r="G61" s="3">
-        <v>198300</v>
+        <v>198800</v>
       </c>
       <c r="H61" s="3">
-        <v>153400</v>
+        <v>153700</v>
       </c>
       <c r="I61" s="3">
-        <v>148400</v>
+        <v>148700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9241900</v>
+        <v>9262100</v>
       </c>
       <c r="E62" s="3">
-        <v>6440700</v>
+        <v>6454800</v>
       </c>
       <c r="F62" s="3">
-        <v>2702000</v>
+        <v>2707900</v>
       </c>
       <c r="G62" s="3">
-        <v>761200</v>
+        <v>762800</v>
       </c>
       <c r="H62" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I62" s="3">
         <v>3800</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35244800</v>
+        <v>35321800</v>
       </c>
       <c r="E66" s="3">
-        <v>25159600</v>
+        <v>25214600</v>
       </c>
       <c r="F66" s="3">
-        <v>17146100</v>
+        <v>17183600</v>
       </c>
       <c r="G66" s="3">
-        <v>7344900</v>
+        <v>7361000</v>
       </c>
       <c r="H66" s="3">
-        <v>3149800</v>
+        <v>3156700</v>
       </c>
       <c r="I66" s="3">
-        <v>1206800</v>
+        <v>1209500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3858100</v>
+        <v>3866500</v>
       </c>
       <c r="E72" s="3">
-        <v>3005600</v>
+        <v>3012100</v>
       </c>
       <c r="F72" s="3">
-        <v>2147700</v>
+        <v>2152400</v>
       </c>
       <c r="G72" s="3">
-        <v>1398400</v>
+        <v>1401500</v>
       </c>
       <c r="H72" s="3">
-        <v>190900</v>
+        <v>191300</v>
       </c>
       <c r="I72" s="3">
-        <v>138100</v>
+        <v>138400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3431000</v>
+        <v>3438500</v>
       </c>
       <c r="E76" s="3">
-        <v>2903600</v>
+        <v>2909900</v>
       </c>
       <c r="F76" s="3">
-        <v>2194200</v>
+        <v>2199000</v>
       </c>
       <c r="G76" s="3">
-        <v>1440700</v>
+        <v>1443800</v>
       </c>
       <c r="H76" s="3">
-        <v>419900</v>
+        <v>420800</v>
       </c>
       <c r="I76" s="3">
-        <v>230400</v>
+        <v>230900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>720800</v>
+        <v>722400</v>
       </c>
       <c r="E81" s="3">
-        <v>722900</v>
+        <v>724500</v>
       </c>
       <c r="F81" s="3">
-        <v>418200</v>
+        <v>419100</v>
       </c>
       <c r="G81" s="3">
-        <v>217600</v>
+        <v>218100</v>
       </c>
       <c r="H81" s="3">
-        <v>92900</v>
+        <v>93100</v>
       </c>
       <c r="I81" s="3">
-        <v>83400</v>
+        <v>83500</v>
       </c>
       <c r="J81" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,10 +3302,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="E83" s="3">
-        <v>46700</v>
+        <v>46800</v>
       </c>
       <c r="F83" s="3">
         <v>28900</v>
@@ -3314,13 +3314,13 @@
         <v>18300</v>
       </c>
       <c r="H83" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="I83" s="3">
         <v>5500</v>
       </c>
       <c r="J83" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>363300</v>
+        <v>364100</v>
       </c>
       <c r="E89" s="3">
-        <v>-809700</v>
+        <v>-811500</v>
       </c>
       <c r="F89" s="3">
-        <v>304300</v>
+        <v>304900</v>
       </c>
       <c r="G89" s="3">
-        <v>-768100</v>
+        <v>-769800</v>
       </c>
       <c r="H89" s="3">
-        <v>-92000</v>
+        <v>-92200</v>
       </c>
       <c r="I89" s="3">
-        <v>52800</v>
+        <v>53000</v>
       </c>
       <c r="J89" s="3">
         <v>1000</v>
@@ -3598,7 +3598,7 @@
         <v>-27300</v>
       </c>
       <c r="F91" s="3">
-        <v>-29200</v>
+        <v>-29300</v>
       </c>
       <c r="G91" s="3">
         <v>-14600</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-74800</v>
+        <v>-74900</v>
       </c>
       <c r="E94" s="3">
-        <v>-231800</v>
+        <v>-232300</v>
       </c>
       <c r="F94" s="3">
-        <v>-117200</v>
+        <v>-117500</v>
       </c>
       <c r="G94" s="3">
-        <v>-32500</v>
+        <v>-32600</v>
       </c>
       <c r="H94" s="3">
-        <v>-29600</v>
+        <v>-29700</v>
       </c>
       <c r="I94" s="3">
-        <v>-91800</v>
+        <v>-92000</v>
       </c>
       <c r="J94" s="3">
         <v>-6400</v>
@@ -3774,16 +3774,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-100700</v>
+        <v>-100900</v>
       </c>
       <c r="H96" s="3">
-        <v>-65500</v>
+        <v>-65600</v>
       </c>
       <c r="I96" s="3">
         <v>-38300</v>
       </c>
       <c r="J96" s="3">
-        <v>-35100</v>
+        <v>-35200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-40300</v>
+        <v>-40400</v>
       </c>
       <c r="E100" s="3">
-        <v>1337100</v>
+        <v>1340100</v>
       </c>
       <c r="F100" s="3">
-        <v>158800</v>
+        <v>159200</v>
       </c>
       <c r="G100" s="3">
-        <v>852700</v>
+        <v>854600</v>
       </c>
       <c r="H100" s="3">
-        <v>76500</v>
+        <v>76700</v>
       </c>
       <c r="I100" s="3">
-        <v>117700</v>
+        <v>118000</v>
       </c>
       <c r="J100" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3963,7 +3963,7 @@
         <v>-3400</v>
       </c>
       <c r="E101" s="3">
-        <v>-75900</v>
+        <v>-76000</v>
       </c>
       <c r="F101" s="3">
         <v>11100</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>244800</v>
+        <v>245400</v>
       </c>
       <c r="E102" s="3">
-        <v>219800</v>
+        <v>220300</v>
       </c>
       <c r="F102" s="3">
-        <v>357000</v>
+        <v>357800</v>
       </c>
       <c r="G102" s="3">
-        <v>52600</v>
+        <v>52700</v>
       </c>
       <c r="H102" s="3">
-        <v>-42000</v>
+        <v>-42100</v>
       </c>
       <c r="I102" s="3">
-        <v>79600</v>
+        <v>79800</v>
       </c>
       <c r="J102" s="3">
         <v>9700</v>

--- a/AAII_Financials/Yearly/XP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XP_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2694000</v>
+        <v>2744600</v>
       </c>
       <c r="E8" s="3">
-        <v>2437600</v>
+        <v>2483400</v>
       </c>
       <c r="F8" s="3">
-        <v>1645300</v>
+        <v>1676200</v>
       </c>
       <c r="G8" s="3">
-        <v>1035000</v>
+        <v>1054400</v>
       </c>
       <c r="H8" s="3">
-        <v>597100</v>
+        <v>608300</v>
       </c>
       <c r="I8" s="3">
-        <v>384800</v>
+        <v>392100</v>
       </c>
       <c r="J8" s="3">
-        <v>252700</v>
+        <v>257400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -942,7 +942,7 @@
         <v>900</v>
       </c>
       <c r="F14" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -975,22 +975,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>41600</v>
+        <v>42300</v>
       </c>
       <c r="E15" s="3">
-        <v>46800</v>
+        <v>47700</v>
       </c>
       <c r="F15" s="3">
-        <v>28900</v>
+        <v>29500</v>
       </c>
       <c r="G15" s="3">
-        <v>18400</v>
+        <v>18700</v>
       </c>
       <c r="H15" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="I15" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="J15" s="3">
         <v>4700</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1915100</v>
+        <v>1951100</v>
       </c>
       <c r="E17" s="3">
-        <v>1638600</v>
+        <v>1669400</v>
       </c>
       <c r="F17" s="3">
-        <v>1146100</v>
+        <v>1167600</v>
       </c>
       <c r="G17" s="3">
-        <v>706300</v>
+        <v>719600</v>
       </c>
       <c r="H17" s="3">
-        <v>453200</v>
+        <v>461700</v>
       </c>
       <c r="I17" s="3">
-        <v>256300</v>
+        <v>261200</v>
       </c>
       <c r="J17" s="3">
-        <v>177200</v>
+        <v>180500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>778900</v>
+        <v>793600</v>
       </c>
       <c r="E18" s="3">
-        <v>799000</v>
+        <v>814000</v>
       </c>
       <c r="F18" s="3">
-        <v>499200</v>
+        <v>508600</v>
       </c>
       <c r="G18" s="3">
-        <v>328700</v>
+        <v>334900</v>
       </c>
       <c r="H18" s="3">
-        <v>143900</v>
+        <v>146600</v>
       </c>
       <c r="I18" s="3">
-        <v>128500</v>
+        <v>130900</v>
       </c>
       <c r="J18" s="3">
-        <v>75500</v>
+        <v>76900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-14600</v>
+        <v>-14900</v>
       </c>
       <c r="I20" s="3">
-        <v>-12300</v>
+        <v>-12600</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>818000</v>
+        <v>833400</v>
       </c>
       <c r="E21" s="3">
-        <v>844200</v>
+        <v>860100</v>
       </c>
       <c r="F21" s="3">
-        <v>528300</v>
+        <v>538200</v>
       </c>
       <c r="G21" s="3">
-        <v>347000</v>
+        <v>353500</v>
       </c>
       <c r="H21" s="3">
-        <v>140000</v>
+        <v>142600</v>
       </c>
       <c r="I21" s="3">
-        <v>121700</v>
+        <v>124000</v>
       </c>
       <c r="J21" s="3">
-        <v>80100</v>
+        <v>81600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1201,16 +1201,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>81200</v>
+        <v>82700</v>
       </c>
       <c r="E22" s="3">
-        <v>27400</v>
+        <v>27900</v>
       </c>
       <c r="F22" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="G22" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>695300</v>
+        <v>708300</v>
       </c>
       <c r="E23" s="3">
-        <v>770100</v>
+        <v>784500</v>
       </c>
       <c r="F23" s="3">
-        <v>488700</v>
+        <v>497900</v>
       </c>
       <c r="G23" s="3">
-        <v>311700</v>
+        <v>317500</v>
       </c>
       <c r="H23" s="3">
-        <v>129300</v>
+        <v>131800</v>
       </c>
       <c r="I23" s="3">
-        <v>116200</v>
+        <v>118300</v>
       </c>
       <c r="J23" s="3">
-        <v>75500</v>
+        <v>76900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-27400</v>
+        <v>-27900</v>
       </c>
       <c r="E24" s="3">
-        <v>45000</v>
+        <v>45800</v>
       </c>
       <c r="F24" s="3">
-        <v>68600</v>
+        <v>69900</v>
       </c>
       <c r="G24" s="3">
-        <v>91800</v>
+        <v>93500</v>
       </c>
       <c r="H24" s="3">
-        <v>35400</v>
+        <v>36100</v>
       </c>
       <c r="I24" s="3">
-        <v>30700</v>
+        <v>31200</v>
       </c>
       <c r="J24" s="3">
-        <v>26300</v>
+        <v>26800</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>722600</v>
+        <v>736200</v>
       </c>
       <c r="E26" s="3">
-        <v>725100</v>
+        <v>738700</v>
       </c>
       <c r="F26" s="3">
-        <v>420100</v>
+        <v>428000</v>
       </c>
       <c r="G26" s="3">
-        <v>219900</v>
+        <v>224000</v>
       </c>
       <c r="H26" s="3">
-        <v>93900</v>
+        <v>95700</v>
       </c>
       <c r="I26" s="3">
-        <v>85500</v>
+        <v>87100</v>
       </c>
       <c r="J26" s="3">
-        <v>49200</v>
+        <v>50100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>722400</v>
+        <v>736000</v>
       </c>
       <c r="E27" s="3">
-        <v>724500</v>
+        <v>738100</v>
       </c>
       <c r="F27" s="3">
-        <v>419100</v>
+        <v>427000</v>
       </c>
       <c r="G27" s="3">
-        <v>218100</v>
+        <v>222200</v>
       </c>
       <c r="H27" s="3">
-        <v>93100</v>
+        <v>94900</v>
       </c>
       <c r="I27" s="3">
-        <v>83500</v>
+        <v>85100</v>
       </c>
       <c r="J27" s="3">
-        <v>38100</v>
+        <v>38800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="I32" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>722400</v>
+        <v>736000</v>
       </c>
       <c r="E33" s="3">
-        <v>724500</v>
+        <v>738100</v>
       </c>
       <c r="F33" s="3">
-        <v>419100</v>
+        <v>427000</v>
       </c>
       <c r="G33" s="3">
-        <v>218100</v>
+        <v>222200</v>
       </c>
       <c r="H33" s="3">
-        <v>93100</v>
+        <v>94900</v>
       </c>
       <c r="I33" s="3">
-        <v>83500</v>
+        <v>85100</v>
       </c>
       <c r="J33" s="3">
-        <v>38100</v>
+        <v>38800</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>722400</v>
+        <v>736000</v>
       </c>
       <c r="E35" s="3">
-        <v>724500</v>
+        <v>738100</v>
       </c>
       <c r="F35" s="3">
-        <v>419100</v>
+        <v>427000</v>
       </c>
       <c r="G35" s="3">
-        <v>218100</v>
+        <v>222200</v>
       </c>
       <c r="H35" s="3">
-        <v>93100</v>
+        <v>94900</v>
       </c>
       <c r="I35" s="3">
-        <v>83500</v>
+        <v>85100</v>
       </c>
       <c r="J35" s="3">
-        <v>38100</v>
+        <v>38800</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>717200</v>
+        <v>730600</v>
       </c>
       <c r="E41" s="3">
-        <v>501700</v>
+        <v>511100</v>
       </c>
       <c r="F41" s="3">
-        <v>394600</v>
+        <v>402000</v>
       </c>
       <c r="G41" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="H41" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="I41" s="3">
-        <v>30900</v>
+        <v>31500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>153600</v>
+        <v>156500</v>
       </c>
       <c r="E43" s="3">
-        <v>125600</v>
+        <v>128000</v>
       </c>
       <c r="F43" s="3">
-        <v>128000</v>
+        <v>130400</v>
       </c>
       <c r="G43" s="3">
-        <v>142400</v>
+        <v>145000</v>
       </c>
       <c r="H43" s="3">
-        <v>81300</v>
+        <v>82800</v>
       </c>
       <c r="I43" s="3">
-        <v>34700</v>
+        <v>35300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>855800</v>
+        <v>871900</v>
       </c>
       <c r="E45" s="3">
-        <v>803900</v>
+        <v>819000</v>
       </c>
       <c r="F45" s="3">
-        <v>281300</v>
+        <v>286600</v>
       </c>
       <c r="G45" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="H45" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="I45" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2059,22 +2059,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29857700</v>
+        <v>30418300</v>
       </c>
       <c r="E47" s="3">
-        <v>21299400</v>
+        <v>21699400</v>
       </c>
       <c r="F47" s="3">
-        <v>15926500</v>
+        <v>16225600</v>
       </c>
       <c r="G47" s="3">
-        <v>7537100</v>
+        <v>7678600</v>
       </c>
       <c r="H47" s="3">
-        <v>2961300</v>
+        <v>3016900</v>
       </c>
       <c r="I47" s="3">
-        <v>1092800</v>
+        <v>1113300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2098,22 +2098,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>114900</v>
+        <v>117100</v>
       </c>
       <c r="E48" s="3">
-        <v>120800</v>
+        <v>123100</v>
       </c>
       <c r="F48" s="3">
-        <v>78100</v>
+        <v>79600</v>
       </c>
       <c r="G48" s="3">
-        <v>74700</v>
+        <v>76100</v>
       </c>
       <c r="H48" s="3">
-        <v>20000</v>
+        <v>20400</v>
       </c>
       <c r="I48" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2137,22 +2137,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>170400</v>
+        <v>173600</v>
       </c>
       <c r="E49" s="3">
-        <v>165700</v>
+        <v>168800</v>
       </c>
       <c r="F49" s="3">
-        <v>144000</v>
+        <v>146700</v>
       </c>
       <c r="G49" s="3">
-        <v>111700</v>
+        <v>113800</v>
       </c>
       <c r="H49" s="3">
-        <v>101900</v>
+        <v>103800</v>
       </c>
       <c r="I49" s="3">
-        <v>97500</v>
+        <v>99400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2254,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>325300</v>
+        <v>331500</v>
       </c>
       <c r="E52" s="3">
-        <v>257000</v>
+        <v>261800</v>
       </c>
       <c r="F52" s="3">
-        <v>101900</v>
+        <v>103900</v>
       </c>
       <c r="G52" s="3">
-        <v>57400</v>
+        <v>58500</v>
       </c>
       <c r="H52" s="3">
-        <v>30800</v>
+        <v>31300</v>
       </c>
       <c r="I52" s="3">
-        <v>45700</v>
+        <v>46600</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38760300</v>
+        <v>39488100</v>
       </c>
       <c r="E54" s="3">
-        <v>28124500</v>
+        <v>28652600</v>
       </c>
       <c r="F54" s="3">
-        <v>19382500</v>
+        <v>19746500</v>
       </c>
       <c r="G54" s="3">
-        <v>8804800</v>
+        <v>8970100</v>
       </c>
       <c r="H54" s="3">
-        <v>3577500</v>
+        <v>3644600</v>
       </c>
       <c r="I54" s="3">
-        <v>1440400</v>
+        <v>1467400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>124600</v>
+        <v>127000</v>
       </c>
       <c r="E57" s="3">
-        <v>175100</v>
+        <v>178400</v>
       </c>
       <c r="F57" s="3">
-        <v>173500</v>
+        <v>176700</v>
       </c>
       <c r="G57" s="3">
-        <v>53900</v>
+        <v>54900</v>
       </c>
       <c r="H57" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="I57" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2444,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9947400</v>
+        <v>10134200</v>
       </c>
       <c r="E58" s="3">
-        <v>6212000</v>
+        <v>6328600</v>
       </c>
       <c r="F58" s="3">
-        <v>6926200</v>
+        <v>7056300</v>
       </c>
       <c r="G58" s="3">
-        <v>3663000</v>
+        <v>3731800</v>
       </c>
       <c r="H58" s="3">
-        <v>1617700</v>
+        <v>1648100</v>
       </c>
       <c r="I58" s="3">
-        <v>273900</v>
+        <v>279000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>269200</v>
+        <v>274200</v>
       </c>
       <c r="E59" s="3">
-        <v>317300</v>
+        <v>323200</v>
       </c>
       <c r="F59" s="3">
-        <v>222700</v>
+        <v>226900</v>
       </c>
       <c r="G59" s="3">
-        <v>169200</v>
+        <v>172300</v>
       </c>
       <c r="H59" s="3">
-        <v>71600</v>
+        <v>73000</v>
       </c>
       <c r="I59" s="3">
-        <v>71900</v>
+        <v>73300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2561,22 +2561,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>762400</v>
+        <v>776700</v>
       </c>
       <c r="E61" s="3">
-        <v>926200</v>
+        <v>943600</v>
       </c>
       <c r="F61" s="3">
-        <v>118900</v>
+        <v>121100</v>
       </c>
       <c r="G61" s="3">
-        <v>198800</v>
+        <v>202500</v>
       </c>
       <c r="H61" s="3">
-        <v>153700</v>
+        <v>156600</v>
       </c>
       <c r="I61" s="3">
-        <v>148700</v>
+        <v>151500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9262100</v>
+        <v>9436000</v>
       </c>
       <c r="E62" s="3">
-        <v>6454800</v>
+        <v>6576000</v>
       </c>
       <c r="F62" s="3">
-        <v>2707900</v>
+        <v>2758700</v>
       </c>
       <c r="G62" s="3">
-        <v>762800</v>
+        <v>777200</v>
       </c>
       <c r="H62" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="I62" s="3">
         <v>3800</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35321800</v>
+        <v>35985000</v>
       </c>
       <c r="E66" s="3">
-        <v>25214600</v>
+        <v>25688000</v>
       </c>
       <c r="F66" s="3">
-        <v>17183600</v>
+        <v>17506200</v>
       </c>
       <c r="G66" s="3">
-        <v>7361000</v>
+        <v>7499200</v>
       </c>
       <c r="H66" s="3">
-        <v>3156700</v>
+        <v>3215900</v>
       </c>
       <c r="I66" s="3">
-        <v>1209500</v>
+        <v>1232200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3866500</v>
+        <v>3939100</v>
       </c>
       <c r="E72" s="3">
-        <v>3012100</v>
+        <v>3068700</v>
       </c>
       <c r="F72" s="3">
-        <v>2152400</v>
+        <v>2192800</v>
       </c>
       <c r="G72" s="3">
-        <v>1401500</v>
+        <v>1427800</v>
       </c>
       <c r="H72" s="3">
-        <v>191300</v>
+        <v>194900</v>
       </c>
       <c r="I72" s="3">
-        <v>138400</v>
+        <v>141000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3438500</v>
+        <v>3503100</v>
       </c>
       <c r="E76" s="3">
-        <v>2909900</v>
+        <v>2964500</v>
       </c>
       <c r="F76" s="3">
-        <v>2199000</v>
+        <v>2240300</v>
       </c>
       <c r="G76" s="3">
-        <v>1443800</v>
+        <v>1471000</v>
       </c>
       <c r="H76" s="3">
-        <v>420800</v>
+        <v>428700</v>
       </c>
       <c r="I76" s="3">
-        <v>230900</v>
+        <v>235200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>722400</v>
+        <v>736000</v>
       </c>
       <c r="E81" s="3">
-        <v>724500</v>
+        <v>738100</v>
       </c>
       <c r="F81" s="3">
-        <v>419100</v>
+        <v>427000</v>
       </c>
       <c r="G81" s="3">
-        <v>218100</v>
+        <v>222200</v>
       </c>
       <c r="H81" s="3">
-        <v>93100</v>
+        <v>94900</v>
       </c>
       <c r="I81" s="3">
-        <v>83500</v>
+        <v>85100</v>
       </c>
       <c r="J81" s="3">
-        <v>38100</v>
+        <v>38800</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41600</v>
+        <v>42300</v>
       </c>
       <c r="E83" s="3">
-        <v>46800</v>
+        <v>47700</v>
       </c>
       <c r="F83" s="3">
-        <v>28900</v>
+        <v>29500</v>
       </c>
       <c r="G83" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="H83" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="I83" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="J83" s="3">
         <v>4700</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>364100</v>
+        <v>370900</v>
       </c>
       <c r="E89" s="3">
-        <v>-811500</v>
+        <v>-826700</v>
       </c>
       <c r="F89" s="3">
-        <v>304900</v>
+        <v>310700</v>
       </c>
       <c r="G89" s="3">
-        <v>-769800</v>
+        <v>-784300</v>
       </c>
       <c r="H89" s="3">
-        <v>-92200</v>
+        <v>-93900</v>
       </c>
       <c r="I89" s="3">
-        <v>53000</v>
+        <v>54000</v>
       </c>
       <c r="J89" s="3">
         <v>1000</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="E91" s="3">
-        <v>-27300</v>
+        <v>-27900</v>
       </c>
       <c r="F91" s="3">
-        <v>-29300</v>
+        <v>-29900</v>
       </c>
       <c r="G91" s="3">
-        <v>-14600</v>
+        <v>-14900</v>
       </c>
       <c r="H91" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="I91" s="3">
         <v>-4200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-74900</v>
+        <v>-76300</v>
       </c>
       <c r="E94" s="3">
-        <v>-232300</v>
+        <v>-236600</v>
       </c>
       <c r="F94" s="3">
-        <v>-117500</v>
+        <v>-119700</v>
       </c>
       <c r="G94" s="3">
-        <v>-32600</v>
+        <v>-33200</v>
       </c>
       <c r="H94" s="3">
-        <v>-29700</v>
+        <v>-30200</v>
       </c>
       <c r="I94" s="3">
-        <v>-92000</v>
+        <v>-93700</v>
       </c>
       <c r="J94" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3774,16 +3774,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-100900</v>
+        <v>-102800</v>
       </c>
       <c r="H96" s="3">
-        <v>-65600</v>
+        <v>-66800</v>
       </c>
       <c r="I96" s="3">
-        <v>-38300</v>
+        <v>-39100</v>
       </c>
       <c r="J96" s="3">
-        <v>-35200</v>
+        <v>-35900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-40400</v>
+        <v>-41200</v>
       </c>
       <c r="E100" s="3">
-        <v>1340100</v>
+        <v>1365200</v>
       </c>
       <c r="F100" s="3">
-        <v>159200</v>
+        <v>162200</v>
       </c>
       <c r="G100" s="3">
-        <v>854600</v>
+        <v>870600</v>
       </c>
       <c r="H100" s="3">
-        <v>76700</v>
+        <v>78200</v>
       </c>
       <c r="I100" s="3">
-        <v>118000</v>
+        <v>120200</v>
       </c>
       <c r="J100" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3963,22 +3963,22 @@
         <v>-3400</v>
       </c>
       <c r="E101" s="3">
-        <v>-76000</v>
+        <v>-77500</v>
       </c>
       <c r="F101" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="G101" s="3">
         <v>500</v>
       </c>
       <c r="H101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I101" s="3">
         <v>800</v>
       </c>
       <c r="J101" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>245400</v>
+        <v>250000</v>
       </c>
       <c r="E102" s="3">
-        <v>220300</v>
+        <v>224400</v>
       </c>
       <c r="F102" s="3">
-        <v>357800</v>
+        <v>364500</v>
       </c>
       <c r="G102" s="3">
-        <v>52700</v>
+        <v>53700</v>
       </c>
       <c r="H102" s="3">
-        <v>-42100</v>
+        <v>-42900</v>
       </c>
       <c r="I102" s="3">
-        <v>79800</v>
+        <v>81300</v>
       </c>
       <c r="J102" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
